--- a/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\03.指标管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\03.指标管理\权益\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="573">
   <si>
     <t>主题域</t>
   </si>
@@ -489,9 +489,6 @@
     <t>资金明细表</t>
   </si>
   <si>
-    <t>本周资金</t>
-  </si>
-  <si>
     <t>字段补全</t>
   </si>
   <si>
@@ -501,28 +498,16 @@
     <t>资金风险事件数</t>
   </si>
   <si>
-    <t>大额交易排名</t>
-  </si>
-  <si>
     <t>投资人姓名</t>
   </si>
   <si>
     <t>交易金额</t>
   </si>
   <si>
-    <t>各个交易市场投资人交易金额</t>
-  </si>
-  <si>
-    <t>频繁交易排名</t>
-  </si>
-  <si>
     <t>频繁交易</t>
   </si>
   <si>
     <t>各个交易市场发行人交易次数</t>
-  </si>
-  <si>
-    <t>大额持仓排名</t>
   </si>
   <si>
     <t>持仓量</t>
@@ -1424,9 +1409,6 @@
   </si>
   <si>
     <t>成交金额异常变动</t>
-  </si>
-  <si>
-    <t>国务院37号文“不得将任何权益拆分为均等份额公开发行”</t>
   </si>
   <si>
     <t>同一产品的所有投资人交易金额间比较是否相等或成倍数</t>
@@ -1787,6 +1769,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1807,6 +1790,84 @@
   </si>
   <si>
     <t>确定公式准确否</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>借方（增加）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷方（减少）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易日期？？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近5个工作日资金流水</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义含义是什么</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院37号文“不得将任何权益拆分为均等份额公开发行”</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个交易市场投资人单笔金额</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大额交易排名-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投资人单笔金额笔数排名，显示前三账户信息及近期交易流水</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>频繁交易排名-投资人频繁交易排名，显示前三账户信息及近期交易流水</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中定义单笔金额笔数排名，是否是单笔金额排名？显示前3账户信息及近期交易流水？？？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>大额持仓排名-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>投资人总持仓金额排名，显示前三账户信息及近期交易流水</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2138,7 +2199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2424,6 +2485,113 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,33 +2601,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2469,71 +2610,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2553,191 +2799,12 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2762,13 +2829,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1457714</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>94740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2806,13 +2873,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>206</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2850,13 +2917,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1360132</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2894,13 +2961,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>228</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3195,11 +3262,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K293"/>
+  <dimension ref="A1:K294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="A121:XFD121"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3253,13 +3320,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="143" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="63"/>
@@ -3274,9 +3341,9 @@
       <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63" t="s">
@@ -3291,9 +3358,9 @@
       <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
       <c r="F4" s="63" t="s">
@@ -3303,16 +3370,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63" t="s">
@@ -3322,16 +3389,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63" t="s">
@@ -3341,16 +3408,16 @@
         <v>17</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="116"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
       <c r="F7" s="63" t="s">
@@ -3365,9 +3432,9 @@
       <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="115"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="114" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="143" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="63"/>
@@ -3377,16 +3444,16 @@
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="73" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="115"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
       <c r="F9" s="63" t="s">
@@ -3394,33 +3461,33 @@
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="73" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
       <c r="F10" s="103" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="73" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
       <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="115"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="104" t="s">
@@ -3433,9 +3500,9 @@
       <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="115"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="104" t="s">
@@ -3448,9 +3515,9 @@
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="115"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="104" t="s">
@@ -3463,9 +3530,9 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="115"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="104" t="s">
@@ -3478,9 +3545,9 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="115"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="104" t="s">
@@ -3493,9 +3560,9 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="115"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="104" t="s">
@@ -3508,9 +3575,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="143" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="63"/>
@@ -3525,9 +3592,9 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63" t="s">
@@ -3540,9 +3607,9 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63" t="s">
@@ -3555,28 +3622,28 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="103" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G20" s="63"/>
       <c r="H20" s="105" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="115"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="117" t="s">
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="130" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="63"/>
@@ -3591,9 +3658,9 @@
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="115"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="118"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63" t="s">
@@ -3606,9 +3673,9 @@
       <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="115"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="118"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63" t="s">
@@ -3621,9 +3688,9 @@
       <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="115"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="118"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63" t="s">
@@ -3636,9 +3703,9 @@
       <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="115"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="118"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63" t="s">
@@ -3651,9 +3718,9 @@
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="115"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="118"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63" t="s">
@@ -3666,9 +3733,9 @@
       <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="119"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63" t="s">
@@ -3681,13 +3748,13 @@
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="130" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="63"/>
@@ -3697,18 +3764,18 @@
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="73" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
       <c r="K28" s="103" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="118"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="119"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="65" t="s">
@@ -3721,28 +3788,28 @@
       <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="118"/>
-      <c r="B30" s="115"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="103" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G30" s="63"/>
       <c r="H30" s="73" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="118"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="117" t="s">
+      <c r="A31" s="131"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="130" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="63"/>
@@ -3755,13 +3822,13 @@
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
       <c r="K31" s="103" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="118"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="119"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="132"/>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="63" t="s">
@@ -3774,28 +3841,28 @@
       <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="118"/>
-      <c r="B33" s="115"/>
+      <c r="A33" s="131"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="103" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="103" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G33" s="63"/>
       <c r="H33" s="73" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="I33" s="63"/>
       <c r="J33" s="63"/>
       <c r="K33" s="63"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="118"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="117" t="s">
+      <c r="A34" s="131"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="130" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="63"/>
@@ -3810,9 +3877,9 @@
       <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="118"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="119"/>
+      <c r="A35" s="131"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="132"/>
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63" t="s">
@@ -3825,9 +3892,9 @@
       <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="118"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="117" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="130" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="63"/>
@@ -3842,9 +3909,9 @@
       <c r="K36" s="63"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="118"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="119"/>
+      <c r="A37" s="131"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="65" t="s">
@@ -3857,11 +3924,11 @@
       <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="118"/>
-      <c r="B38" s="117" t="s">
+      <c r="A38" s="131"/>
+      <c r="B38" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="117" t="s">
+      <c r="C38" s="130" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="63"/>
@@ -3876,9 +3943,9 @@
       <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="118"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="63" t="s">
@@ -3893,9 +3960,9 @@
       <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="118"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="119"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="63" t="s">
@@ -3910,9 +3977,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="118"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="117" t="s">
+      <c r="A41" s="131"/>
+      <c r="B41" s="131"/>
+      <c r="C41" s="130" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="63"/>
@@ -3927,9 +3994,9 @@
       <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="118"/>
-      <c r="B42" s="118"/>
-      <c r="C42" s="118"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="63" t="s">
@@ -3942,9 +4009,9 @@
       <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="118"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="118"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63" t="s">
@@ -3957,9 +4024,9 @@
       <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="118"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="63" t="s">
@@ -3972,9 +4039,9 @@
       <c r="K44" s="63"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="118"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="63" t="s">
@@ -3987,9 +4054,9 @@
       <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="118"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
+      <c r="A46" s="131"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="63" t="s">
@@ -4002,9 +4069,9 @@
       <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="118"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="119"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="132"/>
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="63" t="s">
@@ -4017,11 +4084,11 @@
       <c r="K47" s="63"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="118"/>
-      <c r="B48" s="117" t="s">
+      <c r="A48" s="131"/>
+      <c r="B48" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="133" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="63"/>
@@ -4034,9 +4101,9 @@
       <c r="K48" s="63"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="118"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="121"/>
+      <c r="A49" s="131"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="66" t="s">
@@ -4053,9 +4120,9 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="118"/>
-      <c r="B50" s="118"/>
-      <c r="C50" s="121"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="134"/>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="69" t="s">
@@ -4072,9 +4139,9 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="118"/>
-      <c r="B51" s="118"/>
-      <c r="C51" s="122"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="135"/>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="69" t="s">
@@ -4091,9 +4158,9 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="118"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="120" t="s">
+      <c r="A52" s="131"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="133" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="63"/>
@@ -4110,9 +4177,9 @@
       <c r="K52" s="63"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="118"/>
-      <c r="B53" s="118"/>
-      <c r="C53" s="121"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="134"/>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="66" t="s">
@@ -4127,9 +4194,9 @@
       <c r="K53" s="63"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="118"/>
-      <c r="B54" s="118"/>
-      <c r="C54" s="121"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="134"/>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="69" t="s">
@@ -4144,9 +4211,9 @@
       <c r="K54" s="63"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="118"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="122"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="135"/>
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="69" t="s">
@@ -4163,8 +4230,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="119"/>
-      <c r="B56" s="119"/>
+      <c r="A56" s="132"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="66" t="s">
         <v>81</v>
       </c>
@@ -4184,13 +4251,13 @@
       <c r="K56" s="63"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="120" t="s">
+      <c r="A57" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="120" t="s">
+      <c r="B57" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="120" t="s">
+      <c r="C57" s="133" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="63"/>
@@ -4207,9 +4274,9 @@
       <c r="K57" s="63"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="121"/>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="63" t="s">
@@ -4222,9 +4289,9 @@
       <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="121"/>
-      <c r="B59" s="121"/>
-      <c r="C59" s="121"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="63" t="s">
@@ -4237,9 +4304,9 @@
       <c r="K59" s="63"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="121"/>
-      <c r="B60" s="121"/>
-      <c r="C60" s="121"/>
+      <c r="A60" s="134"/>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
@@ -4252,9 +4319,9 @@
       <c r="K60" s="63"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="121"/>
-      <c r="B61" s="121"/>
-      <c r="C61" s="122"/>
+      <c r="A61" s="134"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="135"/>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="63" t="s">
@@ -4267,10 +4334,10 @@
       <c r="K61" s="63"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="121"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="111" t="s">
-        <v>529</v>
+      <c r="A62" s="134"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="148" t="s">
+        <v>523</v>
       </c>
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
@@ -4284,77 +4351,77 @@
       <c r="K62" s="63"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="121"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="112"/>
+      <c r="A63" s="134"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="149"/>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="103" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G63" s="63"/>
       <c r="H63" s="73" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="I63" s="63"/>
       <c r="J63" s="63"/>
       <c r="K63" s="63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="121"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="112"/>
+      <c r="A64" s="134"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="149"/>
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="103" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G64" s="63"/>
       <c r="H64" s="106" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="I64" s="63"/>
       <c r="J64" s="63"/>
       <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="121"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="112"/>
+      <c r="A65" s="134"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="149"/>
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="103" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G65" s="63"/>
       <c r="H65" s="106" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="I65" s="63"/>
       <c r="J65" s="63"/>
       <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="121"/>
-      <c r="B66" s="121"/>
-      <c r="C66" s="113"/>
+      <c r="A66" s="134"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="150"/>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="103" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G66" s="63"/>
       <c r="H66" s="106" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="I66" s="63"/>
       <c r="J66" s="63"/>
       <c r="K66" s="63"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="121"/>
-      <c r="B67" s="121"/>
-      <c r="C67" s="117" t="s">
+      <c r="A67" s="134"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="130" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="63"/>
@@ -4371,9 +4438,9 @@
       <c r="K67" s="63"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="121"/>
-      <c r="B68" s="121"/>
-      <c r="C68" s="119"/>
+      <c r="A68" s="134"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="132"/>
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="63" t="s">
@@ -4386,9 +4453,9 @@
       <c r="K68" s="63"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="121"/>
-      <c r="B69" s="121"/>
-      <c r="C69" s="120" t="s">
+      <c r="A69" s="134"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="133" t="s">
         <v>98</v>
       </c>
       <c r="D69" s="63"/>
@@ -4403,9 +4470,9 @@
       <c r="K69" s="63"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="121"/>
-      <c r="B70" s="121"/>
-      <c r="C70" s="122"/>
+      <c r="A70" s="134"/>
+      <c r="B70" s="134"/>
+      <c r="C70" s="135"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="65" t="s">
@@ -4420,9 +4487,9 @@
       <c r="K70" s="63"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="121"/>
-      <c r="B71" s="121"/>
-      <c r="C71" s="120" t="s">
+      <c r="A71" s="134"/>
+      <c r="B71" s="134"/>
+      <c r="C71" s="133" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="63"/>
@@ -4437,9 +4504,9 @@
       <c r="K71" s="63"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="121"/>
-      <c r="B72" s="121"/>
-      <c r="C72" s="122"/>
+      <c r="A72" s="134"/>
+      <c r="B72" s="134"/>
+      <c r="C72" s="135"/>
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="63" t="s">
@@ -4452,9 +4519,9 @@
       <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="121"/>
-      <c r="B73" s="121"/>
-      <c r="C73" s="120" t="s">
+      <c r="A73" s="134"/>
+      <c r="B73" s="134"/>
+      <c r="C73" s="133" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="63"/>
@@ -4469,9 +4536,9 @@
       <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="121"/>
-      <c r="B74" s="121"/>
-      <c r="C74" s="122"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="134"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="63" t="s">
@@ -4484,9 +4551,9 @@
       <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="121"/>
-      <c r="B75" s="121"/>
-      <c r="C75" s="117" t="s">
+      <c r="A75" s="134"/>
+      <c r="B75" s="134"/>
+      <c r="C75" s="130" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="63"/>
@@ -4501,9 +4568,9 @@
       <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="121"/>
-      <c r="B76" s="121"/>
-      <c r="C76" s="119"/>
+      <c r="A76" s="134"/>
+      <c r="B76" s="134"/>
+      <c r="C76" s="132"/>
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="63" t="s">
@@ -4516,8 +4583,8 @@
       <c r="K76" s="63"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="121"/>
-      <c r="B77" s="121"/>
+      <c r="A77" s="134"/>
+      <c r="B77" s="134"/>
       <c r="C77" s="63" t="s">
         <v>76</v>
       </c>
@@ -4533,15 +4600,15 @@
       <c r="K77" s="63"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="121"/>
-      <c r="B78" s="121"/>
-      <c r="C78" s="131" t="s">
-        <v>539</v>
+      <c r="A78" s="134"/>
+      <c r="B78" s="134"/>
+      <c r="C78" s="140" t="s">
+        <v>533</v>
       </c>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="103" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G78" s="63"/>
       <c r="H78" s="64"/>
@@ -4550,26 +4617,26 @@
       <c r="K78" s="63"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="121"/>
-      <c r="B79" s="121"/>
-      <c r="C79" s="119"/>
+      <c r="A79" s="134"/>
+      <c r="B79" s="134"/>
+      <c r="C79" s="132"/>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="103" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G79" s="63"/>
       <c r="H79" s="73" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="I79" s="63"/>
       <c r="J79" s="63"/>
       <c r="K79" s="63"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="121"/>
-      <c r="B80" s="121"/>
-      <c r="C80" s="117" t="s">
+      <c r="A80" s="134"/>
+      <c r="B80" s="134"/>
+      <c r="C80" s="130" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="63"/>
@@ -4584,9 +4651,9 @@
       <c r="K80" s="63"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="121"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="119"/>
+      <c r="A81" s="134"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="132"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="63" t="s">
@@ -4599,10 +4666,10 @@
       <c r="K81" s="63"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="121"/>
-      <c r="B82" s="121"/>
-      <c r="C82" s="132" t="s">
-        <v>538</v>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="141" t="s">
+        <v>532</v>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
@@ -4616,9 +4683,9 @@
       <c r="K82" s="63"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="121"/>
-      <c r="B83" s="122"/>
-      <c r="C83" s="133"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="142"/>
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="63" t="s">
@@ -4631,11 +4698,11 @@
       <c r="K83" s="63"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="121"/>
-      <c r="B84" s="120" t="s">
+      <c r="A84" s="134"/>
+      <c r="B84" s="133" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="117" t="s">
+      <c r="C84" s="130" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="63"/>
@@ -4650,9 +4717,9 @@
       <c r="K84" s="63"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="121"/>
-      <c r="B85" s="121"/>
-      <c r="C85" s="118"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="131"/>
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="63" t="s">
@@ -4665,13 +4732,13 @@
       <c r="I85" s="63"/>
       <c r="J85" s="63"/>
       <c r="K85" s="103" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="121"/>
-      <c r="B86" s="121"/>
-      <c r="C86" s="119"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="132"/>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="109" t="s">
@@ -4679,18 +4746,18 @@
       </c>
       <c r="G86" s="63"/>
       <c r="H86" s="108" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="I86" s="63"/>
       <c r="J86" s="63"/>
       <c r="K86" s="103" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="121"/>
-      <c r="B87" s="121"/>
-      <c r="C87" s="120" t="s">
+      <c r="A87" s="134"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="133" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="63"/>
@@ -4705,9 +4772,9 @@
       <c r="K87" s="63"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="121"/>
-      <c r="B88" s="121"/>
-      <c r="C88" s="121"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="63" t="s">
@@ -4720,9 +4787,9 @@
       <c r="K88" s="63"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="121"/>
-      <c r="B89" s="121"/>
-      <c r="C89" s="121"/>
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="110" t="s">
@@ -4735,9 +4802,9 @@
       <c r="K89" s="63"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="121"/>
-      <c r="B90" s="121"/>
-      <c r="C90" s="122"/>
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="135"/>
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="63" t="s">
@@ -4745,18 +4812,18 @@
       </c>
       <c r="G90" s="63"/>
       <c r="H90" s="73" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="I90" s="103" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="J90" s="63"/>
       <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="121"/>
-      <c r="B91" s="121"/>
-      <c r="C91" s="120" t="s">
+      <c r="A91" s="134"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="133" t="s">
         <v>118</v>
       </c>
       <c r="D91" s="63"/>
@@ -4771,9 +4838,9 @@
       <c r="K91" s="63"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="121"/>
-      <c r="B92" s="121"/>
-      <c r="C92" s="121"/>
+      <c r="A92" s="134"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="134"/>
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="63" t="s">
@@ -4786,9 +4853,9 @@
       <c r="K92" s="63"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="121"/>
-      <c r="B93" s="121"/>
-      <c r="C93" s="121"/>
+      <c r="A93" s="134"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="134"/>
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="110" t="s">
@@ -4801,9 +4868,9 @@
       <c r="K93" s="63"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="121"/>
-      <c r="B94" s="121"/>
-      <c r="C94" s="122"/>
+      <c r="A94" s="134"/>
+      <c r="B94" s="134"/>
+      <c r="C94" s="135"/>
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="63" t="s">
@@ -4811,17 +4878,17 @@
       </c>
       <c r="G94" s="63"/>
       <c r="H94" s="73" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="I94" s="63"/>
       <c r="J94" s="63"/>
       <c r="K94" s="63"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="121"/>
-      <c r="B95" s="121"/>
-      <c r="C95" s="212" t="s">
-        <v>550</v>
+      <c r="A95" s="134"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="137" t="s">
+        <v>544</v>
       </c>
       <c r="D95" s="63"/>
       <c r="E95" s="63"/>
@@ -4830,18 +4897,18 @@
       </c>
       <c r="G95" s="63"/>
       <c r="H95" s="73" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="I95" s="63"/>
       <c r="J95" s="63"/>
       <c r="K95" s="103" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="121"/>
-      <c r="B96" s="121"/>
-      <c r="C96" s="213"/>
+      <c r="A96" s="134"/>
+      <c r="B96" s="134"/>
+      <c r="C96" s="138"/>
       <c r="D96" s="63"/>
       <c r="E96" s="63"/>
       <c r="F96" s="63" t="s">
@@ -4854,9 +4921,9 @@
       <c r="K96" s="63"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="121"/>
-      <c r="B97" s="121"/>
-      <c r="C97" s="213"/>
+      <c r="A97" s="134"/>
+      <c r="B97" s="134"/>
+      <c r="C97" s="138"/>
       <c r="D97" s="63"/>
       <c r="E97" s="63"/>
       <c r="F97" s="63" t="s">
@@ -4869,9 +4936,9 @@
       <c r="K97" s="63"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="121"/>
-      <c r="B98" s="121"/>
-      <c r="C98" s="213"/>
+      <c r="A98" s="134"/>
+      <c r="B98" s="134"/>
+      <c r="C98" s="138"/>
       <c r="D98" s="63"/>
       <c r="E98" s="63"/>
       <c r="F98" s="63" t="s">
@@ -4884,9 +4951,9 @@
       <c r="K98" s="63"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="121"/>
-      <c r="B99" s="121"/>
-      <c r="C99" s="213"/>
+      <c r="A99" s="134"/>
+      <c r="B99" s="134"/>
+      <c r="C99" s="138"/>
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
       <c r="F99" s="63" t="s">
@@ -4899,9 +4966,9 @@
       <c r="K99" s="63"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="121"/>
-      <c r="B100" s="121"/>
-      <c r="C100" s="213"/>
+      <c r="A100" s="134"/>
+      <c r="B100" s="134"/>
+      <c r="C100" s="138"/>
       <c r="D100" s="63"/>
       <c r="E100" s="63"/>
       <c r="F100" s="63" t="s">
@@ -4914,9 +4981,9 @@
       <c r="K100" s="63"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="121"/>
-      <c r="B101" s="121"/>
-      <c r="C101" s="213"/>
+      <c r="A101" s="134"/>
+      <c r="B101" s="134"/>
+      <c r="C101" s="138"/>
       <c r="D101" s="63"/>
       <c r="E101" s="63"/>
       <c r="F101" s="63" t="s">
@@ -4929,9 +4996,9 @@
       <c r="K101" s="63"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="121"/>
-      <c r="B102" s="121"/>
-      <c r="C102" s="214"/>
+      <c r="A102" s="134"/>
+      <c r="B102" s="134"/>
+      <c r="C102" s="139"/>
       <c r="D102" s="63"/>
       <c r="E102" s="63"/>
       <c r="F102" s="63" t="s">
@@ -4944,8 +5011,8 @@
       <c r="K102" s="63"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="121"/>
-      <c r="B103" s="121"/>
+      <c r="A103" s="134"/>
+      <c r="B103" s="134"/>
       <c r="C103" s="63" t="s">
         <v>130</v>
       </c>
@@ -4961,9 +5028,9 @@
       <c r="K103" s="63"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="121"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="120" t="s">
+      <c r="A104" s="134"/>
+      <c r="B104" s="134"/>
+      <c r="C104" s="133" t="s">
         <v>132</v>
       </c>
       <c r="D104" s="63"/>
@@ -4973,16 +5040,16 @@
       </c>
       <c r="G104" s="63"/>
       <c r="H104" s="105" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="I104" s="63"/>
       <c r="J104" s="63"/>
       <c r="K104" s="63"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="121"/>
-      <c r="B105" s="121"/>
-      <c r="C105" s="121"/>
+      <c r="A105" s="134"/>
+      <c r="B105" s="134"/>
+      <c r="C105" s="134"/>
       <c r="D105" s="63"/>
       <c r="E105" s="63"/>
       <c r="F105" s="65" t="s">
@@ -4990,7 +5057,7 @@
       </c>
       <c r="G105" s="63"/>
       <c r="H105" s="105" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="I105" s="63"/>
       <c r="J105" s="63"/>
@@ -4999,9 +5066,9 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="121"/>
-      <c r="B106" s="121"/>
-      <c r="C106" s="122"/>
+      <c r="A106" s="134"/>
+      <c r="B106" s="134"/>
+      <c r="C106" s="135"/>
       <c r="D106" s="63"/>
       <c r="E106" s="63"/>
       <c r="F106" s="63" t="s">
@@ -5014,9 +5081,9 @@
       <c r="K106" s="63"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="121"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="120" t="s">
+      <c r="A107" s="134"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="133" t="s">
         <v>137</v>
       </c>
       <c r="D107" s="63"/>
@@ -5031,9 +5098,9 @@
       <c r="K107" s="63"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="121"/>
-      <c r="B108" s="121"/>
-      <c r="C108" s="121"/>
+      <c r="A108" s="134"/>
+      <c r="B108" s="134"/>
+      <c r="C108" s="134"/>
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
       <c r="F108" s="63" t="s">
@@ -5041,16 +5108,16 @@
       </c>
       <c r="G108" s="63"/>
       <c r="H108" s="106" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I108" s="63"/>
       <c r="J108" s="63"/>
       <c r="K108" s="63"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="121"/>
-      <c r="B109" s="121"/>
-      <c r="C109" s="122"/>
+      <c r="A109" s="134"/>
+      <c r="B109" s="134"/>
+      <c r="C109" s="135"/>
       <c r="D109" s="63"/>
       <c r="E109" s="63"/>
       <c r="F109" s="63" t="s">
@@ -5063,9 +5130,9 @@
       <c r="K109" s="63"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="121"/>
-      <c r="B110" s="121"/>
-      <c r="C110" s="120" t="s">
+      <c r="A110" s="134"/>
+      <c r="B110" s="134"/>
+      <c r="C110" s="133" t="s">
         <v>140</v>
       </c>
       <c r="D110" s="63"/>
@@ -5080,9 +5147,9 @@
       <c r="K110" s="63"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="121"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="121"/>
+      <c r="A111" s="134"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="134"/>
       <c r="D111" s="63"/>
       <c r="E111" s="63"/>
       <c r="F111" s="63" t="s">
@@ -5090,16 +5157,16 @@
       </c>
       <c r="G111" s="63"/>
       <c r="H111" s="64" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="I111" s="63"/>
       <c r="J111" s="63"/>
       <c r="K111" s="63"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="121"/>
-      <c r="B112" s="121"/>
-      <c r="C112" s="122"/>
+      <c r="A112" s="134"/>
+      <c r="B112" s="134"/>
+      <c r="C112" s="135"/>
       <c r="D112" s="63"/>
       <c r="E112" s="63"/>
       <c r="F112" s="63" t="s">
@@ -5112,8 +5179,8 @@
       <c r="K112" s="63"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="121"/>
-      <c r="B113" s="122"/>
+      <c r="A113" s="134"/>
+      <c r="B113" s="135"/>
       <c r="C113" s="72" t="s">
         <v>142</v>
       </c>
@@ -5124,19 +5191,19 @@
       </c>
       <c r="G113" s="63"/>
       <c r="H113" s="73" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="I113" s="63"/>
       <c r="J113" s="63"/>
       <c r="K113" s="63"/>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="121"/>
-      <c r="B114" s="120" t="s">
+      <c r="A114" s="134"/>
+      <c r="B114" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="211" t="s">
-        <v>559</v>
+      <c r="C114" s="136" t="s">
+        <v>553</v>
       </c>
       <c r="D114" s="63"/>
       <c r="E114" s="63"/>
@@ -5144,8 +5211,8 @@
         <v>144</v>
       </c>
       <c r="G114" s="63"/>
-      <c r="H114" s="215" t="s">
-        <v>558</v>
+      <c r="H114" s="111" t="s">
+        <v>552</v>
       </c>
       <c r="I114" s="63"/>
       <c r="J114" s="63"/>
@@ -5154,9 +5221,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="121"/>
-      <c r="B115" s="121"/>
-      <c r="C115" s="122"/>
+      <c r="A115" s="134"/>
+      <c r="B115" s="134"/>
+      <c r="C115" s="135"/>
       <c r="D115" s="63"/>
       <c r="E115" s="63"/>
       <c r="F115" s="63" t="s">
@@ -5164,15 +5231,15 @@
       </c>
       <c r="G115" s="63"/>
       <c r="H115" s="73" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I115" s="63"/>
       <c r="J115" s="63"/>
       <c r="K115" s="63"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="121"/>
-      <c r="B116" s="121"/>
+      <c r="A116" s="134"/>
+      <c r="B116" s="134"/>
       <c r="C116" s="63" t="s">
         <v>147</v>
       </c>
@@ -5190,8 +5257,8 @@
       <c r="K116" s="63"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="121"/>
-      <c r="B117" s="121"/>
+      <c r="A117" s="134"/>
+      <c r="B117" s="134"/>
       <c r="C117" s="63" t="s">
         <v>150</v>
       </c>
@@ -5209,8 +5276,8 @@
       <c r="K117" s="63"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="121"/>
-      <c r="B118" s="121"/>
+      <c r="A118" s="134"/>
+      <c r="B118" s="134"/>
       <c r="C118" s="63" t="s">
         <v>152</v>
       </c>
@@ -5221,19 +5288,19 @@
       </c>
       <c r="G118" s="63"/>
       <c r="H118" s="73" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="I118" s="103" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="J118" s="63"/>
       <c r="K118" s="103" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="121"/>
-      <c r="B119" s="121"/>
+      <c r="A119" s="134"/>
+      <c r="B119" s="134"/>
       <c r="C119" s="63" t="s">
         <v>153</v>
       </c>
@@ -5244,86 +5311,96 @@
       </c>
       <c r="G119" s="63"/>
       <c r="H119" s="73" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I119" s="108" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="J119" s="63"/>
       <c r="K119" s="103" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="121"/>
-      <c r="B120" s="121"/>
-      <c r="C120" s="120" t="s">
+      <c r="A120" s="134"/>
+      <c r="B120" s="134"/>
+      <c r="C120" s="133" t="s">
         <v>154</v>
       </c>
       <c r="D120" s="63"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="216" t="s">
-        <v>155</v>
+      <c r="F120" s="217" t="s">
+        <v>560</v>
       </c>
       <c r="G120" s="63"/>
-      <c r="H120" s="64"/>
+      <c r="H120" s="73" t="s">
+        <v>565</v>
+      </c>
       <c r="I120" s="63"/>
       <c r="J120" s="63"/>
       <c r="K120" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="121"/>
-      <c r="B121" s="121"/>
-      <c r="C121" s="121"/>
+      <c r="A121" s="134"/>
+      <c r="B121" s="134"/>
+      <c r="C121" s="134"/>
       <c r="D121" s="63"/>
       <c r="E121" s="63"/>
-      <c r="F121" s="216"/>
-      <c r="G121" s="63"/>
-      <c r="H121" s="64"/>
+      <c r="F121" s="218" t="s">
+        <v>561</v>
+      </c>
+      <c r="G121" s="65"/>
+      <c r="H121" s="106" t="s">
+        <v>564</v>
+      </c>
       <c r="I121" s="63"/>
       <c r="J121" s="63"/>
       <c r="K121" s="65"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="121"/>
-      <c r="B122" s="121"/>
-      <c r="C122" s="121"/>
+      <c r="A122" s="134"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="134"/>
       <c r="D122" s="63"/>
       <c r="E122" s="63"/>
-      <c r="F122" s="216"/>
+      <c r="F122" s="218" t="s">
+        <v>562</v>
+      </c>
       <c r="G122" s="63"/>
       <c r="H122" s="64"/>
       <c r="I122" s="63"/>
       <c r="J122" s="63"/>
-      <c r="K122" s="65"/>
+      <c r="K122" s="218" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="121"/>
-      <c r="B123" s="121"/>
-      <c r="C123" s="122"/>
+      <c r="A123" s="134"/>
+      <c r="B123" s="134"/>
+      <c r="C123" s="134"/>
       <c r="D123" s="63"/>
       <c r="E123" s="63"/>
-      <c r="F123" s="216" t="s">
-        <v>157</v>
+      <c r="F123" s="218" t="s">
+        <v>563</v>
       </c>
       <c r="G123" s="63"/>
       <c r="H123" s="64"/>
       <c r="I123" s="63"/>
       <c r="J123" s="63"/>
-      <c r="K123" s="63"/>
+      <c r="K123" s="218" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="121"/>
-      <c r="B124" s="121"/>
-      <c r="C124" s="63" t="s">
-        <v>130</v>
-      </c>
+      <c r="A124" s="134"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="135"/>
       <c r="D124" s="63"/>
       <c r="E124" s="63"/>
-      <c r="F124" s="63" t="s">
-        <v>158</v>
+      <c r="F124" s="112" t="s">
+        <v>156</v>
       </c>
       <c r="G124" s="63"/>
       <c r="H124" s="64"/>
@@ -5332,79 +5409,83 @@
       <c r="K124" s="63"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="121"/>
-      <c r="B125" s="121"/>
-      <c r="C125" s="120" t="s">
-        <v>159</v>
+      <c r="A125" s="134"/>
+      <c r="B125" s="134"/>
+      <c r="C125" s="63" t="s">
+        <v>130</v>
       </c>
       <c r="D125" s="63"/>
       <c r="E125" s="63"/>
       <c r="F125" s="63" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="G125" s="63"/>
-      <c r="H125" s="74"/>
+      <c r="H125" s="64"/>
       <c r="I125" s="63"/>
       <c r="J125" s="63"/>
       <c r="K125" s="63"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="121"/>
-      <c r="B126" s="121"/>
-      <c r="C126" s="121"/>
+      <c r="A126" s="134"/>
+      <c r="B126" s="134"/>
+      <c r="C126" s="137" t="s">
+        <v>569</v>
+      </c>
       <c r="D126" s="63"/>
       <c r="E126" s="63"/>
       <c r="F126" s="63" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G126" s="63"/>
       <c r="H126" s="74"/>
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
-      <c r="K126" s="63"/>
+      <c r="K126" s="103" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="121"/>
-      <c r="B127" s="121"/>
-      <c r="C127" s="122"/>
+      <c r="A127" s="134"/>
+      <c r="B127" s="134"/>
+      <c r="C127" s="138"/>
       <c r="D127" s="63"/>
       <c r="E127" s="63"/>
       <c r="F127" s="63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G127" s="63"/>
-      <c r="H127" s="74" t="s">
-        <v>162</v>
-      </c>
+      <c r="H127" s="74"/>
       <c r="I127" s="63"/>
       <c r="J127" s="63"/>
       <c r="K127" s="63"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="121"/>
-      <c r="B128" s="121"/>
-      <c r="C128" s="117" t="s">
-        <v>163</v>
-      </c>
+      <c r="A128" s="134"/>
+      <c r="B128" s="134"/>
+      <c r="C128" s="139"/>
       <c r="D128" s="63"/>
       <c r="E128" s="63"/>
       <c r="F128" s="63" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="G128" s="63"/>
-      <c r="H128" s="64"/>
+      <c r="H128" s="219" t="s">
+        <v>568</v>
+      </c>
       <c r="I128" s="63"/>
       <c r="J128" s="63"/>
       <c r="K128" s="63"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="121"/>
-      <c r="B129" s="121"/>
-      <c r="C129" s="118"/>
+      <c r="A129" s="134"/>
+      <c r="B129" s="134"/>
+      <c r="C129" s="137" t="s">
+        <v>570</v>
+      </c>
       <c r="D129" s="63"/>
       <c r="E129" s="63"/>
       <c r="F129" s="63" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G129" s="63"/>
       <c r="H129" s="64"/>
@@ -5413,47 +5494,47 @@
       <c r="K129" s="63"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="121"/>
-      <c r="B130" s="121"/>
-      <c r="C130" s="119"/>
+      <c r="A130" s="134"/>
+      <c r="B130" s="134"/>
+      <c r="C130" s="138"/>
       <c r="D130" s="63"/>
       <c r="E130" s="63"/>
       <c r="F130" s="63" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G130" s="63"/>
-      <c r="H130" s="64" t="s">
-        <v>165</v>
-      </c>
+      <c r="H130" s="64"/>
       <c r="I130" s="63"/>
       <c r="J130" s="63"/>
       <c r="K130" s="63"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="121"/>
-      <c r="B131" s="121"/>
-      <c r="C131" s="117" t="s">
-        <v>166</v>
-      </c>
+      <c r="A131" s="134"/>
+      <c r="B131" s="134"/>
+      <c r="C131" s="139"/>
       <c r="D131" s="63"/>
       <c r="E131" s="63"/>
       <c r="F131" s="63" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="G131" s="63"/>
-      <c r="H131" s="64"/>
+      <c r="H131" s="64" t="s">
+        <v>161</v>
+      </c>
       <c r="I131" s="63"/>
       <c r="J131" s="63"/>
       <c r="K131" s="63"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="121"/>
-      <c r="B132" s="121"/>
-      <c r="C132" s="118"/>
+      <c r="A132" s="134"/>
+      <c r="B132" s="134"/>
+      <c r="C132" s="148" t="s">
+        <v>572</v>
+      </c>
       <c r="D132" s="63"/>
       <c r="E132" s="63"/>
       <c r="F132" s="63" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="G132" s="63"/>
       <c r="H132" s="64"/>
@@ -5462,49 +5543,49 @@
       <c r="K132" s="63"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="121"/>
-      <c r="B133" s="121"/>
-      <c r="C133" s="119"/>
+      <c r="A133" s="134"/>
+      <c r="B133" s="134"/>
+      <c r="C133" s="149"/>
       <c r="D133" s="63"/>
       <c r="E133" s="63"/>
       <c r="F133" s="63" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G133" s="63"/>
-      <c r="H133" s="64" t="s">
-        <v>168</v>
-      </c>
+      <c r="H133" s="64"/>
       <c r="I133" s="63"/>
       <c r="J133" s="63"/>
       <c r="K133" s="63"/>
     </row>
-    <row r="134" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="121"/>
-      <c r="B134" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="C134" s="117" t="s">
-        <v>170</v>
-      </c>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" s="134"/>
+      <c r="B134" s="134"/>
+      <c r="C134" s="220"/>
       <c r="D134" s="63"/>
       <c r="E134" s="63"/>
-      <c r="F134" s="65" t="s">
-        <v>171</v>
+      <c r="F134" s="63" t="s">
+        <v>162</v>
       </c>
       <c r="G134" s="63"/>
-      <c r="H134" s="64"/>
+      <c r="H134" s="64" t="s">
+        <v>163</v>
+      </c>
       <c r="I134" s="63"/>
       <c r="J134" s="63"/>
       <c r="K134" s="63"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" s="121"/>
-      <c r="B135" s="118"/>
-      <c r="C135" s="119"/>
+    <row r="135" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="134"/>
+      <c r="B135" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="130" t="s">
+        <v>165</v>
+      </c>
       <c r="D135" s="63"/>
       <c r="E135" s="63"/>
       <c r="F135" s="65" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G135" s="63"/>
       <c r="H135" s="64"/>
@@ -5513,88 +5594,84 @@
       <c r="K135" s="63"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="121"/>
-      <c r="B136" s="118"/>
-      <c r="C136" s="63" t="s">
-        <v>173</v>
-      </c>
+      <c r="A136" s="134"/>
+      <c r="B136" s="131"/>
+      <c r="C136" s="132"/>
       <c r="D136" s="63"/>
       <c r="E136" s="63"/>
-      <c r="F136" s="63" t="s">
-        <v>174</v>
+      <c r="F136" s="65" t="s">
+        <v>167</v>
       </c>
       <c r="G136" s="63"/>
-      <c r="H136" s="64" t="s">
-        <v>175</v>
-      </c>
+      <c r="H136" s="64"/>
       <c r="I136" s="63"/>
       <c r="J136" s="63"/>
       <c r="K136" s="63"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="121"/>
-      <c r="B137" s="118"/>
+      <c r="A137" s="134"/>
+      <c r="B137" s="131"/>
       <c r="C137" s="63" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="D137" s="63"/>
       <c r="E137" s="63"/>
       <c r="F137" s="63" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G137" s="63"/>
-      <c r="H137" s="64"/>
+      <c r="H137" s="64" t="s">
+        <v>170</v>
+      </c>
       <c r="I137" s="63"/>
       <c r="J137" s="63"/>
       <c r="K137" s="63"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="121"/>
-      <c r="B138" s="118"/>
+      <c r="A138" s="134"/>
+      <c r="B138" s="131"/>
       <c r="C138" s="63" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="D138" s="63"/>
       <c r="E138" s="63"/>
       <c r="F138" s="63" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G138" s="63"/>
-      <c r="H138" s="64" t="s">
-        <v>179</v>
-      </c>
+      <c r="H138" s="64"/>
       <c r="I138" s="63"/>
       <c r="J138" s="63"/>
       <c r="K138" s="63"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="121"/>
-      <c r="B139" s="119"/>
+      <c r="A139" s="134"/>
+      <c r="B139" s="131"/>
       <c r="C139" s="63" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D139" s="63"/>
       <c r="E139" s="63"/>
-      <c r="F139" s="63"/>
+      <c r="F139" s="63" t="s">
+        <v>173</v>
+      </c>
       <c r="G139" s="63"/>
-      <c r="H139" s="64"/>
+      <c r="H139" s="64" t="s">
+        <v>174</v>
+      </c>
       <c r="I139" s="63"/>
       <c r="J139" s="63"/>
       <c r="K139" s="63"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="121"/>
-      <c r="B140" s="120" t="s">
-        <v>181</v>
-      </c>
-      <c r="C140" s="117" t="s">
-        <v>182</v>
+      <c r="A140" s="134"/>
+      <c r="B140" s="132"/>
+      <c r="C140" s="63" t="s">
+        <v>175</v>
       </c>
       <c r="D140" s="63"/>
       <c r="E140" s="63"/>
-      <c r="F140" s="63" t="s">
-        <v>183</v>
-      </c>
+      <c r="F140" s="63"/>
       <c r="G140" s="63"/>
       <c r="H140" s="64"/>
       <c r="I140" s="63"/>
@@ -5602,13 +5679,17 @@
       <c r="K140" s="63"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="121"/>
-      <c r="B141" s="121"/>
-      <c r="C141" s="118"/>
+      <c r="A141" s="134"/>
+      <c r="B141" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" s="130" t="s">
+        <v>177</v>
+      </c>
       <c r="D141" s="63"/>
       <c r="E141" s="63"/>
       <c r="F141" s="63" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G141" s="63"/>
       <c r="H141" s="64"/>
@@ -5617,13 +5698,13 @@
       <c r="K141" s="63"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="121"/>
-      <c r="B142" s="121"/>
-      <c r="C142" s="119"/>
+      <c r="A142" s="134"/>
+      <c r="B142" s="134"/>
+      <c r="C142" s="131"/>
       <c r="D142" s="63"/>
       <c r="E142" s="63"/>
       <c r="F142" s="63" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G142" s="63"/>
       <c r="H142" s="64"/>
@@ -5632,15 +5713,13 @@
       <c r="K142" s="63"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="122"/>
-      <c r="B143" s="122"/>
-      <c r="C143" s="63" t="s">
-        <v>186</v>
-      </c>
+      <c r="A143" s="134"/>
+      <c r="B143" s="134"/>
+      <c r="C143" s="132"/>
       <c r="D143" s="63"/>
       <c r="E143" s="63"/>
       <c r="F143" s="63" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G143" s="63"/>
       <c r="H143" s="64"/>
@@ -5649,35 +5728,37 @@
       <c r="K143" s="63"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="123" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="C144" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="D144" s="126" t="s">
-        <v>190</v>
-      </c>
-      <c r="F144" s="66" t="s">
+      <c r="A144" s="135"/>
+      <c r="B144" s="135"/>
+      <c r="C144" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D144" s="63"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="G144" s="63"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="63"/>
+      <c r="J144" s="63"/>
+      <c r="K144" s="63"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="151" t="s">
+        <v>183</v>
+      </c>
+      <c r="B145" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="C145" s="127" t="s">
+        <v>184</v>
+      </c>
+      <c r="D145" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="F145" s="66" t="s">
         <v>13</v>
-      </c>
-      <c r="H144" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="I144" s="79"/>
-      <c r="J144" s="79"/>
-      <c r="K144" s="71"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="124"/>
-      <c r="B145" s="130"/>
-      <c r="C145" s="135"/>
-      <c r="D145" s="128"/>
-      <c r="F145" s="66" t="s">
-        <v>191</v>
       </c>
       <c r="H145" s="68" t="s">
         <v>77</v>
@@ -5687,29 +5768,29 @@
       <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="124"/>
-      <c r="B146" s="130"/>
-      <c r="C146" s="135"/>
-      <c r="D146" s="75" t="s">
-        <v>192</v>
-      </c>
+      <c r="A146" s="152"/>
+      <c r="B146" s="147"/>
+      <c r="C146" s="128"/>
+      <c r="D146" s="115"/>
       <c r="F146" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="H146" s="76"/>
+        <v>186</v>
+      </c>
+      <c r="H146" s="68" t="s">
+        <v>77</v>
+      </c>
       <c r="I146" s="79"/>
       <c r="J146" s="79"/>
       <c r="K146" s="71"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="124"/>
-      <c r="B147" s="130"/>
-      <c r="C147" s="135"/>
-      <c r="D147" s="126" t="s">
-        <v>194</v>
+      <c r="A147" s="152"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="128"/>
+      <c r="D147" s="75" t="s">
+        <v>187</v>
       </c>
       <c r="F147" s="66" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H147" s="76"/>
       <c r="I147" s="79"/>
@@ -5717,12 +5798,14 @@
       <c r="K147" s="71"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="124"/>
-      <c r="B148" s="130"/>
-      <c r="C148" s="135"/>
-      <c r="D148" s="127"/>
+      <c r="A148" s="152"/>
+      <c r="B148" s="147"/>
+      <c r="C148" s="128"/>
+      <c r="D148" s="113" t="s">
+        <v>189</v>
+      </c>
       <c r="F148" s="66" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H148" s="76"/>
       <c r="I148" s="79"/>
@@ -5730,12 +5813,12 @@
       <c r="K148" s="71"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="124"/>
-      <c r="B149" s="130"/>
-      <c r="C149" s="135"/>
-      <c r="D149" s="128"/>
+      <c r="A149" s="152"/>
+      <c r="B149" s="147"/>
+      <c r="C149" s="128"/>
+      <c r="D149" s="114"/>
       <c r="F149" s="66" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H149" s="76"/>
       <c r="I149" s="79"/>
@@ -5743,87 +5826,87 @@
       <c r="K149" s="71"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="124"/>
-      <c r="B150" s="130"/>
-      <c r="C150" s="135"/>
-      <c r="D150" s="126" t="s">
-        <v>198</v>
-      </c>
+      <c r="A150" s="152"/>
+      <c r="B150" s="147"/>
+      <c r="C150" s="128"/>
+      <c r="D150" s="115"/>
       <c r="F150" s="66" t="s">
-        <v>199</v>
-      </c>
-      <c r="H150" s="77" t="s">
-        <v>200</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="H150" s="76"/>
       <c r="I150" s="79"/>
       <c r="J150" s="79"/>
       <c r="K150" s="71"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="124"/>
-      <c r="B151" s="130"/>
-      <c r="C151" s="135"/>
-      <c r="D151" s="128"/>
+      <c r="A151" s="152"/>
+      <c r="B151" s="147"/>
+      <c r="C151" s="128"/>
+      <c r="D151" s="113" t="s">
+        <v>193</v>
+      </c>
       <c r="F151" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="H151" s="76"/>
+        <v>194</v>
+      </c>
+      <c r="H151" s="77" t="s">
+        <v>195</v>
+      </c>
       <c r="I151" s="79"/>
       <c r="J151" s="79"/>
-      <c r="K151" s="80"/>
+      <c r="K151" s="71"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="124"/>
-      <c r="B152" s="130"/>
-      <c r="C152" s="135"/>
-      <c r="D152" s="126" t="s">
-        <v>202</v>
-      </c>
+      <c r="A152" s="152"/>
+      <c r="B152" s="147"/>
+      <c r="C152" s="128"/>
+      <c r="D152" s="115"/>
       <c r="F152" s="66" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H152" s="76"/>
       <c r="I152" s="79"/>
       <c r="J152" s="79"/>
-      <c r="K152" s="71"/>
+      <c r="K152" s="80"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="124"/>
-      <c r="B153" s="130"/>
-      <c r="C153" s="135"/>
-      <c r="D153" s="128"/>
+      <c r="A153" s="152"/>
+      <c r="B153" s="147"/>
+      <c r="C153" s="128"/>
+      <c r="D153" s="113" t="s">
+        <v>197</v>
+      </c>
       <c r="F153" s="66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H153" s="76"/>
-      <c r="I153" s="81" t="s">
-        <v>204</v>
-      </c>
-      <c r="J153" s="81"/>
+      <c r="I153" s="79"/>
+      <c r="J153" s="79"/>
       <c r="K153" s="71"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="124"/>
-      <c r="B154" s="130"/>
-      <c r="C154" s="135"/>
-      <c r="D154" s="126" t="s">
-        <v>205</v>
-      </c>
+      <c r="A154" s="152"/>
+      <c r="B154" s="147"/>
+      <c r="C154" s="128"/>
+      <c r="D154" s="115"/>
       <c r="F154" s="66" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H154" s="76"/>
-      <c r="I154" s="81"/>
+      <c r="I154" s="81" t="s">
+        <v>199</v>
+      </c>
       <c r="J154" s="81"/>
       <c r="K154" s="71"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="124"/>
-      <c r="B155" s="130"/>
-      <c r="C155" s="135"/>
-      <c r="D155" s="127"/>
+      <c r="A155" s="152"/>
+      <c r="B155" s="147"/>
+      <c r="C155" s="128"/>
+      <c r="D155" s="113" t="s">
+        <v>200</v>
+      </c>
       <c r="F155" s="66" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H155" s="76"/>
       <c r="I155" s="81"/>
@@ -5831,12 +5914,12 @@
       <c r="K155" s="71"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="124"/>
-      <c r="B156" s="130"/>
-      <c r="C156" s="135"/>
-      <c r="D156" s="127"/>
+      <c r="A156" s="152"/>
+      <c r="B156" s="147"/>
+      <c r="C156" s="128"/>
+      <c r="D156" s="114"/>
       <c r="F156" s="66" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H156" s="76"/>
       <c r="I156" s="81"/>
@@ -5844,12 +5927,12 @@
       <c r="K156" s="71"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="124"/>
-      <c r="B157" s="130"/>
-      <c r="C157" s="135"/>
-      <c r="D157" s="127"/>
+      <c r="A157" s="152"/>
+      <c r="B157" s="147"/>
+      <c r="C157" s="128"/>
+      <c r="D157" s="114"/>
       <c r="F157" s="66" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H157" s="76"/>
       <c r="I157" s="81"/>
@@ -5857,12 +5940,12 @@
       <c r="K157" s="71"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="124"/>
-      <c r="B158" s="130"/>
-      <c r="C158" s="135"/>
-      <c r="D158" s="127"/>
+      <c r="A158" s="152"/>
+      <c r="B158" s="147"/>
+      <c r="C158" s="128"/>
+      <c r="D158" s="114"/>
       <c r="F158" s="66" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="H158" s="76"/>
       <c r="I158" s="81"/>
@@ -5870,42 +5953,42 @@
       <c r="K158" s="71"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="124"/>
-      <c r="B159" s="130"/>
-      <c r="C159" s="136"/>
-      <c r="D159" s="128"/>
+      <c r="A159" s="152"/>
+      <c r="B159" s="147"/>
+      <c r="C159" s="128"/>
+      <c r="D159" s="114"/>
       <c r="F159" s="66" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H159" s="76"/>
       <c r="I159" s="81"/>
       <c r="J159" s="81"/>
-      <c r="K159" s="82"/>
+      <c r="K159" s="71"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="124"/>
-      <c r="B160" s="130"/>
-      <c r="C160" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="D160" s="126" t="s">
-        <v>211</v>
-      </c>
+      <c r="A160" s="152"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="129"/>
+      <c r="D160" s="115"/>
       <c r="F160" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="H160" s="76"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="81"/>
+      <c r="K160" s="82"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="152"/>
+      <c r="B161" s="147"/>
+      <c r="C161" s="124" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="F161" s="66" t="s">
         <v>66</v>
-      </c>
-      <c r="H160" s="76"/>
-      <c r="I160" s="79"/>
-      <c r="J160" s="79"/>
-      <c r="K160" s="71"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="124"/>
-      <c r="B161" s="130"/>
-      <c r="C161" s="138"/>
-      <c r="D161" s="127"/>
-      <c r="F161" s="66" t="s">
-        <v>212</v>
       </c>
       <c r="H161" s="76"/>
       <c r="I161" s="79"/>
@@ -5913,12 +5996,12 @@
       <c r="K161" s="71"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="124"/>
-      <c r="B162" s="130"/>
-      <c r="C162" s="138"/>
-      <c r="D162" s="127"/>
+      <c r="A162" s="152"/>
+      <c r="B162" s="147"/>
+      <c r="C162" s="125"/>
+      <c r="D162" s="114"/>
       <c r="F162" s="66" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H162" s="76"/>
       <c r="I162" s="79"/>
@@ -5926,12 +6009,12 @@
       <c r="K162" s="71"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="124"/>
-      <c r="B163" s="130"/>
-      <c r="C163" s="138"/>
-      <c r="D163" s="127"/>
+      <c r="A163" s="152"/>
+      <c r="B163" s="147"/>
+      <c r="C163" s="125"/>
+      <c r="D163" s="114"/>
       <c r="F163" s="66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H163" s="76"/>
       <c r="I163" s="79"/>
@@ -5939,12 +6022,12 @@
       <c r="K163" s="71"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="124"/>
-      <c r="B164" s="130"/>
-      <c r="C164" s="138"/>
-      <c r="D164" s="127"/>
-      <c r="F164" s="78" t="s">
-        <v>215</v>
+      <c r="A164" s="152"/>
+      <c r="B164" s="147"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="114"/>
+      <c r="F164" s="66" t="s">
+        <v>209</v>
       </c>
       <c r="H164" s="76"/>
       <c r="I164" s="79"/>
@@ -5952,12 +6035,12 @@
       <c r="K164" s="71"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="124"/>
-      <c r="B165" s="130"/>
-      <c r="C165" s="138"/>
-      <c r="D165" s="127"/>
+      <c r="A165" s="152"/>
+      <c r="B165" s="147"/>
+      <c r="C165" s="125"/>
+      <c r="D165" s="114"/>
       <c r="F165" s="78" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H165" s="76"/>
       <c r="I165" s="79"/>
@@ -5965,12 +6048,12 @@
       <c r="K165" s="71"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="124"/>
-      <c r="B166" s="130"/>
-      <c r="C166" s="138"/>
-      <c r="D166" s="127"/>
+      <c r="A166" s="152"/>
+      <c r="B166" s="147"/>
+      <c r="C166" s="125"/>
+      <c r="D166" s="114"/>
       <c r="F166" s="78" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H166" s="76"/>
       <c r="I166" s="79"/>
@@ -5978,12 +6061,12 @@
       <c r="K166" s="71"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="124"/>
-      <c r="B167" s="130"/>
-      <c r="C167" s="138"/>
-      <c r="D167" s="127"/>
-      <c r="F167" s="66" t="s">
-        <v>218</v>
+      <c r="A167" s="152"/>
+      <c r="B167" s="147"/>
+      <c r="C167" s="125"/>
+      <c r="D167" s="114"/>
+      <c r="F167" s="78" t="s">
+        <v>212</v>
       </c>
       <c r="H167" s="76"/>
       <c r="I167" s="79"/>
@@ -5991,12 +6074,12 @@
       <c r="K167" s="71"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="124"/>
-      <c r="B168" s="130"/>
-      <c r="C168" s="138"/>
-      <c r="D168" s="127"/>
+      <c r="A168" s="152"/>
+      <c r="B168" s="147"/>
+      <c r="C168" s="125"/>
+      <c r="D168" s="114"/>
       <c r="F168" s="66" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H168" s="76"/>
       <c r="I168" s="79"/>
@@ -6004,12 +6087,12 @@
       <c r="K168" s="71"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="124"/>
-      <c r="B169" s="130"/>
-      <c r="C169" s="138"/>
-      <c r="D169" s="127"/>
+      <c r="A169" s="152"/>
+      <c r="B169" s="147"/>
+      <c r="C169" s="125"/>
+      <c r="D169" s="114"/>
       <c r="F169" s="66" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H169" s="76"/>
       <c r="I169" s="79"/>
@@ -6017,12 +6100,12 @@
       <c r="K169" s="71"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="124"/>
-      <c r="B170" s="130"/>
-      <c r="C170" s="138"/>
-      <c r="D170" s="127"/>
+      <c r="A170" s="152"/>
+      <c r="B170" s="147"/>
+      <c r="C170" s="125"/>
+      <c r="D170" s="114"/>
       <c r="F170" s="66" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H170" s="76"/>
       <c r="I170" s="79"/>
@@ -6030,12 +6113,12 @@
       <c r="K170" s="71"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="124"/>
-      <c r="B171" s="130"/>
-      <c r="C171" s="138"/>
-      <c r="D171" s="127"/>
+      <c r="A171" s="152"/>
+      <c r="B171" s="147"/>
+      <c r="C171" s="125"/>
+      <c r="D171" s="114"/>
       <c r="F171" s="66" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H171" s="76"/>
       <c r="I171" s="79"/>
@@ -6043,12 +6126,12 @@
       <c r="K171" s="71"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="124"/>
-      <c r="B172" s="130"/>
-      <c r="C172" s="138"/>
-      <c r="D172" s="127"/>
+      <c r="A172" s="152"/>
+      <c r="B172" s="147"/>
+      <c r="C172" s="125"/>
+      <c r="D172" s="114"/>
       <c r="F172" s="66" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H172" s="76"/>
       <c r="I172" s="79"/>
@@ -6056,12 +6139,12 @@
       <c r="K172" s="71"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="124"/>
-      <c r="B173" s="130"/>
-      <c r="C173" s="138"/>
-      <c r="D173" s="127"/>
+      <c r="A173" s="152"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="125"/>
+      <c r="D173" s="114"/>
       <c r="F173" s="66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H173" s="76"/>
       <c r="I173" s="79"/>
@@ -6069,12 +6152,12 @@
       <c r="K173" s="71"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="124"/>
-      <c r="B174" s="130"/>
-      <c r="C174" s="138"/>
-      <c r="D174" s="127"/>
+      <c r="A174" s="152"/>
+      <c r="B174" s="147"/>
+      <c r="C174" s="125"/>
+      <c r="D174" s="114"/>
       <c r="F174" s="66" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H174" s="76"/>
       <c r="I174" s="79"/>
@@ -6082,12 +6165,12 @@
       <c r="K174" s="71"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="124"/>
-      <c r="B175" s="130"/>
-      <c r="C175" s="138"/>
-      <c r="D175" s="127"/>
+      <c r="A175" s="152"/>
+      <c r="B175" s="147"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="114"/>
       <c r="F175" s="66" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H175" s="76"/>
       <c r="I175" s="79"/>
@@ -6095,12 +6178,12 @@
       <c r="K175" s="71"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="124"/>
-      <c r="B176" s="130"/>
-      <c r="C176" s="138"/>
-      <c r="D176" s="127"/>
+      <c r="A176" s="152"/>
+      <c r="B176" s="147"/>
+      <c r="C176" s="125"/>
+      <c r="D176" s="114"/>
       <c r="F176" s="66" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H176" s="76"/>
       <c r="I176" s="79"/>
@@ -6108,12 +6191,12 @@
       <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="124"/>
-      <c r="B177" s="130"/>
-      <c r="C177" s="138"/>
-      <c r="D177" s="127"/>
+      <c r="A177" s="152"/>
+      <c r="B177" s="147"/>
+      <c r="C177" s="125"/>
+      <c r="D177" s="114"/>
       <c r="F177" s="66" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H177" s="76"/>
       <c r="I177" s="79"/>
@@ -6121,12 +6204,12 @@
       <c r="K177" s="71"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="124"/>
-      <c r="B178" s="130"/>
-      <c r="C178" s="138"/>
-      <c r="D178" s="127"/>
+      <c r="A178" s="152"/>
+      <c r="B178" s="147"/>
+      <c r="C178" s="125"/>
+      <c r="D178" s="114"/>
       <c r="F178" s="66" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H178" s="76"/>
       <c r="I178" s="79"/>
@@ -6134,12 +6217,12 @@
       <c r="K178" s="71"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="124"/>
-      <c r="B179" s="130"/>
-      <c r="C179" s="138"/>
-      <c r="D179" s="127"/>
+      <c r="A179" s="152"/>
+      <c r="B179" s="147"/>
+      <c r="C179" s="125"/>
+      <c r="D179" s="114"/>
       <c r="F179" s="66" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H179" s="76"/>
       <c r="I179" s="79"/>
@@ -6147,12 +6230,12 @@
       <c r="K179" s="71"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="124"/>
-      <c r="B180" s="130"/>
-      <c r="C180" s="138"/>
-      <c r="D180" s="127"/>
+      <c r="A180" s="152"/>
+      <c r="B180" s="147"/>
+      <c r="C180" s="125"/>
+      <c r="D180" s="114"/>
       <c r="F180" s="66" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H180" s="76"/>
       <c r="I180" s="79"/>
@@ -6160,12 +6243,12 @@
       <c r="K180" s="71"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="124"/>
-      <c r="B181" s="130"/>
-      <c r="C181" s="138"/>
-      <c r="D181" s="127"/>
+      <c r="A181" s="152"/>
+      <c r="B181" s="147"/>
+      <c r="C181" s="125"/>
+      <c r="D181" s="114"/>
       <c r="F181" s="66" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H181" s="76"/>
       <c r="I181" s="79"/>
@@ -6173,12 +6256,12 @@
       <c r="K181" s="71"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="124"/>
-      <c r="B182" s="130"/>
-      <c r="C182" s="138"/>
-      <c r="D182" s="127"/>
+      <c r="A182" s="152"/>
+      <c r="B182" s="147"/>
+      <c r="C182" s="125"/>
+      <c r="D182" s="114"/>
       <c r="F182" s="66" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H182" s="76"/>
       <c r="I182" s="79"/>
@@ -6186,12 +6269,12 @@
       <c r="K182" s="71"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="124"/>
-      <c r="B183" s="130"/>
-      <c r="C183" s="138"/>
-      <c r="D183" s="127"/>
+      <c r="A183" s="152"/>
+      <c r="B183" s="147"/>
+      <c r="C183" s="125"/>
+      <c r="D183" s="114"/>
       <c r="F183" s="66" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H183" s="76"/>
       <c r="I183" s="79"/>
@@ -6199,12 +6282,12 @@
       <c r="K183" s="71"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="124"/>
-      <c r="B184" s="130"/>
-      <c r="C184" s="138"/>
-      <c r="D184" s="127"/>
+      <c r="A184" s="152"/>
+      <c r="B184" s="147"/>
+      <c r="C184" s="125"/>
+      <c r="D184" s="114"/>
       <c r="F184" s="66" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H184" s="76"/>
       <c r="I184" s="79"/>
@@ -6212,12 +6295,12 @@
       <c r="K184" s="71"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="124"/>
-      <c r="B185" s="130"/>
-      <c r="C185" s="138"/>
-      <c r="D185" s="127"/>
+      <c r="A185" s="152"/>
+      <c r="B185" s="147"/>
+      <c r="C185" s="125"/>
+      <c r="D185" s="114"/>
       <c r="F185" s="66" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H185" s="76"/>
       <c r="I185" s="79"/>
@@ -6225,12 +6308,12 @@
       <c r="K185" s="71"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="124"/>
-      <c r="B186" s="130"/>
-      <c r="C186" s="138"/>
-      <c r="D186" s="127"/>
+      <c r="A186" s="152"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="125"/>
+      <c r="D186" s="114"/>
       <c r="F186" s="66" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H186" s="76"/>
       <c r="I186" s="79"/>
@@ -6238,12 +6321,12 @@
       <c r="K186" s="71"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="124"/>
-      <c r="B187" s="130"/>
-      <c r="C187" s="138"/>
-      <c r="D187" s="127"/>
+      <c r="A187" s="152"/>
+      <c r="B187" s="147"/>
+      <c r="C187" s="125"/>
+      <c r="D187" s="114"/>
       <c r="F187" s="66" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H187" s="76"/>
       <c r="I187" s="79"/>
@@ -6251,12 +6334,12 @@
       <c r="K187" s="71"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="124"/>
-      <c r="B188" s="130"/>
-      <c r="C188" s="138"/>
-      <c r="D188" s="127"/>
+      <c r="A188" s="152"/>
+      <c r="B188" s="147"/>
+      <c r="C188" s="125"/>
+      <c r="D188" s="114"/>
       <c r="F188" s="66" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H188" s="76"/>
       <c r="I188" s="79"/>
@@ -6264,12 +6347,12 @@
       <c r="K188" s="71"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="124"/>
-      <c r="B189" s="130"/>
-      <c r="C189" s="138"/>
-      <c r="D189" s="127"/>
+      <c r="A189" s="152"/>
+      <c r="B189" s="147"/>
+      <c r="C189" s="125"/>
+      <c r="D189" s="114"/>
       <c r="F189" s="66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H189" s="76"/>
       <c r="I189" s="79"/>
@@ -6277,12 +6360,12 @@
       <c r="K189" s="71"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="124"/>
-      <c r="B190" s="130"/>
-      <c r="C190" s="139"/>
-      <c r="D190" s="128"/>
+      <c r="A190" s="152"/>
+      <c r="B190" s="147"/>
+      <c r="C190" s="125"/>
+      <c r="D190" s="114"/>
       <c r="F190" s="66" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H190" s="76"/>
       <c r="I190" s="79"/>
@@ -6290,16 +6373,12 @@
       <c r="K190" s="71"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="124"/>
-      <c r="B191" s="130"/>
-      <c r="C191" s="137" t="s">
-        <v>242</v>
-      </c>
-      <c r="D191" s="126" t="s">
-        <v>242</v>
-      </c>
+      <c r="A191" s="152"/>
+      <c r="B191" s="147"/>
+      <c r="C191" s="126"/>
+      <c r="D191" s="115"/>
       <c r="F191" s="66" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="H191" s="76"/>
       <c r="I191" s="79"/>
@@ -6307,12 +6386,16 @@
       <c r="K191" s="71"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="124"/>
-      <c r="B192" s="130"/>
-      <c r="C192" s="138"/>
-      <c r="D192" s="127"/>
+      <c r="A192" s="152"/>
+      <c r="B192" s="147"/>
+      <c r="C192" s="124" t="s">
+        <v>237</v>
+      </c>
+      <c r="D192" s="113" t="s">
+        <v>237</v>
+      </c>
       <c r="F192" s="66" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="H192" s="76"/>
       <c r="I192" s="79"/>
@@ -6320,12 +6403,12 @@
       <c r="K192" s="71"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="124"/>
-      <c r="B193" s="130"/>
-      <c r="C193" s="138"/>
-      <c r="D193" s="127"/>
+      <c r="A193" s="152"/>
+      <c r="B193" s="147"/>
+      <c r="C193" s="125"/>
+      <c r="D193" s="114"/>
       <c r="F193" s="66" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="H193" s="76"/>
       <c r="I193" s="79"/>
@@ -6333,12 +6416,12 @@
       <c r="K193" s="71"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="124"/>
-      <c r="B194" s="130"/>
-      <c r="C194" s="138"/>
-      <c r="D194" s="127"/>
+      <c r="A194" s="152"/>
+      <c r="B194" s="147"/>
+      <c r="C194" s="125"/>
+      <c r="D194" s="114"/>
       <c r="F194" s="66" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="H194" s="76"/>
       <c r="I194" s="79"/>
@@ -6346,12 +6429,12 @@
       <c r="K194" s="71"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="124"/>
-      <c r="B195" s="130"/>
-      <c r="C195" s="138"/>
-      <c r="D195" s="127"/>
+      <c r="A195" s="152"/>
+      <c r="B195" s="147"/>
+      <c r="C195" s="125"/>
+      <c r="D195" s="114"/>
       <c r="F195" s="66" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H195" s="76"/>
       <c r="I195" s="79"/>
@@ -6359,12 +6442,12 @@
       <c r="K195" s="71"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="124"/>
-      <c r="B196" s="130"/>
-      <c r="C196" s="138"/>
-      <c r="D196" s="127"/>
+      <c r="A196" s="152"/>
+      <c r="B196" s="147"/>
+      <c r="C196" s="125"/>
+      <c r="D196" s="114"/>
       <c r="F196" s="66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H196" s="76"/>
       <c r="I196" s="79"/>
@@ -6372,12 +6455,12 @@
       <c r="K196" s="71"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="124"/>
-      <c r="B197" s="130"/>
-      <c r="C197" s="138"/>
-      <c r="D197" s="127"/>
+      <c r="A197" s="152"/>
+      <c r="B197" s="147"/>
+      <c r="C197" s="125"/>
+      <c r="D197" s="114"/>
       <c r="F197" s="66" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H197" s="76"/>
       <c r="I197" s="79"/>
@@ -6385,12 +6468,12 @@
       <c r="K197" s="71"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="124"/>
-      <c r="B198" s="130"/>
-      <c r="C198" s="138"/>
-      <c r="D198" s="127"/>
+      <c r="A198" s="152"/>
+      <c r="B198" s="147"/>
+      <c r="C198" s="125"/>
+      <c r="D198" s="114"/>
       <c r="F198" s="66" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="H198" s="76"/>
       <c r="I198" s="79"/>
@@ -6398,12 +6481,12 @@
       <c r="K198" s="71"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="124"/>
-      <c r="B199" s="130"/>
-      <c r="C199" s="138"/>
-      <c r="D199" s="127"/>
+      <c r="A199" s="152"/>
+      <c r="B199" s="147"/>
+      <c r="C199" s="125"/>
+      <c r="D199" s="114"/>
       <c r="F199" s="66" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H199" s="76"/>
       <c r="I199" s="79"/>
@@ -6411,12 +6494,12 @@
       <c r="K199" s="71"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="124"/>
-      <c r="B200" s="130"/>
-      <c r="C200" s="138"/>
-      <c r="D200" s="127"/>
+      <c r="A200" s="152"/>
+      <c r="B200" s="147"/>
+      <c r="C200" s="125"/>
+      <c r="D200" s="114"/>
       <c r="F200" s="66" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H200" s="76"/>
       <c r="I200" s="79"/>
@@ -6424,12 +6507,12 @@
       <c r="K200" s="71"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="124"/>
-      <c r="B201" s="130"/>
-      <c r="C201" s="138"/>
-      <c r="D201" s="127"/>
+      <c r="A201" s="152"/>
+      <c r="B201" s="147"/>
+      <c r="C201" s="125"/>
+      <c r="D201" s="114"/>
       <c r="F201" s="66" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H201" s="76"/>
       <c r="I201" s="79"/>
@@ -6437,12 +6520,12 @@
       <c r="K201" s="71"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="124"/>
-      <c r="B202" s="130"/>
-      <c r="C202" s="138"/>
-      <c r="D202" s="127"/>
+      <c r="A202" s="152"/>
+      <c r="B202" s="147"/>
+      <c r="C202" s="125"/>
+      <c r="D202" s="114"/>
       <c r="F202" s="66" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H202" s="76"/>
       <c r="I202" s="79"/>
@@ -6450,12 +6533,12 @@
       <c r="K202" s="71"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="124"/>
-      <c r="B203" s="130"/>
-      <c r="C203" s="138"/>
-      <c r="D203" s="127"/>
+      <c r="A203" s="152"/>
+      <c r="B203" s="147"/>
+      <c r="C203" s="125"/>
+      <c r="D203" s="114"/>
       <c r="F203" s="66" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H203" s="76"/>
       <c r="I203" s="79"/>
@@ -6463,12 +6546,12 @@
       <c r="K203" s="71"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="124"/>
-      <c r="B204" s="130"/>
-      <c r="C204" s="138"/>
-      <c r="D204" s="127"/>
+      <c r="A204" s="152"/>
+      <c r="B204" s="147"/>
+      <c r="C204" s="125"/>
+      <c r="D204" s="114"/>
       <c r="F204" s="66" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H204" s="76"/>
       <c r="I204" s="79"/>
@@ -6476,12 +6559,12 @@
       <c r="K204" s="71"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="124"/>
-      <c r="B205" s="130"/>
-      <c r="C205" s="138"/>
-      <c r="D205" s="127"/>
+      <c r="A205" s="152"/>
+      <c r="B205" s="147"/>
+      <c r="C205" s="125"/>
+      <c r="D205" s="114"/>
       <c r="F205" s="66" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H205" s="76"/>
       <c r="I205" s="79"/>
@@ -6489,12 +6572,12 @@
       <c r="K205" s="71"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="124"/>
-      <c r="B206" s="130"/>
-      <c r="C206" s="138"/>
-      <c r="D206" s="127"/>
+      <c r="A206" s="152"/>
+      <c r="B206" s="147"/>
+      <c r="C206" s="125"/>
+      <c r="D206" s="114"/>
       <c r="F206" s="66" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H206" s="76"/>
       <c r="I206" s="79"/>
@@ -6502,12 +6585,12 @@
       <c r="K206" s="71"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="124"/>
-      <c r="B207" s="130"/>
-      <c r="C207" s="139"/>
-      <c r="D207" s="128"/>
+      <c r="A207" s="152"/>
+      <c r="B207" s="147"/>
+      <c r="C207" s="125"/>
+      <c r="D207" s="114"/>
       <c r="F207" s="66" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H207" s="76"/>
       <c r="I207" s="79"/>
@@ -6515,16 +6598,12 @@
       <c r="K207" s="71"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="124"/>
-      <c r="B208" s="130"/>
-      <c r="C208" s="134" t="s">
-        <v>249</v>
-      </c>
-      <c r="D208" s="126" t="s">
-        <v>249</v>
-      </c>
+      <c r="A208" s="152"/>
+      <c r="B208" s="147"/>
+      <c r="C208" s="126"/>
+      <c r="D208" s="115"/>
       <c r="F208" s="66" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="H208" s="76"/>
       <c r="I208" s="79"/>
@@ -6532,12 +6611,16 @@
       <c r="K208" s="71"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="124"/>
-      <c r="B209" s="130"/>
-      <c r="C209" s="135"/>
-      <c r="D209" s="127"/>
+      <c r="A209" s="152"/>
+      <c r="B209" s="147"/>
+      <c r="C209" s="127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D209" s="113" t="s">
+        <v>244</v>
+      </c>
       <c r="F209" s="66" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="H209" s="76"/>
       <c r="I209" s="79"/>
@@ -6545,25 +6628,25 @@
       <c r="K209" s="71"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="124"/>
-      <c r="B210" s="130"/>
-      <c r="C210" s="135"/>
-      <c r="D210" s="127"/>
+      <c r="A210" s="152"/>
+      <c r="B210" s="147"/>
+      <c r="C210" s="128"/>
+      <c r="D210" s="114"/>
       <c r="F210" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="H210" s="76"/>
+      <c r="I210" s="79"/>
+      <c r="J210" s="79"/>
+      <c r="K210" s="71"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211" s="152"/>
+      <c r="B211" s="147"/>
+      <c r="C211" s="128"/>
+      <c r="D211" s="114"/>
+      <c r="F211" s="66" t="s">
         <v>124</v>
-      </c>
-      <c r="H210" s="76"/>
-      <c r="I210" s="88"/>
-      <c r="J210" s="88"/>
-      <c r="K210" s="71"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="124"/>
-      <c r="B211" s="130"/>
-      <c r="C211" s="135"/>
-      <c r="D211" s="127"/>
-      <c r="F211" s="66" t="s">
-        <v>212</v>
       </c>
       <c r="H211" s="76"/>
       <c r="I211" s="88"/>
@@ -6571,12 +6654,12 @@
       <c r="K211" s="71"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="124"/>
-      <c r="B212" s="130"/>
-      <c r="C212" s="135"/>
-      <c r="D212" s="127"/>
+      <c r="A212" s="152"/>
+      <c r="B212" s="147"/>
+      <c r="C212" s="128"/>
+      <c r="D212" s="114"/>
       <c r="F212" s="66" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H212" s="76"/>
       <c r="I212" s="88"/>
@@ -6584,12 +6667,12 @@
       <c r="K212" s="71"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="124"/>
-      <c r="B213" s="130"/>
-      <c r="C213" s="135"/>
-      <c r="D213" s="127"/>
+      <c r="A213" s="152"/>
+      <c r="B213" s="147"/>
+      <c r="C213" s="128"/>
+      <c r="D213" s="114"/>
       <c r="F213" s="66" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="H213" s="76"/>
       <c r="I213" s="88"/>
@@ -6597,12 +6680,12 @@
       <c r="K213" s="71"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="124"/>
-      <c r="B214" s="130"/>
-      <c r="C214" s="135"/>
-      <c r="D214" s="127"/>
+      <c r="A214" s="152"/>
+      <c r="B214" s="147"/>
+      <c r="C214" s="128"/>
+      <c r="D214" s="114"/>
       <c r="F214" s="66" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="H214" s="76"/>
       <c r="I214" s="88"/>
@@ -6610,12 +6693,12 @@
       <c r="K214" s="71"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="124"/>
-      <c r="B215" s="130"/>
-      <c r="C215" s="135"/>
-      <c r="D215" s="127"/>
+      <c r="A215" s="152"/>
+      <c r="B215" s="147"/>
+      <c r="C215" s="128"/>
+      <c r="D215" s="114"/>
       <c r="F215" s="66" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="H215" s="76"/>
       <c r="I215" s="88"/>
@@ -6623,12 +6706,12 @@
       <c r="K215" s="71"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="124"/>
-      <c r="B216" s="130"/>
-      <c r="C216" s="135"/>
-      <c r="D216" s="127"/>
+      <c r="A216" s="152"/>
+      <c r="B216" s="147"/>
+      <c r="C216" s="128"/>
+      <c r="D216" s="114"/>
       <c r="F216" s="66" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H216" s="76"/>
       <c r="I216" s="88"/>
@@ -6636,12 +6719,12 @@
       <c r="K216" s="71"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="124"/>
-      <c r="B217" s="130"/>
-      <c r="C217" s="135"/>
-      <c r="D217" s="127"/>
+      <c r="A217" s="152"/>
+      <c r="B217" s="147"/>
+      <c r="C217" s="128"/>
+      <c r="D217" s="114"/>
       <c r="F217" s="66" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H217" s="76"/>
       <c r="I217" s="88"/>
@@ -6649,12 +6732,12 @@
       <c r="K217" s="71"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="124"/>
-      <c r="B218" s="130"/>
-      <c r="C218" s="135"/>
-      <c r="D218" s="127"/>
+      <c r="A218" s="152"/>
+      <c r="B218" s="147"/>
+      <c r="C218" s="128"/>
+      <c r="D218" s="114"/>
       <c r="F218" s="66" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="H218" s="76"/>
       <c r="I218" s="88"/>
@@ -6662,12 +6745,12 @@
       <c r="K218" s="71"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="124"/>
-      <c r="B219" s="130"/>
-      <c r="C219" s="135"/>
-      <c r="D219" s="127"/>
+      <c r="A219" s="152"/>
+      <c r="B219" s="147"/>
+      <c r="C219" s="128"/>
+      <c r="D219" s="114"/>
       <c r="F219" s="66" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="H219" s="76"/>
       <c r="I219" s="88"/>
@@ -6675,12 +6758,12 @@
       <c r="K219" s="71"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="124"/>
-      <c r="B220" s="130"/>
-      <c r="C220" s="135"/>
-      <c r="D220" s="127"/>
+      <c r="A220" s="152"/>
+      <c r="B220" s="147"/>
+      <c r="C220" s="128"/>
+      <c r="D220" s="114"/>
       <c r="F220" s="66" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H220" s="76"/>
       <c r="I220" s="88"/>
@@ -6688,12 +6771,12 @@
       <c r="K220" s="71"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="124"/>
-      <c r="B221" s="130"/>
-      <c r="C221" s="135"/>
-      <c r="D221" s="127"/>
+      <c r="A221" s="152"/>
+      <c r="B221" s="147"/>
+      <c r="C221" s="128"/>
+      <c r="D221" s="114"/>
       <c r="F221" s="66" t="s">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="H221" s="76"/>
       <c r="I221" s="88"/>
@@ -6701,12 +6784,12 @@
       <c r="K221" s="71"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="124"/>
-      <c r="B222" s="130"/>
-      <c r="C222" s="135"/>
-      <c r="D222" s="127"/>
+      <c r="A222" s="152"/>
+      <c r="B222" s="147"/>
+      <c r="C222" s="128"/>
+      <c r="D222" s="114"/>
       <c r="F222" s="66" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="H222" s="76"/>
       <c r="I222" s="88"/>
@@ -6714,12 +6797,12 @@
       <c r="K222" s="71"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="124"/>
-      <c r="B223" s="130"/>
-      <c r="C223" s="135"/>
-      <c r="D223" s="127"/>
+      <c r="A223" s="152"/>
+      <c r="B223" s="147"/>
+      <c r="C223" s="128"/>
+      <c r="D223" s="114"/>
       <c r="F223" s="66" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H223" s="76"/>
       <c r="I223" s="88"/>
@@ -6727,12 +6810,12 @@
       <c r="K223" s="71"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="124"/>
-      <c r="B224" s="130"/>
-      <c r="C224" s="135"/>
-      <c r="D224" s="127"/>
+      <c r="A224" s="152"/>
+      <c r="B224" s="147"/>
+      <c r="C224" s="128"/>
+      <c r="D224" s="114"/>
       <c r="F224" s="66" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H224" s="76"/>
       <c r="I224" s="88"/>
@@ -6740,12 +6823,12 @@
       <c r="K224" s="71"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="124"/>
-      <c r="B225" s="130"/>
-      <c r="C225" s="135"/>
-      <c r="D225" s="127"/>
+      <c r="A225" s="152"/>
+      <c r="B225" s="147"/>
+      <c r="C225" s="128"/>
+      <c r="D225" s="114"/>
       <c r="F225" s="66" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H225" s="76"/>
       <c r="I225" s="88"/>
@@ -6753,12 +6836,12 @@
       <c r="K225" s="71"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="124"/>
-      <c r="B226" s="130"/>
-      <c r="C226" s="135"/>
-      <c r="D226" s="127"/>
+      <c r="A226" s="152"/>
+      <c r="B226" s="147"/>
+      <c r="C226" s="128"/>
+      <c r="D226" s="114"/>
       <c r="F226" s="66" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H226" s="76"/>
       <c r="I226" s="88"/>
@@ -6766,12 +6849,12 @@
       <c r="K226" s="71"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="124"/>
-      <c r="B227" s="130"/>
-      <c r="C227" s="135"/>
-      <c r="D227" s="127"/>
+      <c r="A227" s="152"/>
+      <c r="B227" s="147"/>
+      <c r="C227" s="128"/>
+      <c r="D227" s="114"/>
       <c r="F227" s="66" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H227" s="76"/>
       <c r="I227" s="88"/>
@@ -6779,12 +6862,12 @@
       <c r="K227" s="71"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="124"/>
-      <c r="B228" s="130"/>
-      <c r="C228" s="136"/>
-      <c r="D228" s="128"/>
+      <c r="A228" s="152"/>
+      <c r="B228" s="147"/>
+      <c r="C228" s="128"/>
+      <c r="D228" s="114"/>
       <c r="F228" s="66" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H228" s="76"/>
       <c r="I228" s="88"/>
@@ -6792,16 +6875,12 @@
       <c r="K228" s="71"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="124"/>
-      <c r="B229" s="130"/>
-      <c r="C229" s="134" t="s">
-        <v>264</v>
-      </c>
-      <c r="D229" s="126" t="s">
-        <v>264</v>
-      </c>
+      <c r="A229" s="152"/>
+      <c r="B229" s="147"/>
+      <c r="C229" s="129"/>
+      <c r="D229" s="115"/>
       <c r="F229" s="66" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="H229" s="76"/>
       <c r="I229" s="88"/>
@@ -6809,12 +6888,16 @@
       <c r="K229" s="71"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="124"/>
-      <c r="B230" s="130"/>
-      <c r="C230" s="135"/>
-      <c r="D230" s="127"/>
+      <c r="A230" s="152"/>
+      <c r="B230" s="147"/>
+      <c r="C230" s="127" t="s">
+        <v>259</v>
+      </c>
+      <c r="D230" s="113" t="s">
+        <v>259</v>
+      </c>
       <c r="F230" s="66" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H230" s="76"/>
       <c r="I230" s="88"/>
@@ -6822,12 +6905,12 @@
       <c r="K230" s="71"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="124"/>
-      <c r="B231" s="130"/>
-      <c r="C231" s="135"/>
-      <c r="D231" s="127"/>
+      <c r="A231" s="152"/>
+      <c r="B231" s="147"/>
+      <c r="C231" s="128"/>
+      <c r="D231" s="114"/>
       <c r="F231" s="66" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="H231" s="76"/>
       <c r="I231" s="88"/>
@@ -6835,12 +6918,12 @@
       <c r="K231" s="71"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="124"/>
-      <c r="B232" s="130"/>
-      <c r="C232" s="135"/>
-      <c r="D232" s="127"/>
+      <c r="A232" s="152"/>
+      <c r="B232" s="147"/>
+      <c r="C232" s="128"/>
+      <c r="D232" s="114"/>
       <c r="F232" s="66" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="H232" s="76"/>
       <c r="I232" s="88"/>
@@ -6848,12 +6931,12 @@
       <c r="K232" s="71"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="124"/>
-      <c r="B233" s="130"/>
-      <c r="C233" s="135"/>
-      <c r="D233" s="127"/>
+      <c r="A233" s="152"/>
+      <c r="B233" s="147"/>
+      <c r="C233" s="128"/>
+      <c r="D233" s="114"/>
       <c r="F233" s="66" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H233" s="76"/>
       <c r="I233" s="88"/>
@@ -6861,12 +6944,12 @@
       <c r="K233" s="71"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="124"/>
-      <c r="B234" s="130"/>
-      <c r="C234" s="135"/>
-      <c r="D234" s="127"/>
+      <c r="A234" s="152"/>
+      <c r="B234" s="147"/>
+      <c r="C234" s="128"/>
+      <c r="D234" s="114"/>
       <c r="F234" s="66" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H234" s="76"/>
       <c r="I234" s="88"/>
@@ -6874,12 +6957,12 @@
       <c r="K234" s="71"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="124"/>
-      <c r="B235" s="130"/>
-      <c r="C235" s="135"/>
-      <c r="D235" s="127"/>
+      <c r="A235" s="152"/>
+      <c r="B235" s="147"/>
+      <c r="C235" s="128"/>
+      <c r="D235" s="114"/>
       <c r="F235" s="66" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="H235" s="76"/>
       <c r="I235" s="88"/>
@@ -6887,12 +6970,12 @@
       <c r="K235" s="71"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="124"/>
-      <c r="B236" s="130"/>
-      <c r="C236" s="135"/>
-      <c r="D236" s="127"/>
+      <c r="A236" s="152"/>
+      <c r="B236" s="147"/>
+      <c r="C236" s="128"/>
+      <c r="D236" s="114"/>
       <c r="F236" s="66" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H236" s="76"/>
       <c r="I236" s="88"/>
@@ -6900,12 +6983,12 @@
       <c r="K236" s="71"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="124"/>
-      <c r="B237" s="130"/>
-      <c r="C237" s="135"/>
-      <c r="D237" s="127"/>
+      <c r="A237" s="152"/>
+      <c r="B237" s="147"/>
+      <c r="C237" s="128"/>
+      <c r="D237" s="114"/>
       <c r="F237" s="66" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H237" s="76"/>
       <c r="I237" s="88"/>
@@ -6913,12 +6996,12 @@
       <c r="K237" s="71"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="124"/>
-      <c r="B238" s="130"/>
-      <c r="C238" s="135"/>
-      <c r="D238" s="127"/>
+      <c r="A238" s="152"/>
+      <c r="B238" s="147"/>
+      <c r="C238" s="128"/>
+      <c r="D238" s="114"/>
       <c r="F238" s="66" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="H238" s="76"/>
       <c r="I238" s="88"/>
@@ -6926,12 +7009,12 @@
       <c r="K238" s="71"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="124"/>
-      <c r="B239" s="130"/>
-      <c r="C239" s="135"/>
-      <c r="D239" s="127"/>
+      <c r="A239" s="152"/>
+      <c r="B239" s="147"/>
+      <c r="C239" s="128"/>
+      <c r="D239" s="114"/>
       <c r="F239" s="66" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H239" s="76"/>
       <c r="I239" s="88"/>
@@ -6939,12 +7022,12 @@
       <c r="K239" s="71"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="124"/>
-      <c r="B240" s="130"/>
-      <c r="C240" s="135"/>
-      <c r="D240" s="127"/>
+      <c r="A240" s="152"/>
+      <c r="B240" s="147"/>
+      <c r="C240" s="128"/>
+      <c r="D240" s="114"/>
       <c r="F240" s="66" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="H240" s="76"/>
       <c r="I240" s="88"/>
@@ -6952,12 +7035,12 @@
       <c r="K240" s="71"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="124"/>
-      <c r="B241" s="130"/>
-      <c r="C241" s="135"/>
-      <c r="D241" s="127"/>
+      <c r="A241" s="152"/>
+      <c r="B241" s="147"/>
+      <c r="C241" s="128"/>
+      <c r="D241" s="114"/>
       <c r="F241" s="66" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="H241" s="76"/>
       <c r="I241" s="88"/>
@@ -6965,12 +7048,12 @@
       <c r="K241" s="71"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="124"/>
-      <c r="B242" s="130"/>
-      <c r="C242" s="135"/>
-      <c r="D242" s="127"/>
+      <c r="A242" s="152"/>
+      <c r="B242" s="147"/>
+      <c r="C242" s="128"/>
+      <c r="D242" s="114"/>
       <c r="F242" s="66" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H242" s="76"/>
       <c r="I242" s="88"/>
@@ -6978,12 +7061,12 @@
       <c r="K242" s="71"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="124"/>
-      <c r="B243" s="130"/>
-      <c r="C243" s="135"/>
-      <c r="D243" s="127"/>
+      <c r="A243" s="152"/>
+      <c r="B243" s="147"/>
+      <c r="C243" s="128"/>
+      <c r="D243" s="114"/>
       <c r="F243" s="66" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H243" s="76"/>
       <c r="I243" s="88"/>
@@ -6991,12 +7074,12 @@
       <c r="K243" s="71"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="124"/>
-      <c r="B244" s="130"/>
-      <c r="C244" s="135"/>
-      <c r="D244" s="127"/>
+      <c r="A244" s="152"/>
+      <c r="B244" s="147"/>
+      <c r="C244" s="128"/>
+      <c r="D244" s="114"/>
       <c r="F244" s="66" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H244" s="76"/>
       <c r="I244" s="88"/>
@@ -7004,12 +7087,12 @@
       <c r="K244" s="71"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="124"/>
-      <c r="B245" s="130"/>
-      <c r="C245" s="135"/>
-      <c r="D245" s="127"/>
+      <c r="A245" s="152"/>
+      <c r="B245" s="147"/>
+      <c r="C245" s="128"/>
+      <c r="D245" s="114"/>
       <c r="F245" s="66" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H245" s="76"/>
       <c r="I245" s="88"/>
@@ -7017,12 +7100,12 @@
       <c r="K245" s="71"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="124"/>
-      <c r="B246" s="130"/>
-      <c r="C246" s="135"/>
-      <c r="D246" s="127"/>
+      <c r="A246" s="152"/>
+      <c r="B246" s="147"/>
+      <c r="C246" s="128"/>
+      <c r="D246" s="114"/>
       <c r="F246" s="66" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H246" s="76"/>
       <c r="I246" s="88"/>
@@ -7030,12 +7113,12 @@
       <c r="K246" s="71"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="125"/>
-      <c r="B247" s="130"/>
-      <c r="C247" s="135"/>
-      <c r="D247" s="127"/>
+      <c r="A247" s="152"/>
+      <c r="B247" s="147"/>
+      <c r="C247" s="128"/>
+      <c r="D247" s="114"/>
       <c r="F247" s="66" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H247" s="76"/>
       <c r="I247" s="88"/>
@@ -7043,44 +7126,44 @@
       <c r="K247" s="71"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="B248" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="C248" s="75"/>
-      <c r="D248" s="75"/>
-      <c r="F248" s="66"/>
+      <c r="A248" s="153"/>
+      <c r="B248" s="147"/>
+      <c r="C248" s="128"/>
+      <c r="D248" s="114"/>
+      <c r="F248" s="66" t="s">
+        <v>273</v>
+      </c>
       <c r="H248" s="76"/>
       <c r="I248" s="88"/>
       <c r="J248" s="88"/>
       <c r="K248" s="71"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="127"/>
-      <c r="B249" s="126" t="s">
-        <v>281</v>
-      </c>
-      <c r="C249" s="126" t="s">
-        <v>282</v>
-      </c>
-      <c r="D249" s="126"/>
-      <c r="F249" s="66" t="s">
-        <v>283</v>
-      </c>
+      <c r="A249" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="B249" s="83" t="s">
+        <v>275</v>
+      </c>
+      <c r="C249" s="75"/>
+      <c r="D249" s="75"/>
+      <c r="F249" s="66"/>
       <c r="H249" s="76"/>
       <c r="I249" s="88"/>
       <c r="J249" s="88"/>
       <c r="K249" s="71"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="127"/>
-      <c r="B250" s="127"/>
-      <c r="C250" s="127"/>
-      <c r="D250" s="127"/>
+      <c r="A250" s="114"/>
+      <c r="B250" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C250" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="D250" s="113"/>
       <c r="F250" s="66" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H250" s="76"/>
       <c r="I250" s="88"/>
@@ -7088,12 +7171,12 @@
       <c r="K250" s="71"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="127"/>
-      <c r="B251" s="127"/>
-      <c r="C251" s="127"/>
-      <c r="D251" s="127"/>
+      <c r="A251" s="114"/>
+      <c r="B251" s="114"/>
+      <c r="C251" s="114"/>
+      <c r="D251" s="114"/>
       <c r="F251" s="66" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H251" s="76"/>
       <c r="I251" s="88"/>
@@ -7101,25 +7184,25 @@
       <c r="K251" s="71"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="127"/>
-      <c r="B252" s="127"/>
-      <c r="C252" s="127"/>
-      <c r="D252" s="127"/>
-      <c r="F252" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="H252" s="85"/>
-      <c r="I252" s="89"/>
-      <c r="J252" s="89"/>
-      <c r="K252" s="90"/>
+      <c r="A252" s="114"/>
+      <c r="B252" s="114"/>
+      <c r="C252" s="114"/>
+      <c r="D252" s="114"/>
+      <c r="F252" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="H252" s="76"/>
+      <c r="I252" s="88"/>
+      <c r="J252" s="88"/>
+      <c r="K252" s="71"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="127"/>
-      <c r="B253" s="127"/>
-      <c r="C253" s="127"/>
-      <c r="D253" s="127"/>
+      <c r="A253" s="114"/>
+      <c r="B253" s="114"/>
+      <c r="C253" s="114"/>
+      <c r="D253" s="114"/>
       <c r="F253" s="84" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H253" s="85"/>
       <c r="I253" s="89"/>
@@ -7127,12 +7210,12 @@
       <c r="K253" s="90"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="127"/>
-      <c r="B254" s="127"/>
-      <c r="C254" s="127"/>
-      <c r="D254" s="127"/>
+      <c r="A254" s="114"/>
+      <c r="B254" s="114"/>
+      <c r="C254" s="114"/>
+      <c r="D254" s="114"/>
       <c r="F254" s="84" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H254" s="85"/>
       <c r="I254" s="89"/>
@@ -7140,12 +7223,12 @@
       <c r="K254" s="90"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="127"/>
-      <c r="B255" s="127"/>
-      <c r="C255" s="127"/>
-      <c r="D255" s="127"/>
+      <c r="A255" s="114"/>
+      <c r="B255" s="114"/>
+      <c r="C255" s="114"/>
+      <c r="D255" s="114"/>
       <c r="F255" s="84" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H255" s="85"/>
       <c r="I255" s="89"/>
@@ -7153,12 +7236,12 @@
       <c r="K255" s="90"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="127"/>
-      <c r="B256" s="127"/>
-      <c r="C256" s="127"/>
-      <c r="D256" s="127"/>
+      <c r="A256" s="114"/>
+      <c r="B256" s="114"/>
+      <c r="C256" s="114"/>
+      <c r="D256" s="114"/>
       <c r="F256" s="84" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H256" s="85"/>
       <c r="I256" s="89"/>
@@ -7166,12 +7249,12 @@
       <c r="K256" s="90"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="127"/>
-      <c r="B257" s="127"/>
-      <c r="C257" s="127"/>
-      <c r="D257" s="127"/>
+      <c r="A257" s="114"/>
+      <c r="B257" s="114"/>
+      <c r="C257" s="114"/>
+      <c r="D257" s="114"/>
       <c r="F257" s="84" t="s">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="H257" s="85"/>
       <c r="I257" s="89"/>
@@ -7179,12 +7262,12 @@
       <c r="K257" s="90"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="127"/>
-      <c r="B258" s="127"/>
-      <c r="C258" s="127"/>
-      <c r="D258" s="127"/>
+      <c r="A258" s="114"/>
+      <c r="B258" s="114"/>
+      <c r="C258" s="114"/>
+      <c r="D258" s="114"/>
       <c r="F258" s="84" t="s">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="H258" s="85"/>
       <c r="I258" s="89"/>
@@ -7192,12 +7275,12 @@
       <c r="K258" s="90"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="127"/>
-      <c r="B259" s="127"/>
-      <c r="C259" s="128"/>
-      <c r="D259" s="128"/>
+      <c r="A259" s="114"/>
+      <c r="B259" s="114"/>
+      <c r="C259" s="114"/>
+      <c r="D259" s="114"/>
       <c r="F259" s="84" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H259" s="85"/>
       <c r="I259" s="89"/>
@@ -7205,484 +7288,484 @@
       <c r="K259" s="90"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="127"/>
-      <c r="B260" s="127"/>
-      <c r="C260" s="86" t="s">
-        <v>293</v>
-      </c>
-      <c r="D260" s="86"/>
-      <c r="F260" s="84"/>
+      <c r="A260" s="114"/>
+      <c r="B260" s="114"/>
+      <c r="C260" s="115"/>
+      <c r="D260" s="115"/>
+      <c r="F260" s="84" t="s">
+        <v>287</v>
+      </c>
       <c r="H260" s="85"/>
       <c r="I260" s="89"/>
       <c r="J260" s="89"/>
       <c r="K260" s="90"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="127"/>
-      <c r="B261" s="127"/>
-      <c r="C261" s="140" t="s">
-        <v>294</v>
-      </c>
-      <c r="D261" s="140"/>
-      <c r="F261" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H261" s="87" t="s">
-        <v>296</v>
-      </c>
+      <c r="A261" s="114"/>
+      <c r="B261" s="114"/>
+      <c r="C261" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="D261" s="86"/>
+      <c r="F261" s="84"/>
+      <c r="H261" s="85"/>
       <c r="I261" s="89"/>
       <c r="J261" s="89"/>
       <c r="K261" s="90"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="127"/>
-      <c r="B262" s="127"/>
-      <c r="C262" s="141"/>
-      <c r="D262" s="141"/>
+      <c r="A262" s="114"/>
+      <c r="B262" s="114"/>
+      <c r="C262" s="116" t="s">
+        <v>289</v>
+      </c>
+      <c r="D262" s="116"/>
       <c r="F262" s="84" t="s">
-        <v>297</v>
-      </c>
-      <c r="H262" s="85"/>
+        <v>290</v>
+      </c>
+      <c r="H262" s="87" t="s">
+        <v>291</v>
+      </c>
       <c r="I262" s="89"/>
       <c r="J262" s="89"/>
       <c r="K262" s="90"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="127"/>
-      <c r="B263" s="127"/>
-      <c r="C263" s="141"/>
-      <c r="D263" s="141"/>
+      <c r="A263" s="114"/>
+      <c r="B263" s="114"/>
+      <c r="C263" s="117"/>
+      <c r="D263" s="117"/>
       <c r="F263" s="84" t="s">
-        <v>286</v>
-      </c>
-      <c r="H263" s="87" t="s">
-        <v>298</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="H263" s="85"/>
       <c r="I263" s="89"/>
       <c r="J263" s="89"/>
       <c r="K263" s="90"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="127"/>
-      <c r="B264" s="127"/>
-      <c r="C264" s="141"/>
-      <c r="D264" s="141"/>
+      <c r="A264" s="114"/>
+      <c r="B264" s="114"/>
+      <c r="C264" s="117"/>
+      <c r="D264" s="117"/>
       <c r="F264" s="84" t="s">
-        <v>299</v>
-      </c>
-      <c r="H264" s="85"/>
+        <v>281</v>
+      </c>
+      <c r="H264" s="87" t="s">
+        <v>293</v>
+      </c>
       <c r="I264" s="89"/>
       <c r="J264" s="89"/>
       <c r="K264" s="90"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="127"/>
-      <c r="B265" s="127"/>
-      <c r="C265" s="141"/>
-      <c r="D265" s="141"/>
+      <c r="A265" s="114"/>
+      <c r="B265" s="114"/>
+      <c r="C265" s="117"/>
+      <c r="D265" s="117"/>
       <c r="F265" s="84" t="s">
-        <v>210</v>
-      </c>
-      <c r="H265" s="87" t="s">
-        <v>287</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="H265" s="85"/>
       <c r="I265" s="89"/>
       <c r="J265" s="89"/>
       <c r="K265" s="90"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="127"/>
-      <c r="B266" s="127"/>
-      <c r="C266" s="141"/>
-      <c r="D266" s="141"/>
+      <c r="A266" s="114"/>
+      <c r="B266" s="114"/>
+      <c r="C266" s="117"/>
+      <c r="D266" s="117"/>
       <c r="F266" s="84" t="s">
-        <v>300</v>
-      </c>
-      <c r="H266" s="85"/>
+        <v>205</v>
+      </c>
+      <c r="H266" s="87" t="s">
+        <v>282</v>
+      </c>
       <c r="I266" s="89"/>
       <c r="J266" s="89"/>
       <c r="K266" s="90"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="127"/>
-      <c r="B267" s="127"/>
-      <c r="C267" s="141"/>
-      <c r="D267" s="141"/>
-      <c r="F267" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="H267" s="87"/>
+      <c r="A267" s="114"/>
+      <c r="B267" s="114"/>
+      <c r="C267" s="117"/>
+      <c r="D267" s="117"/>
+      <c r="F267" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H267" s="85"/>
       <c r="I267" s="89"/>
       <c r="J267" s="89"/>
-      <c r="K267" s="90" t="s">
-        <v>302</v>
-      </c>
+      <c r="K267" s="90"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="127"/>
-      <c r="B268" s="127"/>
-      <c r="C268" s="141"/>
-      <c r="D268" s="141"/>
+      <c r="A268" s="114"/>
+      <c r="B268" s="114"/>
+      <c r="C268" s="117"/>
+      <c r="D268" s="117"/>
       <c r="F268" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="H268" s="85"/>
+        <v>296</v>
+      </c>
+      <c r="H268" s="87"/>
       <c r="I268" s="89"/>
       <c r="J268" s="89"/>
-      <c r="K268" s="90"/>
+      <c r="K268" s="90" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="127"/>
-      <c r="B269" s="127"/>
-      <c r="C269" s="141"/>
-      <c r="D269" s="141"/>
-      <c r="F269" s="84" t="s">
-        <v>304</v>
-      </c>
-      <c r="H269" s="87" t="s">
-        <v>304</v>
-      </c>
+      <c r="A269" s="114"/>
+      <c r="B269" s="114"/>
+      <c r="C269" s="117"/>
+      <c r="D269" s="117"/>
+      <c r="F269" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="H269" s="85"/>
       <c r="I269" s="89"/>
       <c r="J269" s="89"/>
       <c r="K269" s="90"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="127"/>
-      <c r="B270" s="127"/>
-      <c r="C270" s="141"/>
-      <c r="D270" s="141"/>
-      <c r="F270" s="92" t="s">
-        <v>298</v>
+      <c r="A270" s="114"/>
+      <c r="B270" s="114"/>
+      <c r="C270" s="117"/>
+      <c r="D270" s="117"/>
+      <c r="F270" s="84" t="s">
+        <v>299</v>
       </c>
       <c r="H270" s="87" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="I270" s="89"/>
       <c r="J270" s="89"/>
-      <c r="K270" s="102" t="s">
-        <v>306</v>
-      </c>
+      <c r="K270" s="90"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="127"/>
-      <c r="B271" s="127"/>
-      <c r="C271" s="142"/>
-      <c r="D271" s="142"/>
+      <c r="A271" s="114"/>
+      <c r="B271" s="114"/>
+      <c r="C271" s="117"/>
+      <c r="D271" s="117"/>
       <c r="F271" s="92" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H271" s="87" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I271" s="89"/>
       <c r="J271" s="89"/>
-      <c r="K271" s="90"/>
+      <c r="K271" s="102" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="127"/>
-      <c r="B272" s="127"/>
-      <c r="C272" s="143" t="s">
-        <v>308</v>
-      </c>
-      <c r="D272" s="143"/>
-      <c r="F272" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H272" s="85"/>
+      <c r="A272" s="114"/>
+      <c r="B272" s="114"/>
+      <c r="C272" s="118"/>
+      <c r="D272" s="118"/>
+      <c r="F272" s="92" t="s">
+        <v>296</v>
+      </c>
+      <c r="H272" s="87" t="s">
+        <v>302</v>
+      </c>
       <c r="I272" s="89"/>
       <c r="J272" s="89"/>
       <c r="K272" s="90"/>
     </row>
-    <row r="273" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="127"/>
-      <c r="B273" s="127"/>
-      <c r="C273" s="144"/>
-      <c r="D273" s="144"/>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" s="114"/>
+      <c r="B273" s="114"/>
+      <c r="C273" s="119" t="s">
+        <v>303</v>
+      </c>
+      <c r="D273" s="119"/>
       <c r="F273" s="84" t="s">
-        <v>309</v>
-      </c>
-      <c r="H273" s="87" t="s">
-        <v>310</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H273" s="85"/>
       <c r="I273" s="89"/>
       <c r="J273" s="89"/>
       <c r="K273" s="90"/>
     </row>
     <row r="274" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="127"/>
-      <c r="B274" s="127"/>
-      <c r="C274" s="144"/>
-      <c r="D274" s="144"/>
+      <c r="A274" s="114"/>
+      <c r="B274" s="114"/>
+      <c r="C274" s="120"/>
+      <c r="D274" s="120"/>
       <c r="F274" s="84" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H274" s="87" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I274" s="89"/>
       <c r="J274" s="89"/>
       <c r="K274" s="90"/>
     </row>
     <row r="275" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="127"/>
-      <c r="B275" s="127"/>
-      <c r="C275" s="145"/>
-      <c r="D275" s="145"/>
+      <c r="A275" s="114"/>
+      <c r="B275" s="114"/>
+      <c r="C275" s="120"/>
+      <c r="D275" s="120"/>
       <c r="F275" s="84" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H275" s="87" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I275" s="89"/>
       <c r="J275" s="89"/>
       <c r="K275" s="90"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="127"/>
-      <c r="B276" s="127"/>
-      <c r="C276" s="143" t="s">
-        <v>315</v>
-      </c>
-      <c r="D276" s="143"/>
+    <row r="276" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="114"/>
+      <c r="B276" s="114"/>
+      <c r="C276" s="121"/>
+      <c r="D276" s="121"/>
       <c r="F276" s="84" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="H276" s="87" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="I276" s="89"/>
       <c r="J276" s="89"/>
       <c r="K276" s="90"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="127"/>
-      <c r="B277" s="127"/>
-      <c r="C277" s="144"/>
-      <c r="D277" s="144"/>
+      <c r="A277" s="114"/>
+      <c r="B277" s="114"/>
+      <c r="C277" s="119" t="s">
+        <v>310</v>
+      </c>
+      <c r="D277" s="119"/>
       <c r="F277" s="84" t="s">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="H277" s="87" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I277" s="89"/>
       <c r="J277" s="89"/>
       <c r="K277" s="90"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="127"/>
-      <c r="B278" s="127"/>
-      <c r="C278" s="144"/>
-      <c r="D278" s="144"/>
+      <c r="A278" s="114"/>
+      <c r="B278" s="114"/>
+      <c r="C278" s="120"/>
+      <c r="D278" s="120"/>
       <c r="F278" s="84" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H278" s="87" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I278" s="89"/>
       <c r="J278" s="89"/>
       <c r="K278" s="90"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="127"/>
-      <c r="B279" s="127"/>
-      <c r="C279" s="145"/>
-      <c r="D279" s="145"/>
+      <c r="A279" s="114"/>
+      <c r="B279" s="114"/>
+      <c r="C279" s="120"/>
+      <c r="D279" s="120"/>
       <c r="F279" s="84" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H279" s="87" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I279" s="89"/>
       <c r="J279" s="89"/>
       <c r="K279" s="90"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="127"/>
-      <c r="B280" s="127"/>
-      <c r="C280" s="146" t="s">
-        <v>319</v>
-      </c>
-      <c r="D280" s="140"/>
-      <c r="F280" s="94" t="s">
-        <v>320</v>
-      </c>
-      <c r="H280" s="87"/>
+      <c r="A280" s="114"/>
+      <c r="B280" s="114"/>
+      <c r="C280" s="121"/>
+      <c r="D280" s="121"/>
+      <c r="F280" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="H280" s="87" t="s">
+        <v>174</v>
+      </c>
       <c r="I280" s="89"/>
       <c r="J280" s="89"/>
       <c r="K280" s="90"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="127"/>
-      <c r="B281" s="127"/>
-      <c r="C281" s="147"/>
-      <c r="D281" s="142"/>
-      <c r="F281" s="95" t="s">
-        <v>321</v>
-      </c>
-      <c r="H281" s="87" t="s">
-        <v>322</v>
-      </c>
+      <c r="A281" s="114"/>
+      <c r="B281" s="114"/>
+      <c r="C281" s="122" t="s">
+        <v>314</v>
+      </c>
+      <c r="D281" s="116"/>
+      <c r="F281" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="H281" s="87"/>
       <c r="I281" s="89"/>
       <c r="J281" s="89"/>
       <c r="K281" s="90"/>
     </row>
-    <row r="282" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A282" s="127"/>
-      <c r="B282" s="127"/>
-      <c r="C282" s="96" t="s">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A282" s="114"/>
+      <c r="B282" s="114"/>
+      <c r="C282" s="123"/>
+      <c r="D282" s="118"/>
+      <c r="F282" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="H282" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="I282" s="89"/>
+      <c r="J282" s="89"/>
+      <c r="K282" s="90"/>
+    </row>
+    <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A283" s="114"/>
+      <c r="B283" s="114"/>
+      <c r="C283" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="D283" s="93"/>
+      <c r="F283" s="84"/>
+      <c r="H283" s="85"/>
+      <c r="I283" s="89"/>
+      <c r="J283" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="K283" s="90"/>
+    </row>
+    <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A284" s="114"/>
+      <c r="B284" s="114"/>
+      <c r="C284" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D284" s="98"/>
+      <c r="F284" s="94" t="s">
+        <v>321</v>
+      </c>
+      <c r="H284" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="I284" s="89"/>
+      <c r="J284" s="89"/>
+      <c r="K284" s="102" t="s">
         <v>323</v>
       </c>
-      <c r="D282" s="93"/>
-      <c r="F282" s="84"/>
-      <c r="H282" s="85"/>
-      <c r="I282" s="89"/>
-      <c r="J282" s="89" t="s">
+    </row>
+    <row r="285" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A285" s="114"/>
+      <c r="B285" s="114"/>
+      <c r="C285" s="99" t="s">
         <v>324</v>
       </c>
-      <c r="K282" s="90"/>
-    </row>
-    <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A283" s="127"/>
-      <c r="B283" s="127"/>
-      <c r="C283" s="97" t="s">
-        <v>325</v>
-      </c>
-      <c r="D283" s="98"/>
-      <c r="F283" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="H283" s="87" t="s">
-        <v>327</v>
-      </c>
-      <c r="I283" s="89"/>
-      <c r="J283" s="89"/>
-      <c r="K283" s="102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A284" s="127"/>
-      <c r="B284" s="127"/>
-      <c r="C284" s="99" t="s">
-        <v>329</v>
-      </c>
-      <c r="D284" s="100"/>
-      <c r="F284" s="84"/>
-      <c r="H284" s="85"/>
-      <c r="I284" s="89"/>
-      <c r="J284" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="K284" s="90"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="127"/>
-      <c r="B285" s="127"/>
-      <c r="C285" s="101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D285" s="101"/>
-      <c r="F285" s="95" t="s">
-        <v>331</v>
-      </c>
+      <c r="D285" s="100"/>
+      <c r="F285" s="84"/>
       <c r="H285" s="85"/>
       <c r="I285" s="89"/>
-      <c r="J285" s="89"/>
+      <c r="J285" s="89" t="s">
+        <v>319</v>
+      </c>
       <c r="K285" s="90"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="127"/>
-      <c r="B286" s="127"/>
-      <c r="C286" s="86"/>
-      <c r="D286" s="86"/>
+      <c r="A286" s="114"/>
+      <c r="B286" s="114"/>
+      <c r="C286" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D286" s="101"/>
       <c r="F286" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="H286" s="87" t="s">
-        <v>333</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="H286" s="85"/>
       <c r="I286" s="89"/>
       <c r="J286" s="89"/>
       <c r="K286" s="90"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="127"/>
-      <c r="B287" s="127"/>
+      <c r="A287" s="114"/>
+      <c r="B287" s="114"/>
       <c r="C287" s="86"/>
       <c r="D287" s="86"/>
       <c r="F287" s="95" t="s">
-        <v>334</v>
-      </c>
-      <c r="H287" s="87"/>
+        <v>327</v>
+      </c>
+      <c r="H287" s="87" t="s">
+        <v>328</v>
+      </c>
       <c r="I287" s="89"/>
       <c r="J287" s="89"/>
       <c r="K287" s="90"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="127"/>
-      <c r="B288" s="127"/>
-      <c r="C288" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="D288" s="101"/>
+      <c r="A288" s="114"/>
+      <c r="B288" s="114"/>
+      <c r="C288" s="86"/>
+      <c r="D288" s="86"/>
       <c r="F288" s="95" t="s">
-        <v>336</v>
-      </c>
-      <c r="H288" s="85"/>
+        <v>329</v>
+      </c>
+      <c r="H288" s="87"/>
       <c r="I288" s="89"/>
       <c r="J288" s="89"/>
       <c r="K288" s="90"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="127"/>
-      <c r="B289" s="127"/>
-      <c r="C289" s="86"/>
-      <c r="D289" s="86"/>
+      <c r="A289" s="114"/>
+      <c r="B289" s="114"/>
+      <c r="C289" s="101" t="s">
+        <v>330</v>
+      </c>
+      <c r="D289" s="101"/>
       <c r="F289" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="H289" s="87" t="s">
-        <v>338</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="H289" s="85"/>
       <c r="I289" s="89"/>
       <c r="J289" s="89"/>
       <c r="K289" s="90"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="127"/>
-      <c r="B290" s="127"/>
+      <c r="A290" s="114"/>
+      <c r="B290" s="114"/>
       <c r="C290" s="86"/>
       <c r="D290" s="86"/>
       <c r="F290" s="95" t="s">
-        <v>339</v>
-      </c>
-      <c r="H290" s="85"/>
+        <v>332</v>
+      </c>
+      <c r="H290" s="87" t="s">
+        <v>333</v>
+      </c>
       <c r="I290" s="89"/>
       <c r="J290" s="89"/>
       <c r="K290" s="90"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="127"/>
-      <c r="B291" s="127"/>
-      <c r="C291" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="D291" s="101"/>
-      <c r="F291" s="84"/>
+      <c r="A291" s="114"/>
+      <c r="B291" s="114"/>
+      <c r="C291" s="86"/>
+      <c r="D291" s="86"/>
+      <c r="F291" s="95" t="s">
+        <v>334</v>
+      </c>
       <c r="H291" s="85"/>
       <c r="I291" s="89"/>
       <c r="J291" s="89"/>
       <c r="K291" s="90"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="127"/>
-      <c r="B292" s="128"/>
+      <c r="A292" s="114"/>
+      <c r="B292" s="114"/>
       <c r="C292" s="101" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D292" s="101"/>
       <c r="F292" s="84"/>
@@ -7692,96 +7775,109 @@
       <c r="K292" s="90"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="128"/>
-      <c r="B293" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="C293" s="86"/>
-      <c r="D293" s="86"/>
+      <c r="A293" s="114"/>
+      <c r="B293" s="115"/>
+      <c r="C293" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="D293" s="101"/>
       <c r="F293" s="84"/>
       <c r="H293" s="85"/>
       <c r="I293" s="89"/>
       <c r="J293" s="89"/>
       <c r="K293" s="90"/>
     </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294" s="115"/>
+      <c r="B294" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="C294" s="86"/>
+      <c r="D294" s="86"/>
+      <c r="F294" s="84"/>
+      <c r="H294" s="85"/>
+      <c r="I294" s="89"/>
+      <c r="J294" s="89"/>
+      <c r="K294" s="90"/>
+    </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="D229:D247"/>
-    <mergeCell ref="D249:D259"/>
-    <mergeCell ref="C261:C271"/>
-    <mergeCell ref="C272:C275"/>
-    <mergeCell ref="C276:C279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="D147:D149"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="D154:D159"/>
-    <mergeCell ref="D261:D271"/>
-    <mergeCell ref="D272:D275"/>
-    <mergeCell ref="D276:D279"/>
-    <mergeCell ref="D280:D281"/>
-    <mergeCell ref="D160:D190"/>
-    <mergeCell ref="D191:D207"/>
-    <mergeCell ref="D208:D228"/>
-    <mergeCell ref="C160:C190"/>
-    <mergeCell ref="C191:C207"/>
-    <mergeCell ref="C208:C228"/>
-    <mergeCell ref="C229:C247"/>
-    <mergeCell ref="C249:C259"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C144:C159"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="A248:A293"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A249:A294"/>
     <mergeCell ref="B2:B27"/>
     <mergeCell ref="B28:B37"/>
     <mergeCell ref="B38:B47"/>
     <mergeCell ref="B48:B56"/>
     <mergeCell ref="B57:B83"/>
     <mergeCell ref="B84:B113"/>
-    <mergeCell ref="B114:B133"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="B144:B247"/>
-    <mergeCell ref="B249:B292"/>
-    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="B114:B134"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B145:B248"/>
+    <mergeCell ref="B250:B293"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A56"/>
-    <mergeCell ref="A57:A143"/>
-    <mergeCell ref="A144:A247"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="A57:A144"/>
+    <mergeCell ref="A145:A248"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C145:C160"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D160"/>
+    <mergeCell ref="D262:D272"/>
+    <mergeCell ref="D273:D276"/>
+    <mergeCell ref="D277:D280"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="D161:D191"/>
+    <mergeCell ref="D192:D208"/>
+    <mergeCell ref="D209:D229"/>
+    <mergeCell ref="C161:C191"/>
+    <mergeCell ref="C192:C208"/>
+    <mergeCell ref="C209:C229"/>
+    <mergeCell ref="D230:D248"/>
+    <mergeCell ref="D250:D260"/>
+    <mergeCell ref="C262:C272"/>
+    <mergeCell ref="C273:C276"/>
+    <mergeCell ref="C277:C280"/>
+    <mergeCell ref="C230:C248"/>
+    <mergeCell ref="C250:C260"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7794,8 +7890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7823,1067 +7919,1111 @@
         <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="211" t="s">
         <v>346</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="C3" s="187" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="D3" s="183" t="s">
         <v>348</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="E3" s="161" t="s">
         <v>349</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="F3" s="183" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="148" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="157" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="I3" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="172" t="s">
+      <c r="J3" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="E3" s="176" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="211"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F3" s="172" t="s">
+      <c r="J4" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="211"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="195" t="s">
+      <c r="E5" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="F5" s="10" t="s">
         <v>357</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="148"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="196"/>
-      <c r="I4" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="148"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>362</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="10" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="148"/>
-      <c r="C6" s="155"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="199"/>
       <c r="D6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="148"/>
-      <c r="C7" s="155"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="199"/>
       <c r="D7" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="211"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="184" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="159" t="s">
         <v>371</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="211"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="211"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="184" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="187" t="s">
         <v>368</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="148"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="173" t="s">
+      <c r="F10" s="184" t="s">
+        <v>369</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="159" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="J10" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="211"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="173" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="H8" s="197" t="s">
+      <c r="J11" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="211"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="183" t="s">
         <v>376</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="E12" s="161" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" s="179" t="s">
         <v>377</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="148"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="10" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="157" t="s">
         <v>378</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="148"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="173" t="s">
+      <c r="I12" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="E10" s="154" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="173" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="197" t="s">
+      <c r="J12" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="211"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="148"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="148"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="172" t="s">
+      <c r="J13" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="211"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="183" t="s">
         <v>381</v>
       </c>
-      <c r="E12" s="176" t="s">
-        <v>373</v>
-      </c>
-      <c r="F12" s="190" t="s">
+      <c r="E14" s="161" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="183" t="s">
         <v>382</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="195" t="s">
+      <c r="G14" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="H14" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="148"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="13" t="s">
+      <c r="I14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="211"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="148"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="172" t="s">
+      <c r="J15" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="211"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="179" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="176" t="s">
-        <v>373</v>
-      </c>
-      <c r="F14" s="172" t="s">
+      <c r="G16" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="H16" s="161" t="s">
         <v>388</v>
       </c>
-      <c r="H14" s="195" t="s">
+      <c r="I16" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="148"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="211"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="148"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="190" t="s">
+      <c r="H17" s="162"/>
+      <c r="I17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="211"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="H18" s="162"/>
+      <c r="I18" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H16" s="176" t="s">
+      <c r="J18" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="211"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="148"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="24" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="211"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="H17" s="178"/>
-      <c r="I17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="148"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="24" t="s">
+      <c r="J20" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="212" t="s">
         <v>396</v>
       </c>
-      <c r="H18" s="178"/>
-      <c r="I18" s="7" t="s">
+      <c r="C21" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="148"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="172"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="7" t="s">
+      <c r="D21" s="181" t="s">
         <v>398</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="E21" s="189" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="148"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="7" t="s">
+      <c r="F21" s="154" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="149" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="164" t="s">
         <v>401</v>
       </c>
-      <c r="C21" s="157" t="s">
+      <c r="I21" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="D21" s="169" t="s">
+      <c r="J21" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="212"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="E21" s="179" t="s">
+      <c r="J22" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="212"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="F21" s="191" t="s">
+      <c r="J23" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="212"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="182" t="s">
+      <c r="J24" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="212"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="181" t="s">
         <v>406</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="E25" s="164" t="s">
         <v>407</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="149"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="25" t="s">
+      <c r="F25" s="180" t="s">
         <v>408</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="149"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="25" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="164" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="149"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="25" t="s">
+      <c r="I25" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="149"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="169" t="s">
+      <c r="J25" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="212"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="212"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="181"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="E25" s="182" t="s">
+      <c r="J27" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="212"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="181" t="s">
         <v>412</v>
       </c>
-      <c r="F25" s="192" t="s">
+      <c r="E28" s="164" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="181" t="s">
         <v>413</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="182" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="167" t="s">
         <v>414</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="149"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="25" t="s">
+      <c r="J28" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="212"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="25" t="s">
         <v>416</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="169" t="s">
+      <c r="J29" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="212"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="181"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="E28" s="182" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28" s="169" t="s">
+      <c r="J30" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="212"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="181"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="199" t="s">
+      <c r="J31" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="212"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="J32" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="212"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="149"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="25" t="s">
+      <c r="J33" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="212"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="149"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="25" t="s">
+      <c r="E34" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="149"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="25" t="s">
+      <c r="G34" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="149"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="25" t="s">
+      <c r="H34" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="149"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="184"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="201"/>
-      <c r="I33" s="25" t="s">
+      <c r="I34" s="32" t="s">
         <v>425</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="149"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="32" t="s">
+      <c r="J34" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="212"/>
+      <c r="C35" s="200"/>
+      <c r="D35" s="182" t="s">
         <v>426</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="F34" s="32" t="s">
+      <c r="E35" s="192" t="s">
         <v>427</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="F35" s="182" t="s">
         <v>428</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="G35" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="H35" s="170" t="s">
         <v>430</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="149"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="170" t="s">
+      <c r="I35" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="E35" s="157" t="s">
+      <c r="J35" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="212"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="F35" s="170" t="s">
+      <c r="H36" s="171"/>
+      <c r="I36" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="G35" s="35" t="s">
+      <c r="J36" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="212"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="H35" s="202" t="s">
-        <v>435</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="149"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="H36" s="203"/>
-      <c r="I36" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="149"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="32" t="s">
-        <v>439</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="213"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="198" t="s">
+        <v>381</v>
+      </c>
+      <c r="E38" s="189" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" s="154" t="s">
+        <v>439</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="H38" s="172" t="s">
         <v>441</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="I38" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="J38" s="38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="213"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="150"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="171" t="s">
-        <v>386</v>
-      </c>
-      <c r="E38" s="179" t="s">
-        <v>412</v>
-      </c>
-      <c r="F38" s="191" t="s">
+      <c r="H39" s="173"/>
+      <c r="I39" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="J39" s="38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="213"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="H38" s="204" t="s">
+      <c r="H40" s="174"/>
+      <c r="I40" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="J40" s="38" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="214" t="s">
         <v>447</v>
       </c>
-      <c r="J38" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="150"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="39" t="s">
+      <c r="C41" s="202" t="s">
         <v>448</v>
       </c>
-      <c r="H39" s="205"/>
-      <c r="I39" s="38" t="s">
+      <c r="D41" s="185" t="s">
         <v>449</v>
       </c>
-      <c r="J39" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="150"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="40" t="s">
+      <c r="E41" s="194" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="38" t="s">
+      <c r="F41" s="155" t="s">
         <v>451</v>
       </c>
-      <c r="J40" s="38" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="151" t="s">
+      <c r="G41" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="C41" s="160" t="s">
+      <c r="H41" s="175" t="s">
         <v>453</v>
       </c>
-      <c r="D41" s="174" t="s">
+      <c r="I41" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="E41" s="186" t="s">
+      <c r="J41" s="41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="214"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="185"/>
+      <c r="E42" s="195"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="F41" s="193" t="s">
+      <c r="J42" s="41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="214"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="G41" s="43" t="s">
+      <c r="E43" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="H41" s="207" t="s">
+      <c r="F43" s="45" t="s">
         <v>458</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="151"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="208"/>
-      <c r="I42" s="41" t="s">
-        <v>460</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="151"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="45" t="s">
-        <v>461</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>462</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>463</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="214"/>
+      <c r="C44" s="204"/>
+      <c r="D44" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="H44" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I44" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="J43" s="45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="151"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="41" t="s">
+      <c r="J44" s="45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="215" t="s">
         <v>466</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="C45" s="205" t="s">
         <v>467</v>
       </c>
-      <c r="F44" s="42" t="s">
+      <c r="D45" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="E45" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="F45" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="I44" s="41" t="s">
+      <c r="G45" s="51" t="s">
         <v>471</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="152" t="s">
+      <c r="H45" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="C45" s="163" t="s">
+      <c r="I45" s="49" t="s">
         <v>473</v>
       </c>
-      <c r="D45" s="49" t="s">
+      <c r="J45" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="215"/>
+      <c r="C46" s="206"/>
+      <c r="D46" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E46" s="50" t="s">
         <v>475</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F46" s="49" t="s">
         <v>476</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>478</v>
-      </c>
-      <c r="I45" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="J45" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="152"/>
-      <c r="C46" s="164"/>
-      <c r="D46" s="49" t="s">
-        <v>480</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>482</v>
       </c>
       <c r="G46" s="51"/>
       <c r="H46" s="49" t="s">
+        <v>477</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="215"/>
+      <c r="C47" s="206"/>
+      <c r="D47" s="186" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="196" t="s">
+        <v>469</v>
+      </c>
+      <c r="F47" s="156" t="s">
+        <v>479</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="H47" s="177" t="s">
+        <v>481</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="215"/>
+      <c r="C48" s="207"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="I46" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="J46" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="152"/>
-      <c r="C47" s="164"/>
-      <c r="D47" s="175" t="s">
+      <c r="H48" s="178"/>
+      <c r="I48" s="49" t="s">
         <v>484</v>
       </c>
-      <c r="E47" s="188" t="s">
-        <v>475</v>
-      </c>
-      <c r="F47" s="194" t="s">
+      <c r="J48" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="216" t="s">
         <v>485</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="C49" s="208" t="s">
         <v>486</v>
       </c>
-      <c r="H47" s="209" t="s">
+      <c r="D49" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="I47" s="49" t="s">
+      <c r="E49" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F49" s="54" t="s">
         <v>488</v>
       </c>
-      <c r="J47" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="152"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="194"/>
-      <c r="G48" s="53" t="s">
+      <c r="G49" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="H48" s="210"/>
-      <c r="I48" s="49" t="s">
+      <c r="H49" s="54" t="s">
         <v>490</v>
       </c>
-      <c r="J48" s="49" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="153" t="s">
+      <c r="I49" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="C49" s="166" t="s">
+      <c r="J49" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="216"/>
+      <c r="C50" s="209"/>
+      <c r="D50" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="E50" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F50" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="E49" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F49" s="54" t="s">
+      <c r="G50" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="G49" s="56" t="s">
+      <c r="H50" s="54" t="s">
         <v>495</v>
       </c>
-      <c r="H49" s="54" t="s">
+      <c r="I50" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="I49" s="54" t="s">
+      <c r="J50" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="216"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="J49" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="153"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="54" t="s">
+      <c r="E51" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F51" s="54" t="s">
         <v>498</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>500</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="153"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>504</v>
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="J51" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="216"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="G52" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="216"/>
+      <c r="C53" s="210"/>
+      <c r="D53" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="G53" s="56" t="s">
         <v>505</v>
       </c>
-      <c r="I51" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="J51" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="153"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="54" t="s">
-        <v>506</v>
-      </c>
-      <c r="E52" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F52" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="G52" s="56" t="s">
-        <v>500</v>
-      </c>
-      <c r="H52" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="I52" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="J52" s="54" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="153"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="F53" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>511</v>
-      </c>
       <c r="H53" s="54" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I53" s="54" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J53" s="54" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F47:F48"/>
@@ -8900,50 +9040,6 @@
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H47:H48"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="575">
   <si>
     <t>主题域</t>
   </si>
@@ -846,9 +846,6 @@
     <t>交割仓库</t>
   </si>
   <si>
-    <t>风控报告</t>
-  </si>
-  <si>
     <t>风控周报</t>
   </si>
   <si>
@@ -867,21 +864,6 @@
     <t>本月新增交易市场数</t>
   </si>
   <si>
-    <t>沉淀资金</t>
-  </si>
-  <si>
-    <t>累计交易额</t>
-  </si>
-  <si>
-    <t>累计用户数</t>
-  </si>
-  <si>
-    <t>累计交易商品种类数</t>
-  </si>
-  <si>
-    <t>本月最新上线产品种类数</t>
-  </si>
-  <si>
     <t>清算所排除风险事件数</t>
   </si>
   <si>
@@ -897,25 +879,13 @@
     <t>交易市场数</t>
   </si>
   <si>
-    <t>累计交易市场数</t>
-  </si>
-  <si>
     <t>交易市场数环比</t>
   </si>
   <si>
     <t>累计沉淀资金</t>
   </si>
   <si>
-    <t>沉淀资金环比</t>
-  </si>
-  <si>
-    <t>交易额环比</t>
-  </si>
-  <si>
     <t>用户数</t>
-  </si>
-  <si>
-    <t>是融资人吗？</t>
   </si>
   <si>
     <t>用户数环比</t>
@@ -1868,6 +1838,54 @@
       </rPr>
       <t>投资人总持仓金额排名，显示前三账户信息及近期交易流水</t>
     </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资规模</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计发行产品数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计投资人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计融资人</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计接入的交易市场数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资规模环比</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品发行数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品发行数量环比</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计产品发行数量</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资规模是否是指累计融资额？？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>是融资人吗？是否统计？</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管报告</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2487,324 +2505,325 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3262,11 +3281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:K293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I133" sqref="I133"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H275" sqref="H275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3320,13 +3339,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="122" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="63"/>
@@ -3341,9 +3360,9 @@
       <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="63"/>
       <c r="E3" s="63"/>
       <c r="F3" s="63" t="s">
@@ -3358,9 +3377,9 @@
       <c r="K3" s="63"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
       <c r="F4" s="63" t="s">
@@ -3370,16 +3389,16 @@
         <v>17</v>
       </c>
       <c r="H4" s="73" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="144"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
       <c r="F5" s="63" t="s">
@@ -3389,16 +3408,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="73" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
       <c r="F6" s="63" t="s">
@@ -3408,16 +3427,16 @@
         <v>17</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="145"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
       <c r="D7" s="63"/>
       <c r="E7" s="63"/>
       <c r="F7" s="63" t="s">
@@ -3432,9 +3451,9 @@
       <c r="K7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="143" t="s">
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="122" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="63"/>
@@ -3444,16 +3463,16 @@
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="73" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63"/>
       <c r="K8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="63"/>
       <c r="E9" s="63"/>
       <c r="F9" s="63" t="s">
@@ -3461,33 +3480,33 @@
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="73" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I9" s="63"/>
       <c r="J9" s="63"/>
       <c r="K9" s="63"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="144"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
       <c r="F10" s="103" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="73" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="I10" s="63"/>
       <c r="J10" s="63"/>
       <c r="K10" s="63"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="144"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="104" t="s">
@@ -3500,9 +3519,9 @@
       <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="144"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="104" t="s">
@@ -3515,9 +3534,9 @@
       <c r="K12" s="63"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="104" t="s">
@@ -3530,9 +3549,9 @@
       <c r="K13" s="63"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="144"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="104" t="s">
@@ -3545,9 +3564,9 @@
       <c r="K14" s="63"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="144"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="104" t="s">
@@ -3560,9 +3579,9 @@
       <c r="K15" s="63"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="144"/>
-      <c r="B16" s="144"/>
-      <c r="C16" s="145"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="104" t="s">
@@ -3575,9 +3594,9 @@
       <c r="K16" s="63"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="143" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="122" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="63"/>
@@ -3592,9 +3611,9 @@
       <c r="K17" s="63"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="144"/>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="63" t="s">
@@ -3607,9 +3626,9 @@
       <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="144"/>
-      <c r="B19" s="144"/>
-      <c r="C19" s="145"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63" t="s">
@@ -3622,28 +3641,28 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
       <c r="C20" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="103" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G20" s="63"/>
       <c r="H20" s="105" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="63"/>
       <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="144"/>
-      <c r="B21" s="144"/>
-      <c r="C21" s="130" t="s">
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="63"/>
@@ -3658,9 +3677,9 @@
       <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="144"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="131"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63" t="s">
@@ -3673,9 +3692,9 @@
       <c r="K22" s="63"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="144"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="131"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63" t="s">
@@ -3688,9 +3707,9 @@
       <c r="K23" s="63"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="144"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="131"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63" t="s">
@@ -3703,9 +3722,9 @@
       <c r="K24" s="63"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="144"/>
-      <c r="B25" s="144"/>
-      <c r="C25" s="131"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63" t="s">
@@ -3718,9 +3737,9 @@
       <c r="K25" s="63"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="144"/>
-      <c r="B26" s="144"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63" t="s">
@@ -3733,9 +3752,9 @@
       <c r="K26" s="63"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="145"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="132"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="63" t="s">
@@ -3748,13 +3767,13 @@
       <c r="K27" s="63"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="130" t="s">
+      <c r="A28" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="130" t="s">
+      <c r="C28" s="119" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="63"/>
@@ -3764,18 +3783,18 @@
       </c>
       <c r="G28" s="63"/>
       <c r="H28" s="73" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="I28" s="63"/>
       <c r="J28" s="63"/>
       <c r="K28" s="103" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="132"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="65" t="s">
@@ -3788,28 +3807,28 @@
       <c r="K29" s="63"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="131"/>
-      <c r="B30" s="144"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="63" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="103" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G30" s="63"/>
       <c r="H30" s="73" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="131"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="130" t="s">
+      <c r="A31" s="121"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="119" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="63"/>
@@ -3822,13 +3841,13 @@
       <c r="I31" s="63"/>
       <c r="J31" s="63"/>
       <c r="K31" s="103" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="131"/>
-      <c r="B32" s="144"/>
-      <c r="C32" s="132"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="63" t="s">
@@ -3841,28 +3860,28 @@
       <c r="K32" s="63"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="131"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="103" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="103" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G33" s="63"/>
       <c r="H33" s="73" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I33" s="63"/>
       <c r="J33" s="63"/>
       <c r="K33" s="63"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="131"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="130" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="119" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="63"/>
@@ -3877,9 +3896,9 @@
       <c r="K34" s="63"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="132"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63" t="s">
@@ -3892,9 +3911,9 @@
       <c r="K35" s="63"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="130" t="s">
+      <c r="A36" s="121"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="119" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="63"/>
@@ -3909,9 +3928,9 @@
       <c r="K36" s="63"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="132"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="65" t="s">
@@ -3924,11 +3943,11 @@
       <c r="K37" s="63"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="130" t="s">
+      <c r="A38" s="121"/>
+      <c r="B38" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="119" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="63"/>
@@ -3943,9 +3962,9 @@
       <c r="K38" s="63"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="131"/>
-      <c r="B39" s="131"/>
-      <c r="C39" s="131"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="121"/>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="63" t="s">
@@ -3960,9 +3979,9 @@
       <c r="K39" s="63"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
-      <c r="B40" s="131"/>
-      <c r="C40" s="132"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="63" t="s">
@@ -3977,9 +3996,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="131"/>
-      <c r="C41" s="130" t="s">
+      <c r="A41" s="121"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="119" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="63"/>
@@ -3994,9 +4013,9 @@
       <c r="K41" s="63"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="131"/>
-      <c r="B42" s="131"/>
-      <c r="C42" s="131"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="63" t="s">
@@ -4009,9 +4028,9 @@
       <c r="K42" s="63"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="131"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
+      <c r="A43" s="121"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="63" t="s">
@@ -4024,9 +4043,9 @@
       <c r="K43" s="63"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="131"/>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="A44" s="121"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="63" t="s">
@@ -4039,9 +4058,9 @@
       <c r="K44" s="63"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="131"/>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
+      <c r="A45" s="121"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="121"/>
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="63" t="s">
@@ -4054,9 +4073,9 @@
       <c r="K45" s="63"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="131"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
+      <c r="A46" s="121"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="63" t="s">
@@ -4069,9 +4088,9 @@
       <c r="K46" s="63"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="131"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="63" t="s">
@@ -4084,11 +4103,11 @@
       <c r="K47" s="63"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="131"/>
-      <c r="B48" s="130" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="116" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="63"/>
@@ -4101,9 +4120,9 @@
       <c r="K48" s="63"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="131"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="134"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="117"/>
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="66" t="s">
@@ -4120,9 +4139,9 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="131"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="134"/>
+      <c r="A50" s="121"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="117"/>
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="69" t="s">
@@ -4139,9 +4158,9 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="135"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="118"/>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="69" t="s">
@@ -4158,9 +4177,9 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="131"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="133" t="s">
+      <c r="A52" s="121"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="116" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="63"/>
@@ -4177,9 +4196,9 @@
       <c r="K52" s="63"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="134"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="66" t="s">
@@ -4194,9 +4213,9 @@
       <c r="K53" s="63"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="131"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="134"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="117"/>
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="69" t="s">
@@ -4211,9 +4230,9 @@
       <c r="K54" s="63"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="135"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="118"/>
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="69" t="s">
@@ -4230,8 +4249,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="132"/>
-      <c r="B56" s="132"/>
+      <c r="A56" s="120"/>
+      <c r="B56" s="120"/>
       <c r="C56" s="66" t="s">
         <v>81</v>
       </c>
@@ -4251,13 +4270,13 @@
       <c r="K56" s="63"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="133" t="s">
+      <c r="B57" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="133" t="s">
+      <c r="C57" s="116" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="63"/>
@@ -4274,9 +4293,9 @@
       <c r="K57" s="63"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="134"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="134"/>
+      <c r="A58" s="117"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="63" t="s">
@@ -4289,9 +4308,9 @@
       <c r="K58" s="63"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="134"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="63" t="s">
@@ -4304,9 +4323,9 @@
       <c r="K59" s="63"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="134"/>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
+      <c r="A60" s="117"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="63" t="s">
@@ -4319,9 +4338,9 @@
       <c r="K60" s="63"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="134"/>
-      <c r="B61" s="134"/>
-      <c r="C61" s="135"/>
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="63" t="s">
@@ -4334,10 +4353,10 @@
       <c r="K61" s="63"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="134"/>
-      <c r="B62" s="134"/>
-      <c r="C62" s="148" t="s">
-        <v>523</v>
+      <c r="A62" s="117"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="133" t="s">
+        <v>513</v>
       </c>
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
@@ -4351,77 +4370,77 @@
       <c r="K62" s="63"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="134"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="149"/>
+      <c r="A63" s="117"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="134"/>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="103" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G63" s="63"/>
       <c r="H63" s="73" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="I63" s="63"/>
       <c r="J63" s="63"/>
       <c r="K63" s="63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="134"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="149"/>
+      <c r="A64" s="117"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="134"/>
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="103" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G64" s="63"/>
       <c r="H64" s="106" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="I64" s="63"/>
       <c r="J64" s="63"/>
       <c r="K64" s="63"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="134"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="149"/>
+      <c r="A65" s="117"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="134"/>
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="103" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G65" s="63"/>
       <c r="H65" s="106" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I65" s="63"/>
       <c r="J65" s="63"/>
       <c r="K65" s="63"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="134"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="150"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="135"/>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="103" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G66" s="63"/>
       <c r="H66" s="106" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="I66" s="63"/>
       <c r="J66" s="63"/>
       <c r="K66" s="63"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="134"/>
-      <c r="B67" s="134"/>
-      <c r="C67" s="130" t="s">
+      <c r="A67" s="117"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="119" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="63"/>
@@ -4438,9 +4457,9 @@
       <c r="K67" s="63"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="134"/>
-      <c r="B68" s="134"/>
-      <c r="C68" s="132"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="120"/>
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="63" t="s">
@@ -4453,9 +4472,9 @@
       <c r="K68" s="63"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="134"/>
-      <c r="B69" s="134"/>
-      <c r="C69" s="133" t="s">
+      <c r="A69" s="117"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="116" t="s">
         <v>98</v>
       </c>
       <c r="D69" s="63"/>
@@ -4470,9 +4489,9 @@
       <c r="K69" s="63"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="134"/>
-      <c r="B70" s="134"/>
-      <c r="C70" s="135"/>
+      <c r="A70" s="117"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="118"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="65" t="s">
@@ -4487,9 +4506,9 @@
       <c r="K70" s="63"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="134"/>
-      <c r="B71" s="134"/>
-      <c r="C71" s="133" t="s">
+      <c r="A71" s="117"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="116" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="63"/>
@@ -4504,9 +4523,9 @@
       <c r="K71" s="63"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="134"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="135"/>
+      <c r="A72" s="117"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="118"/>
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="63" t="s">
@@ -4519,9 +4538,9 @@
       <c r="K72" s="63"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="134"/>
-      <c r="B73" s="134"/>
-      <c r="C73" s="133" t="s">
+      <c r="A73" s="117"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="116" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="63"/>
@@ -4536,9 +4555,9 @@
       <c r="K73" s="63"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="134"/>
-      <c r="B74" s="134"/>
-      <c r="C74" s="135"/>
+      <c r="A74" s="117"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="118"/>
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="63" t="s">
@@ -4551,9 +4570,9 @@
       <c r="K74" s="63"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="134"/>
-      <c r="B75" s="134"/>
-      <c r="C75" s="130" t="s">
+      <c r="A75" s="117"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="119" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="63"/>
@@ -4568,9 +4587,9 @@
       <c r="K75" s="63"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="134"/>
-      <c r="B76" s="134"/>
-      <c r="C76" s="132"/>
+      <c r="A76" s="117"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="120"/>
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="63" t="s">
@@ -4583,8 +4602,8 @@
       <c r="K76" s="63"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="134"/>
-      <c r="B77" s="134"/>
+      <c r="A77" s="117"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="63" t="s">
         <v>76</v>
       </c>
@@ -4600,15 +4619,15 @@
       <c r="K77" s="63"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="134"/>
-      <c r="B78" s="134"/>
-      <c r="C78" s="140" t="s">
-        <v>533</v>
+      <c r="A78" s="117"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="136" t="s">
+        <v>523</v>
       </c>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="103" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G78" s="63"/>
       <c r="H78" s="64"/>
@@ -4617,26 +4636,26 @@
       <c r="K78" s="63"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="134"/>
-      <c r="B79" s="134"/>
-      <c r="C79" s="132"/>
+      <c r="A79" s="117"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="120"/>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="103" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="G79" s="63"/>
       <c r="H79" s="73" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="I79" s="63"/>
       <c r="J79" s="63"/>
       <c r="K79" s="63"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="134"/>
-      <c r="B80" s="134"/>
-      <c r="C80" s="130" t="s">
+      <c r="A80" s="117"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="119" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="63"/>
@@ -4651,9 +4670,9 @@
       <c r="K80" s="63"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="134"/>
-      <c r="B81" s="134"/>
-      <c r="C81" s="132"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="120"/>
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="63" t="s">
@@ -4666,10 +4685,10 @@
       <c r="K81" s="63"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="134"/>
-      <c r="B82" s="134"/>
-      <c r="C82" s="141" t="s">
-        <v>532</v>
+      <c r="A82" s="117"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="137" t="s">
+        <v>522</v>
       </c>
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
@@ -4683,9 +4702,9 @@
       <c r="K82" s="63"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="134"/>
-      <c r="B83" s="135"/>
-      <c r="C83" s="142"/>
+      <c r="A83" s="117"/>
+      <c r="B83" s="118"/>
+      <c r="C83" s="138"/>
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="63" t="s">
@@ -4698,11 +4717,11 @@
       <c r="K83" s="63"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="134"/>
-      <c r="B84" s="133" t="s">
+      <c r="A84" s="117"/>
+      <c r="B84" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="130" t="s">
+      <c r="C84" s="119" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="63"/>
@@ -4717,9 +4736,9 @@
       <c r="K84" s="63"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="134"/>
-      <c r="B85" s="134"/>
-      <c r="C85" s="131"/>
+      <c r="A85" s="117"/>
+      <c r="B85" s="117"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="63" t="s">
@@ -4732,13 +4751,13 @@
       <c r="I85" s="63"/>
       <c r="J85" s="63"/>
       <c r="K85" s="103" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="134"/>
-      <c r="B86" s="134"/>
-      <c r="C86" s="132"/>
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="120"/>
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="109" t="s">
@@ -4746,18 +4765,18 @@
       </c>
       <c r="G86" s="63"/>
       <c r="H86" s="108" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="I86" s="63"/>
       <c r="J86" s="63"/>
       <c r="K86" s="103" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="134"/>
-      <c r="B87" s="134"/>
-      <c r="C87" s="133" t="s">
+      <c r="A87" s="117"/>
+      <c r="B87" s="117"/>
+      <c r="C87" s="116" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="63"/>
@@ -4772,9 +4791,9 @@
       <c r="K87" s="63"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="134"/>
-      <c r="B88" s="134"/>
-      <c r="C88" s="134"/>
+      <c r="A88" s="117"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="63" t="s">
@@ -4787,9 +4806,9 @@
       <c r="K88" s="63"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="134"/>
-      <c r="B89" s="134"/>
-      <c r="C89" s="134"/>
+      <c r="A89" s="117"/>
+      <c r="B89" s="117"/>
+      <c r="C89" s="117"/>
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="110" t="s">
@@ -4802,9 +4821,9 @@
       <c r="K89" s="63"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="134"/>
-      <c r="B90" s="134"/>
-      <c r="C90" s="135"/>
+      <c r="A90" s="117"/>
+      <c r="B90" s="117"/>
+      <c r="C90" s="118"/>
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="63" t="s">
@@ -4812,18 +4831,18 @@
       </c>
       <c r="G90" s="63"/>
       <c r="H90" s="73" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="I90" s="103" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J90" s="63"/>
       <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="134"/>
-      <c r="B91" s="134"/>
-      <c r="C91" s="133" t="s">
+      <c r="A91" s="117"/>
+      <c r="B91" s="117"/>
+      <c r="C91" s="116" t="s">
         <v>118</v>
       </c>
       <c r="D91" s="63"/>
@@ -4838,9 +4857,9 @@
       <c r="K91" s="63"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="134"/>
-      <c r="B92" s="134"/>
-      <c r="C92" s="134"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="63" t="s">
@@ -4853,9 +4872,9 @@
       <c r="K92" s="63"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="134"/>
-      <c r="B93" s="134"/>
-      <c r="C93" s="134"/>
+      <c r="A93" s="117"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="110" t="s">
@@ -4868,9 +4887,9 @@
       <c r="K93" s="63"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="134"/>
-      <c r="B94" s="134"/>
-      <c r="C94" s="135"/>
+      <c r="A94" s="117"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="118"/>
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="63" t="s">
@@ -4878,17 +4897,17 @@
       </c>
       <c r="G94" s="63"/>
       <c r="H94" s="73" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="I94" s="63"/>
       <c r="J94" s="63"/>
       <c r="K94" s="63"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="134"/>
-      <c r="B95" s="134"/>
-      <c r="C95" s="137" t="s">
-        <v>544</v>
+      <c r="A95" s="117"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="139" t="s">
+        <v>534</v>
       </c>
       <c r="D95" s="63"/>
       <c r="E95" s="63"/>
@@ -4897,18 +4916,18 @@
       </c>
       <c r="G95" s="63"/>
       <c r="H95" s="73" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="I95" s="63"/>
       <c r="J95" s="63"/>
       <c r="K95" s="103" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="134"/>
-      <c r="B96" s="134"/>
-      <c r="C96" s="138"/>
+      <c r="A96" s="117"/>
+      <c r="B96" s="117"/>
+      <c r="C96" s="140"/>
       <c r="D96" s="63"/>
       <c r="E96" s="63"/>
       <c r="F96" s="63" t="s">
@@ -4921,9 +4940,9 @@
       <c r="K96" s="63"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="134"/>
-      <c r="B97" s="134"/>
-      <c r="C97" s="138"/>
+      <c r="A97" s="117"/>
+      <c r="B97" s="117"/>
+      <c r="C97" s="140"/>
       <c r="D97" s="63"/>
       <c r="E97" s="63"/>
       <c r="F97" s="63" t="s">
@@ -4936,9 +4955,9 @@
       <c r="K97" s="63"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="134"/>
-      <c r="B98" s="134"/>
-      <c r="C98" s="138"/>
+      <c r="A98" s="117"/>
+      <c r="B98" s="117"/>
+      <c r="C98" s="140"/>
       <c r="D98" s="63"/>
       <c r="E98" s="63"/>
       <c r="F98" s="63" t="s">
@@ -4951,9 +4970,9 @@
       <c r="K98" s="63"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="134"/>
-      <c r="B99" s="134"/>
-      <c r="C99" s="138"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="140"/>
       <c r="D99" s="63"/>
       <c r="E99" s="63"/>
       <c r="F99" s="63" t="s">
@@ -4966,9 +4985,9 @@
       <c r="K99" s="63"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="134"/>
-      <c r="B100" s="134"/>
-      <c r="C100" s="138"/>
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="140"/>
       <c r="D100" s="63"/>
       <c r="E100" s="63"/>
       <c r="F100" s="63" t="s">
@@ -4981,9 +5000,9 @@
       <c r="K100" s="63"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="134"/>
-      <c r="B101" s="134"/>
-      <c r="C101" s="138"/>
+      <c r="A101" s="117"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="140"/>
       <c r="D101" s="63"/>
       <c r="E101" s="63"/>
       <c r="F101" s="63" t="s">
@@ -4996,9 +5015,9 @@
       <c r="K101" s="63"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="134"/>
-      <c r="B102" s="134"/>
-      <c r="C102" s="139"/>
+      <c r="A102" s="117"/>
+      <c r="B102" s="117"/>
+      <c r="C102" s="141"/>
       <c r="D102" s="63"/>
       <c r="E102" s="63"/>
       <c r="F102" s="63" t="s">
@@ -5011,8 +5030,8 @@
       <c r="K102" s="63"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="134"/>
-      <c r="B103" s="134"/>
+      <c r="A103" s="117"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="63" t="s">
         <v>130</v>
       </c>
@@ -5028,9 +5047,9 @@
       <c r="K103" s="63"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="134"/>
-      <c r="B104" s="134"/>
-      <c r="C104" s="133" t="s">
+      <c r="A104" s="117"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="116" t="s">
         <v>132</v>
       </c>
       <c r="D104" s="63"/>
@@ -5040,16 +5059,16 @@
       </c>
       <c r="G104" s="63"/>
       <c r="H104" s="105" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="I104" s="63"/>
       <c r="J104" s="63"/>
       <c r="K104" s="63"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="134"/>
-      <c r="B105" s="134"/>
-      <c r="C105" s="134"/>
+      <c r="A105" s="117"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
       <c r="D105" s="63"/>
       <c r="E105" s="63"/>
       <c r="F105" s="65" t="s">
@@ -5057,7 +5076,7 @@
       </c>
       <c r="G105" s="63"/>
       <c r="H105" s="105" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="I105" s="63"/>
       <c r="J105" s="63"/>
@@ -5066,9 +5085,9 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="134"/>
-      <c r="B106" s="134"/>
-      <c r="C106" s="135"/>
+      <c r="A106" s="117"/>
+      <c r="B106" s="117"/>
+      <c r="C106" s="118"/>
       <c r="D106" s="63"/>
       <c r="E106" s="63"/>
       <c r="F106" s="63" t="s">
@@ -5081,9 +5100,9 @@
       <c r="K106" s="63"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="134"/>
-      <c r="B107" s="134"/>
-      <c r="C107" s="133" t="s">
+      <c r="A107" s="117"/>
+      <c r="B107" s="117"/>
+      <c r="C107" s="116" t="s">
         <v>137</v>
       </c>
       <c r="D107" s="63"/>
@@ -5098,9 +5117,9 @@
       <c r="K107" s="63"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="134"/>
-      <c r="B108" s="134"/>
-      <c r="C108" s="134"/>
+      <c r="A108" s="117"/>
+      <c r="B108" s="117"/>
+      <c r="C108" s="117"/>
       <c r="D108" s="63"/>
       <c r="E108" s="63"/>
       <c r="F108" s="63" t="s">
@@ -5108,16 +5127,16 @@
       </c>
       <c r="G108" s="63"/>
       <c r="H108" s="106" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="I108" s="63"/>
       <c r="J108" s="63"/>
       <c r="K108" s="63"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="134"/>
-      <c r="B109" s="134"/>
-      <c r="C109" s="135"/>
+      <c r="A109" s="117"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="118"/>
       <c r="D109" s="63"/>
       <c r="E109" s="63"/>
       <c r="F109" s="63" t="s">
@@ -5130,9 +5149,9 @@
       <c r="K109" s="63"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="134"/>
-      <c r="B110" s="134"/>
-      <c r="C110" s="133" t="s">
+      <c r="A110" s="117"/>
+      <c r="B110" s="117"/>
+      <c r="C110" s="116" t="s">
         <v>140</v>
       </c>
       <c r="D110" s="63"/>
@@ -5147,9 +5166,9 @@
       <c r="K110" s="63"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="134"/>
-      <c r="B111" s="134"/>
-      <c r="C111" s="134"/>
+      <c r="A111" s="117"/>
+      <c r="B111" s="117"/>
+      <c r="C111" s="117"/>
       <c r="D111" s="63"/>
       <c r="E111" s="63"/>
       <c r="F111" s="63" t="s">
@@ -5157,16 +5176,16 @@
       </c>
       <c r="G111" s="63"/>
       <c r="H111" s="64" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="I111" s="63"/>
       <c r="J111" s="63"/>
       <c r="K111" s="63"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="134"/>
-      <c r="B112" s="134"/>
-      <c r="C112" s="135"/>
+      <c r="A112" s="117"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="118"/>
       <c r="D112" s="63"/>
       <c r="E112" s="63"/>
       <c r="F112" s="63" t="s">
@@ -5179,8 +5198,8 @@
       <c r="K112" s="63"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="134"/>
-      <c r="B113" s="135"/>
+      <c r="A113" s="117"/>
+      <c r="B113" s="118"/>
       <c r="C113" s="72" t="s">
         <v>142</v>
       </c>
@@ -5191,19 +5210,19 @@
       </c>
       <c r="G113" s="63"/>
       <c r="H113" s="73" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="I113" s="63"/>
       <c r="J113" s="63"/>
       <c r="K113" s="63"/>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="134"/>
-      <c r="B114" s="133" t="s">
+      <c r="A114" s="117"/>
+      <c r="B114" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="136" t="s">
-        <v>553</v>
+      <c r="C114" s="142" t="s">
+        <v>543</v>
       </c>
       <c r="D114" s="63"/>
       <c r="E114" s="63"/>
@@ -5212,7 +5231,7 @@
       </c>
       <c r="G114" s="63"/>
       <c r="H114" s="111" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="I114" s="63"/>
       <c r="J114" s="63"/>
@@ -5221,9 +5240,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="134"/>
-      <c r="B115" s="134"/>
-      <c r="C115" s="135"/>
+      <c r="A115" s="117"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="118"/>
       <c r="D115" s="63"/>
       <c r="E115" s="63"/>
       <c r="F115" s="63" t="s">
@@ -5231,15 +5250,15 @@
       </c>
       <c r="G115" s="63"/>
       <c r="H115" s="73" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="I115" s="63"/>
       <c r="J115" s="63"/>
       <c r="K115" s="63"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="134"/>
-      <c r="B116" s="134"/>
+      <c r="A116" s="117"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="63" t="s">
         <v>147</v>
       </c>
@@ -5257,8 +5276,8 @@
       <c r="K116" s="63"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="134"/>
-      <c r="B117" s="134"/>
+      <c r="A117" s="117"/>
+      <c r="B117" s="117"/>
       <c r="C117" s="63" t="s">
         <v>150</v>
       </c>
@@ -5276,8 +5295,8 @@
       <c r="K117" s="63"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="134"/>
-      <c r="B118" s="134"/>
+      <c r="A118" s="117"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="63" t="s">
         <v>152</v>
       </c>
@@ -5288,19 +5307,19 @@
       </c>
       <c r="G118" s="63"/>
       <c r="H118" s="73" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="I118" s="103" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="J118" s="63"/>
       <c r="K118" s="103" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="134"/>
-      <c r="B119" s="134"/>
+      <c r="A119" s="117"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="63" t="s">
         <v>153</v>
       </c>
@@ -5311,30 +5330,30 @@
       </c>
       <c r="G119" s="63"/>
       <c r="H119" s="73" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I119" s="108" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="J119" s="63"/>
       <c r="K119" s="103" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="134"/>
-      <c r="B120" s="134"/>
-      <c r="C120" s="133" t="s">
+      <c r="A120" s="117"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="116" t="s">
         <v>154</v>
       </c>
       <c r="D120" s="63"/>
       <c r="E120" s="63"/>
-      <c r="F120" s="217" t="s">
-        <v>560</v>
+      <c r="F120" s="113" t="s">
+        <v>550</v>
       </c>
       <c r="G120" s="63"/>
       <c r="H120" s="73" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="I120" s="63"/>
       <c r="J120" s="63"/>
@@ -5343,60 +5362,60 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="134"/>
-      <c r="B121" s="134"/>
-      <c r="C121" s="134"/>
+      <c r="A121" s="117"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="117"/>
       <c r="D121" s="63"/>
       <c r="E121" s="63"/>
-      <c r="F121" s="218" t="s">
-        <v>561</v>
+      <c r="F121" s="114" t="s">
+        <v>551</v>
       </c>
       <c r="G121" s="65"/>
       <c r="H121" s="106" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="I121" s="63"/>
       <c r="J121" s="63"/>
       <c r="K121" s="65"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="134"/>
-      <c r="B122" s="134"/>
-      <c r="C122" s="134"/>
+      <c r="A122" s="117"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="117"/>
       <c r="D122" s="63"/>
       <c r="E122" s="63"/>
-      <c r="F122" s="218" t="s">
-        <v>562</v>
+      <c r="F122" s="114" t="s">
+        <v>552</v>
       </c>
       <c r="G122" s="63"/>
       <c r="H122" s="64"/>
       <c r="I122" s="63"/>
       <c r="J122" s="63"/>
-      <c r="K122" s="218" t="s">
-        <v>566</v>
+      <c r="K122" s="114" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="134"/>
-      <c r="B123" s="134"/>
-      <c r="C123" s="134"/>
+      <c r="A123" s="117"/>
+      <c r="B123" s="117"/>
+      <c r="C123" s="117"/>
       <c r="D123" s="63"/>
       <c r="E123" s="63"/>
-      <c r="F123" s="218" t="s">
-        <v>563</v>
+      <c r="F123" s="114" t="s">
+        <v>553</v>
       </c>
       <c r="G123" s="63"/>
       <c r="H123" s="64"/>
       <c r="I123" s="63"/>
       <c r="J123" s="63"/>
-      <c r="K123" s="218" t="s">
-        <v>566</v>
+      <c r="K123" s="114" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="134"/>
-      <c r="B124" s="134"/>
-      <c r="C124" s="135"/>
+      <c r="A124" s="117"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="118"/>
       <c r="D124" s="63"/>
       <c r="E124" s="63"/>
       <c r="F124" s="112" t="s">
@@ -5409,8 +5428,8 @@
       <c r="K124" s="63"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="134"/>
-      <c r="B125" s="134"/>
+      <c r="A125" s="117"/>
+      <c r="B125" s="117"/>
       <c r="C125" s="63" t="s">
         <v>130</v>
       </c>
@@ -5426,10 +5445,10 @@
       <c r="K125" s="63"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="134"/>
-      <c r="B126" s="134"/>
-      <c r="C126" s="137" t="s">
-        <v>569</v>
+      <c r="A126" s="117"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="139" t="s">
+        <v>559</v>
       </c>
       <c r="D126" s="63"/>
       <c r="E126" s="63"/>
@@ -5441,13 +5460,13 @@
       <c r="I126" s="63"/>
       <c r="J126" s="63"/>
       <c r="K126" s="103" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="134"/>
-      <c r="B127" s="134"/>
-      <c r="C127" s="138"/>
+      <c r="A127" s="117"/>
+      <c r="B127" s="117"/>
+      <c r="C127" s="140"/>
       <c r="D127" s="63"/>
       <c r="E127" s="63"/>
       <c r="F127" s="63" t="s">
@@ -5460,27 +5479,27 @@
       <c r="K127" s="63"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="134"/>
-      <c r="B128" s="134"/>
-      <c r="C128" s="139"/>
+      <c r="A128" s="117"/>
+      <c r="B128" s="117"/>
+      <c r="C128" s="141"/>
       <c r="D128" s="63"/>
       <c r="E128" s="63"/>
       <c r="F128" s="63" t="s">
         <v>159</v>
       </c>
       <c r="G128" s="63"/>
-      <c r="H128" s="219" t="s">
-        <v>568</v>
+      <c r="H128" s="115" t="s">
+        <v>558</v>
       </c>
       <c r="I128" s="63"/>
       <c r="J128" s="63"/>
       <c r="K128" s="63"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="134"/>
-      <c r="B129" s="134"/>
-      <c r="C129" s="137" t="s">
-        <v>570</v>
+      <c r="A129" s="117"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="139" t="s">
+        <v>560</v>
       </c>
       <c r="D129" s="63"/>
       <c r="E129" s="63"/>
@@ -5494,9 +5513,9 @@
       <c r="K129" s="63"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="134"/>
-      <c r="B130" s="134"/>
-      <c r="C130" s="138"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="117"/>
+      <c r="C130" s="140"/>
       <c r="D130" s="63"/>
       <c r="E130" s="63"/>
       <c r="F130" s="63" t="s">
@@ -5509,9 +5528,9 @@
       <c r="K130" s="63"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="134"/>
-      <c r="B131" s="134"/>
-      <c r="C131" s="139"/>
+      <c r="A131" s="117"/>
+      <c r="B131" s="117"/>
+      <c r="C131" s="141"/>
       <c r="D131" s="63"/>
       <c r="E131" s="63"/>
       <c r="F131" s="63" t="s">
@@ -5526,10 +5545,10 @@
       <c r="K131" s="63"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="134"/>
-      <c r="B132" s="134"/>
-      <c r="C132" s="148" t="s">
-        <v>572</v>
+      <c r="A132" s="117"/>
+      <c r="B132" s="117"/>
+      <c r="C132" s="133" t="s">
+        <v>562</v>
       </c>
       <c r="D132" s="63"/>
       <c r="E132" s="63"/>
@@ -5543,9 +5562,9 @@
       <c r="K132" s="63"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="134"/>
-      <c r="B133" s="134"/>
-      <c r="C133" s="149"/>
+      <c r="A133" s="117"/>
+      <c r="B133" s="117"/>
+      <c r="C133" s="134"/>
       <c r="D133" s="63"/>
       <c r="E133" s="63"/>
       <c r="F133" s="63" t="s">
@@ -5558,9 +5577,9 @@
       <c r="K133" s="63"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="134"/>
-      <c r="B134" s="134"/>
-      <c r="C134" s="220"/>
+      <c r="A134" s="117"/>
+      <c r="B134" s="117"/>
+      <c r="C134" s="143"/>
       <c r="D134" s="63"/>
       <c r="E134" s="63"/>
       <c r="F134" s="63" t="s">
@@ -5575,11 +5594,11 @@
       <c r="K134" s="63"/>
     </row>
     <row r="135" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="134"/>
-      <c r="B135" s="131" t="s">
+      <c r="A135" s="117"/>
+      <c r="B135" s="121" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="130" t="s">
+      <c r="C135" s="119" t="s">
         <v>165</v>
       </c>
       <c r="D135" s="63"/>
@@ -5594,9 +5613,9 @@
       <c r="K135" s="63"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="134"/>
-      <c r="B136" s="131"/>
-      <c r="C136" s="132"/>
+      <c r="A136" s="117"/>
+      <c r="B136" s="121"/>
+      <c r="C136" s="120"/>
       <c r="D136" s="63"/>
       <c r="E136" s="63"/>
       <c r="F136" s="65" t="s">
@@ -5609,8 +5628,8 @@
       <c r="K136" s="63"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="134"/>
-      <c r="B137" s="131"/>
+      <c r="A137" s="117"/>
+      <c r="B137" s="121"/>
       <c r="C137" s="63" t="s">
         <v>168</v>
       </c>
@@ -5628,8 +5647,8 @@
       <c r="K137" s="63"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="134"/>
-      <c r="B138" s="131"/>
+      <c r="A138" s="117"/>
+      <c r="B138" s="121"/>
       <c r="C138" s="63" t="s">
         <v>130</v>
       </c>
@@ -5645,8 +5664,8 @@
       <c r="K138" s="63"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="134"/>
-      <c r="B139" s="131"/>
+      <c r="A139" s="117"/>
+      <c r="B139" s="121"/>
       <c r="C139" s="63" t="s">
         <v>172</v>
       </c>
@@ -5664,8 +5683,8 @@
       <c r="K139" s="63"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="134"/>
-      <c r="B140" s="132"/>
+      <c r="A140" s="117"/>
+      <c r="B140" s="120"/>
       <c r="C140" s="63" t="s">
         <v>175</v>
       </c>
@@ -5679,11 +5698,11 @@
       <c r="K140" s="63"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="134"/>
-      <c r="B141" s="133" t="s">
+      <c r="A141" s="117"/>
+      <c r="B141" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="130" t="s">
+      <c r="C141" s="119" t="s">
         <v>177</v>
       </c>
       <c r="D141" s="63"/>
@@ -5698,9 +5717,9 @@
       <c r="K141" s="63"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="134"/>
-      <c r="B142" s="134"/>
-      <c r="C142" s="131"/>
+      <c r="A142" s="117"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="121"/>
       <c r="D142" s="63"/>
       <c r="E142" s="63"/>
       <c r="F142" s="63" t="s">
@@ -5713,9 +5732,9 @@
       <c r="K142" s="63"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="134"/>
-      <c r="B143" s="134"/>
-      <c r="C143" s="132"/>
+      <c r="A143" s="117"/>
+      <c r="B143" s="117"/>
+      <c r="C143" s="120"/>
       <c r="D143" s="63"/>
       <c r="E143" s="63"/>
       <c r="F143" s="63" t="s">
@@ -5728,8 +5747,8 @@
       <c r="K143" s="63"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="135"/>
-      <c r="B144" s="135"/>
+      <c r="A144" s="118"/>
+      <c r="B144" s="118"/>
       <c r="C144" s="63" t="s">
         <v>181</v>
       </c>
@@ -5745,16 +5764,16 @@
       <c r="K144" s="63"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="151" t="s">
+      <c r="A145" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="B145" s="146" t="s">
+      <c r="B145" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C145" s="127" t="s">
+      <c r="C145" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="D145" s="113" t="s">
+      <c r="D145" s="125" t="s">
         <v>185</v>
       </c>
       <c r="F145" s="66" t="s">
@@ -5768,10 +5787,10 @@
       <c r="K145" s="71"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="152"/>
-      <c r="B146" s="147"/>
-      <c r="C146" s="128"/>
-      <c r="D146" s="115"/>
+      <c r="A146" s="131"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="145"/>
+      <c r="D146" s="127"/>
       <c r="F146" s="66" t="s">
         <v>186</v>
       </c>
@@ -5783,9 +5802,9 @@
       <c r="K146" s="71"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="152"/>
-      <c r="B147" s="147"/>
-      <c r="C147" s="128"/>
+      <c r="A147" s="131"/>
+      <c r="B147" s="129"/>
+      <c r="C147" s="145"/>
       <c r="D147" s="75" t="s">
         <v>187</v>
       </c>
@@ -5798,10 +5817,10 @@
       <c r="K147" s="71"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="152"/>
-      <c r="B148" s="147"/>
-      <c r="C148" s="128"/>
-      <c r="D148" s="113" t="s">
+      <c r="A148" s="131"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="145"/>
+      <c r="D148" s="125" t="s">
         <v>189</v>
       </c>
       <c r="F148" s="66" t="s">
@@ -5813,10 +5832,10 @@
       <c r="K148" s="71"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="152"/>
-      <c r="B149" s="147"/>
-      <c r="C149" s="128"/>
-      <c r="D149" s="114"/>
+      <c r="A149" s="131"/>
+      <c r="B149" s="129"/>
+      <c r="C149" s="145"/>
+      <c r="D149" s="126"/>
       <c r="F149" s="66" t="s">
         <v>191</v>
       </c>
@@ -5826,10 +5845,10 @@
       <c r="K149" s="71"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="152"/>
-      <c r="B150" s="147"/>
-      <c r="C150" s="128"/>
-      <c r="D150" s="115"/>
+      <c r="A150" s="131"/>
+      <c r="B150" s="129"/>
+      <c r="C150" s="145"/>
+      <c r="D150" s="127"/>
       <c r="F150" s="66" t="s">
         <v>192</v>
       </c>
@@ -5839,10 +5858,10 @@
       <c r="K150" s="71"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="152"/>
-      <c r="B151" s="147"/>
-      <c r="C151" s="128"/>
-      <c r="D151" s="113" t="s">
+      <c r="A151" s="131"/>
+      <c r="B151" s="129"/>
+      <c r="C151" s="145"/>
+      <c r="D151" s="125" t="s">
         <v>193</v>
       </c>
       <c r="F151" s="66" t="s">
@@ -5856,10 +5875,10 @@
       <c r="K151" s="71"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="152"/>
-      <c r="B152" s="147"/>
-      <c r="C152" s="128"/>
-      <c r="D152" s="115"/>
+      <c r="A152" s="131"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="127"/>
       <c r="F152" s="66" t="s">
         <v>196</v>
       </c>
@@ -5869,10 +5888,10 @@
       <c r="K152" s="80"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="152"/>
-      <c r="B153" s="147"/>
-      <c r="C153" s="128"/>
-      <c r="D153" s="113" t="s">
+      <c r="A153" s="131"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="145"/>
+      <c r="D153" s="125" t="s">
         <v>197</v>
       </c>
       <c r="F153" s="66" t="s">
@@ -5884,10 +5903,10 @@
       <c r="K153" s="71"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="152"/>
-      <c r="B154" s="147"/>
-      <c r="C154" s="128"/>
-      <c r="D154" s="115"/>
+      <c r="A154" s="131"/>
+      <c r="B154" s="129"/>
+      <c r="C154" s="145"/>
+      <c r="D154" s="127"/>
       <c r="F154" s="66" t="s">
         <v>196</v>
       </c>
@@ -5899,10 +5918,10 @@
       <c r="K154" s="71"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="152"/>
-      <c r="B155" s="147"/>
-      <c r="C155" s="128"/>
-      <c r="D155" s="113" t="s">
+      <c r="A155" s="131"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="145"/>
+      <c r="D155" s="125" t="s">
         <v>200</v>
       </c>
       <c r="F155" s="66" t="s">
@@ -5914,10 +5933,10 @@
       <c r="K155" s="71"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="152"/>
-      <c r="B156" s="147"/>
-      <c r="C156" s="128"/>
-      <c r="D156" s="114"/>
+      <c r="A156" s="131"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="145"/>
+      <c r="D156" s="126"/>
       <c r="F156" s="66" t="s">
         <v>202</v>
       </c>
@@ -5927,10 +5946,10 @@
       <c r="K156" s="71"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="152"/>
-      <c r="B157" s="147"/>
-      <c r="C157" s="128"/>
-      <c r="D157" s="114"/>
+      <c r="A157" s="131"/>
+      <c r="B157" s="129"/>
+      <c r="C157" s="145"/>
+      <c r="D157" s="126"/>
       <c r="F157" s="66" t="s">
         <v>203</v>
       </c>
@@ -5940,10 +5959,10 @@
       <c r="K157" s="71"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="152"/>
-      <c r="B158" s="147"/>
-      <c r="C158" s="128"/>
-      <c r="D158" s="114"/>
+      <c r="A158" s="131"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="145"/>
+      <c r="D158" s="126"/>
       <c r="F158" s="66" t="s">
         <v>190</v>
       </c>
@@ -5953,10 +5972,10 @@
       <c r="K158" s="71"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="152"/>
-      <c r="B159" s="147"/>
-      <c r="C159" s="128"/>
-      <c r="D159" s="114"/>
+      <c r="A159" s="131"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="145"/>
+      <c r="D159" s="126"/>
       <c r="F159" s="66" t="s">
         <v>204</v>
       </c>
@@ -5966,10 +5985,10 @@
       <c r="K159" s="71"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="152"/>
-      <c r="B160" s="147"/>
-      <c r="C160" s="129"/>
-      <c r="D160" s="115"/>
+      <c r="A160" s="131"/>
+      <c r="B160" s="129"/>
+      <c r="C160" s="146"/>
+      <c r="D160" s="127"/>
       <c r="F160" s="66" t="s">
         <v>205</v>
       </c>
@@ -5979,12 +5998,12 @@
       <c r="K160" s="82"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="152"/>
-      <c r="B161" s="147"/>
-      <c r="C161" s="124" t="s">
+      <c r="A161" s="131"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="D161" s="113" t="s">
+      <c r="D161" s="125" t="s">
         <v>206</v>
       </c>
       <c r="F161" s="66" t="s">
@@ -5996,10 +6015,10 @@
       <c r="K161" s="71"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="152"/>
-      <c r="B162" s="147"/>
-      <c r="C162" s="125"/>
-      <c r="D162" s="114"/>
+      <c r="A162" s="131"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="156"/>
+      <c r="D162" s="126"/>
       <c r="F162" s="66" t="s">
         <v>207</v>
       </c>
@@ -6009,10 +6028,10 @@
       <c r="K162" s="71"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="152"/>
-      <c r="B163" s="147"/>
-      <c r="C163" s="125"/>
-      <c r="D163" s="114"/>
+      <c r="A163" s="131"/>
+      <c r="B163" s="129"/>
+      <c r="C163" s="156"/>
+      <c r="D163" s="126"/>
       <c r="F163" s="66" t="s">
         <v>208</v>
       </c>
@@ -6022,10 +6041,10 @@
       <c r="K163" s="71"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="152"/>
-      <c r="B164" s="147"/>
-      <c r="C164" s="125"/>
-      <c r="D164" s="114"/>
+      <c r="A164" s="131"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="156"/>
+      <c r="D164" s="126"/>
       <c r="F164" s="66" t="s">
         <v>209</v>
       </c>
@@ -6035,10 +6054,10 @@
       <c r="K164" s="71"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="152"/>
-      <c r="B165" s="147"/>
-      <c r="C165" s="125"/>
-      <c r="D165" s="114"/>
+      <c r="A165" s="131"/>
+      <c r="B165" s="129"/>
+      <c r="C165" s="156"/>
+      <c r="D165" s="126"/>
       <c r="F165" s="78" t="s">
         <v>210</v>
       </c>
@@ -6048,10 +6067,10 @@
       <c r="K165" s="71"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="152"/>
-      <c r="B166" s="147"/>
-      <c r="C166" s="125"/>
-      <c r="D166" s="114"/>
+      <c r="A166" s="131"/>
+      <c r="B166" s="129"/>
+      <c r="C166" s="156"/>
+      <c r="D166" s="126"/>
       <c r="F166" s="78" t="s">
         <v>211</v>
       </c>
@@ -6061,10 +6080,10 @@
       <c r="K166" s="71"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="152"/>
-      <c r="B167" s="147"/>
-      <c r="C167" s="125"/>
-      <c r="D167" s="114"/>
+      <c r="A167" s="131"/>
+      <c r="B167" s="129"/>
+      <c r="C167" s="156"/>
+      <c r="D167" s="126"/>
       <c r="F167" s="78" t="s">
         <v>212</v>
       </c>
@@ -6074,10 +6093,10 @@
       <c r="K167" s="71"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="152"/>
-      <c r="B168" s="147"/>
-      <c r="C168" s="125"/>
-      <c r="D168" s="114"/>
+      <c r="A168" s="131"/>
+      <c r="B168" s="129"/>
+      <c r="C168" s="156"/>
+      <c r="D168" s="126"/>
       <c r="F168" s="66" t="s">
         <v>213</v>
       </c>
@@ -6087,10 +6106,10 @@
       <c r="K168" s="71"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="152"/>
-      <c r="B169" s="147"/>
-      <c r="C169" s="125"/>
-      <c r="D169" s="114"/>
+      <c r="A169" s="131"/>
+      <c r="B169" s="129"/>
+      <c r="C169" s="156"/>
+      <c r="D169" s="126"/>
       <c r="F169" s="66" t="s">
         <v>214</v>
       </c>
@@ -6100,10 +6119,10 @@
       <c r="K169" s="71"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="152"/>
-      <c r="B170" s="147"/>
-      <c r="C170" s="125"/>
-      <c r="D170" s="114"/>
+      <c r="A170" s="131"/>
+      <c r="B170" s="129"/>
+      <c r="C170" s="156"/>
+      <c r="D170" s="126"/>
       <c r="F170" s="66" t="s">
         <v>215</v>
       </c>
@@ -6113,10 +6132,10 @@
       <c r="K170" s="71"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="152"/>
-      <c r="B171" s="147"/>
-      <c r="C171" s="125"/>
-      <c r="D171" s="114"/>
+      <c r="A171" s="131"/>
+      <c r="B171" s="129"/>
+      <c r="C171" s="156"/>
+      <c r="D171" s="126"/>
       <c r="F171" s="66" t="s">
         <v>216</v>
       </c>
@@ -6126,10 +6145,10 @@
       <c r="K171" s="71"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="152"/>
-      <c r="B172" s="147"/>
-      <c r="C172" s="125"/>
-      <c r="D172" s="114"/>
+      <c r="A172" s="131"/>
+      <c r="B172" s="129"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="126"/>
       <c r="F172" s="66" t="s">
         <v>217</v>
       </c>
@@ -6139,10 +6158,10 @@
       <c r="K172" s="71"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="152"/>
-      <c r="B173" s="147"/>
-      <c r="C173" s="125"/>
-      <c r="D173" s="114"/>
+      <c r="A173" s="131"/>
+      <c r="B173" s="129"/>
+      <c r="C173" s="156"/>
+      <c r="D173" s="126"/>
       <c r="F173" s="66" t="s">
         <v>218</v>
       </c>
@@ -6152,10 +6171,10 @@
       <c r="K173" s="71"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="152"/>
-      <c r="B174" s="147"/>
-      <c r="C174" s="125"/>
-      <c r="D174" s="114"/>
+      <c r="A174" s="131"/>
+      <c r="B174" s="129"/>
+      <c r="C174" s="156"/>
+      <c r="D174" s="126"/>
       <c r="F174" s="66" t="s">
         <v>219</v>
       </c>
@@ -6165,10 +6184,10 @@
       <c r="K174" s="71"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="152"/>
-      <c r="B175" s="147"/>
-      <c r="C175" s="125"/>
-      <c r="D175" s="114"/>
+      <c r="A175" s="131"/>
+      <c r="B175" s="129"/>
+      <c r="C175" s="156"/>
+      <c r="D175" s="126"/>
       <c r="F175" s="66" t="s">
         <v>220</v>
       </c>
@@ -6178,10 +6197,10 @@
       <c r="K175" s="71"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="152"/>
-      <c r="B176" s="147"/>
-      <c r="C176" s="125"/>
-      <c r="D176" s="114"/>
+      <c r="A176" s="131"/>
+      <c r="B176" s="129"/>
+      <c r="C176" s="156"/>
+      <c r="D176" s="126"/>
       <c r="F176" s="66" t="s">
         <v>221</v>
       </c>
@@ -6191,10 +6210,10 @@
       <c r="K176" s="71"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="152"/>
-      <c r="B177" s="147"/>
-      <c r="C177" s="125"/>
-      <c r="D177" s="114"/>
+      <c r="A177" s="131"/>
+      <c r="B177" s="129"/>
+      <c r="C177" s="156"/>
+      <c r="D177" s="126"/>
       <c r="F177" s="66" t="s">
         <v>222</v>
       </c>
@@ -6204,10 +6223,10 @@
       <c r="K177" s="71"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="152"/>
-      <c r="B178" s="147"/>
-      <c r="C178" s="125"/>
-      <c r="D178" s="114"/>
+      <c r="A178" s="131"/>
+      <c r="B178" s="129"/>
+      <c r="C178" s="156"/>
+      <c r="D178" s="126"/>
       <c r="F178" s="66" t="s">
         <v>223</v>
       </c>
@@ -6217,10 +6236,10 @@
       <c r="K178" s="71"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="152"/>
-      <c r="B179" s="147"/>
-      <c r="C179" s="125"/>
-      <c r="D179" s="114"/>
+      <c r="A179" s="131"/>
+      <c r="B179" s="129"/>
+      <c r="C179" s="156"/>
+      <c r="D179" s="126"/>
       <c r="F179" s="66" t="s">
         <v>224</v>
       </c>
@@ -6230,10 +6249,10 @@
       <c r="K179" s="71"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="152"/>
-      <c r="B180" s="147"/>
-      <c r="C180" s="125"/>
-      <c r="D180" s="114"/>
+      <c r="A180" s="131"/>
+      <c r="B180" s="129"/>
+      <c r="C180" s="156"/>
+      <c r="D180" s="126"/>
       <c r="F180" s="66" t="s">
         <v>225</v>
       </c>
@@ -6243,10 +6262,10 @@
       <c r="K180" s="71"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="152"/>
-      <c r="B181" s="147"/>
-      <c r="C181" s="125"/>
-      <c r="D181" s="114"/>
+      <c r="A181" s="131"/>
+      <c r="B181" s="129"/>
+      <c r="C181" s="156"/>
+      <c r="D181" s="126"/>
       <c r="F181" s="66" t="s">
         <v>226</v>
       </c>
@@ -6256,10 +6275,10 @@
       <c r="K181" s="71"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="152"/>
-      <c r="B182" s="147"/>
-      <c r="C182" s="125"/>
-      <c r="D182" s="114"/>
+      <c r="A182" s="131"/>
+      <c r="B182" s="129"/>
+      <c r="C182" s="156"/>
+      <c r="D182" s="126"/>
       <c r="F182" s="66" t="s">
         <v>227</v>
       </c>
@@ -6269,10 +6288,10 @@
       <c r="K182" s="71"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="152"/>
-      <c r="B183" s="147"/>
-      <c r="C183" s="125"/>
-      <c r="D183" s="114"/>
+      <c r="A183" s="131"/>
+      <c r="B183" s="129"/>
+      <c r="C183" s="156"/>
+      <c r="D183" s="126"/>
       <c r="F183" s="66" t="s">
         <v>228</v>
       </c>
@@ -6282,10 +6301,10 @@
       <c r="K183" s="71"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="152"/>
-      <c r="B184" s="147"/>
-      <c r="C184" s="125"/>
-      <c r="D184" s="114"/>
+      <c r="A184" s="131"/>
+      <c r="B184" s="129"/>
+      <c r="C184" s="156"/>
+      <c r="D184" s="126"/>
       <c r="F184" s="66" t="s">
         <v>229</v>
       </c>
@@ -6295,10 +6314,10 @@
       <c r="K184" s="71"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="152"/>
-      <c r="B185" s="147"/>
-      <c r="C185" s="125"/>
-      <c r="D185" s="114"/>
+      <c r="A185" s="131"/>
+      <c r="B185" s="129"/>
+      <c r="C185" s="156"/>
+      <c r="D185" s="126"/>
       <c r="F185" s="66" t="s">
         <v>230</v>
       </c>
@@ -6308,10 +6327,10 @@
       <c r="K185" s="71"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="152"/>
-      <c r="B186" s="147"/>
-      <c r="C186" s="125"/>
-      <c r="D186" s="114"/>
+      <c r="A186" s="131"/>
+      <c r="B186" s="129"/>
+      <c r="C186" s="156"/>
+      <c r="D186" s="126"/>
       <c r="F186" s="66" t="s">
         <v>231</v>
       </c>
@@ -6321,10 +6340,10 @@
       <c r="K186" s="71"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="152"/>
-      <c r="B187" s="147"/>
-      <c r="C187" s="125"/>
-      <c r="D187" s="114"/>
+      <c r="A187" s="131"/>
+      <c r="B187" s="129"/>
+      <c r="C187" s="156"/>
+      <c r="D187" s="126"/>
       <c r="F187" s="66" t="s">
         <v>232</v>
       </c>
@@ -6334,10 +6353,10 @@
       <c r="K187" s="71"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="152"/>
-      <c r="B188" s="147"/>
-      <c r="C188" s="125"/>
-      <c r="D188" s="114"/>
+      <c r="A188" s="131"/>
+      <c r="B188" s="129"/>
+      <c r="C188" s="156"/>
+      <c r="D188" s="126"/>
       <c r="F188" s="66" t="s">
         <v>233</v>
       </c>
@@ -6347,10 +6366,10 @@
       <c r="K188" s="71"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="152"/>
-      <c r="B189" s="147"/>
-      <c r="C189" s="125"/>
-      <c r="D189" s="114"/>
+      <c r="A189" s="131"/>
+      <c r="B189" s="129"/>
+      <c r="C189" s="156"/>
+      <c r="D189" s="126"/>
       <c r="F189" s="66" t="s">
         <v>234</v>
       </c>
@@ -6360,10 +6379,10 @@
       <c r="K189" s="71"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="152"/>
-      <c r="B190" s="147"/>
-      <c r="C190" s="125"/>
-      <c r="D190" s="114"/>
+      <c r="A190" s="131"/>
+      <c r="B190" s="129"/>
+      <c r="C190" s="156"/>
+      <c r="D190" s="126"/>
       <c r="F190" s="66" t="s">
         <v>235</v>
       </c>
@@ -6373,10 +6392,10 @@
       <c r="K190" s="71"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="152"/>
-      <c r="B191" s="147"/>
-      <c r="C191" s="126"/>
-      <c r="D191" s="115"/>
+      <c r="A191" s="131"/>
+      <c r="B191" s="129"/>
+      <c r="C191" s="157"/>
+      <c r="D191" s="127"/>
       <c r="F191" s="66" t="s">
         <v>236</v>
       </c>
@@ -6386,12 +6405,12 @@
       <c r="K191" s="71"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="152"/>
-      <c r="B192" s="147"/>
-      <c r="C192" s="124" t="s">
+      <c r="A192" s="131"/>
+      <c r="B192" s="129"/>
+      <c r="C192" s="155" t="s">
         <v>237</v>
       </c>
-      <c r="D192" s="113" t="s">
+      <c r="D192" s="125" t="s">
         <v>237</v>
       </c>
       <c r="F192" s="66" t="s">
@@ -6403,10 +6422,10 @@
       <c r="K192" s="71"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="152"/>
-      <c r="B193" s="147"/>
-      <c r="C193" s="125"/>
-      <c r="D193" s="114"/>
+      <c r="A193" s="131"/>
+      <c r="B193" s="129"/>
+      <c r="C193" s="156"/>
+      <c r="D193" s="126"/>
       <c r="F193" s="66" t="s">
         <v>66</v>
       </c>
@@ -6416,10 +6435,10 @@
       <c r="K193" s="71"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="152"/>
-      <c r="B194" s="147"/>
-      <c r="C194" s="125"/>
-      <c r="D194" s="114"/>
+      <c r="A194" s="131"/>
+      <c r="B194" s="129"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="126"/>
       <c r="F194" s="66" t="s">
         <v>238</v>
       </c>
@@ -6429,10 +6448,10 @@
       <c r="K194" s="71"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="152"/>
-      <c r="B195" s="147"/>
-      <c r="C195" s="125"/>
-      <c r="D195" s="114"/>
+      <c r="A195" s="131"/>
+      <c r="B195" s="129"/>
+      <c r="C195" s="156"/>
+      <c r="D195" s="126"/>
       <c r="F195" s="66" t="s">
         <v>213</v>
       </c>
@@ -6442,10 +6461,10 @@
       <c r="K195" s="71"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="152"/>
-      <c r="B196" s="147"/>
-      <c r="C196" s="125"/>
-      <c r="D196" s="114"/>
+      <c r="A196" s="131"/>
+      <c r="B196" s="129"/>
+      <c r="C196" s="156"/>
+      <c r="D196" s="126"/>
       <c r="F196" s="66" t="s">
         <v>210</v>
       </c>
@@ -6455,10 +6474,10 @@
       <c r="K196" s="71"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="152"/>
-      <c r="B197" s="147"/>
-      <c r="C197" s="125"/>
-      <c r="D197" s="114"/>
+      <c r="A197" s="131"/>
+      <c r="B197" s="129"/>
+      <c r="C197" s="156"/>
+      <c r="D197" s="126"/>
       <c r="F197" s="66" t="s">
         <v>208</v>
       </c>
@@ -6468,10 +6487,10 @@
       <c r="K197" s="71"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="152"/>
-      <c r="B198" s="147"/>
-      <c r="C198" s="125"/>
-      <c r="D198" s="114"/>
+      <c r="A198" s="131"/>
+      <c r="B198" s="129"/>
+      <c r="C198" s="156"/>
+      <c r="D198" s="126"/>
       <c r="F198" s="66" t="s">
         <v>215</v>
       </c>
@@ -6481,10 +6500,10 @@
       <c r="K198" s="71"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="152"/>
-      <c r="B199" s="147"/>
-      <c r="C199" s="125"/>
-      <c r="D199" s="114"/>
+      <c r="A199" s="131"/>
+      <c r="B199" s="129"/>
+      <c r="C199" s="156"/>
+      <c r="D199" s="126"/>
       <c r="F199" s="66" t="s">
         <v>239</v>
       </c>
@@ -6494,10 +6513,10 @@
       <c r="K199" s="71"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="152"/>
-      <c r="B200" s="147"/>
-      <c r="C200" s="125"/>
-      <c r="D200" s="114"/>
+      <c r="A200" s="131"/>
+      <c r="B200" s="129"/>
+      <c r="C200" s="156"/>
+      <c r="D200" s="126"/>
       <c r="F200" s="66" t="s">
         <v>240</v>
       </c>
@@ -6507,10 +6526,10 @@
       <c r="K200" s="71"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="152"/>
-      <c r="B201" s="147"/>
-      <c r="C201" s="125"/>
-      <c r="D201" s="114"/>
+      <c r="A201" s="131"/>
+      <c r="B201" s="129"/>
+      <c r="C201" s="156"/>
+      <c r="D201" s="126"/>
       <c r="F201" s="66" t="s">
         <v>241</v>
       </c>
@@ -6520,10 +6539,10 @@
       <c r="K201" s="71"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="152"/>
-      <c r="B202" s="147"/>
-      <c r="C202" s="125"/>
-      <c r="D202" s="114"/>
+      <c r="A202" s="131"/>
+      <c r="B202" s="129"/>
+      <c r="C202" s="156"/>
+      <c r="D202" s="126"/>
       <c r="F202" s="66" t="s">
         <v>242</v>
       </c>
@@ -6533,10 +6552,10 @@
       <c r="K202" s="71"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="152"/>
-      <c r="B203" s="147"/>
-      <c r="C203" s="125"/>
-      <c r="D203" s="114"/>
+      <c r="A203" s="131"/>
+      <c r="B203" s="129"/>
+      <c r="C203" s="156"/>
+      <c r="D203" s="126"/>
       <c r="F203" s="66" t="s">
         <v>233</v>
       </c>
@@ -6546,10 +6565,10 @@
       <c r="K203" s="71"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="152"/>
-      <c r="B204" s="147"/>
-      <c r="C204" s="125"/>
-      <c r="D204" s="114"/>
+      <c r="A204" s="131"/>
+      <c r="B204" s="129"/>
+      <c r="C204" s="156"/>
+      <c r="D204" s="126"/>
       <c r="F204" s="66" t="s">
         <v>234</v>
       </c>
@@ -6559,10 +6578,10 @@
       <c r="K204" s="71"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="152"/>
-      <c r="B205" s="147"/>
-      <c r="C205" s="125"/>
-      <c r="D205" s="114"/>
+      <c r="A205" s="131"/>
+      <c r="B205" s="129"/>
+      <c r="C205" s="156"/>
+      <c r="D205" s="126"/>
       <c r="F205" s="66" t="s">
         <v>235</v>
       </c>
@@ -6572,10 +6591,10 @@
       <c r="K205" s="71"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="152"/>
-      <c r="B206" s="147"/>
-      <c r="C206" s="125"/>
-      <c r="D206" s="114"/>
+      <c r="A206" s="131"/>
+      <c r="B206" s="129"/>
+      <c r="C206" s="156"/>
+      <c r="D206" s="126"/>
       <c r="F206" s="66" t="s">
         <v>236</v>
       </c>
@@ -6585,10 +6604,10 @@
       <c r="K206" s="71"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="152"/>
-      <c r="B207" s="147"/>
-      <c r="C207" s="125"/>
-      <c r="D207" s="114"/>
+      <c r="A207" s="131"/>
+      <c r="B207" s="129"/>
+      <c r="C207" s="156"/>
+      <c r="D207" s="126"/>
       <c r="F207" s="66" t="s">
         <v>243</v>
       </c>
@@ -6598,10 +6617,10 @@
       <c r="K207" s="71"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="152"/>
-      <c r="B208" s="147"/>
-      <c r="C208" s="126"/>
-      <c r="D208" s="115"/>
+      <c r="A208" s="131"/>
+      <c r="B208" s="129"/>
+      <c r="C208" s="157"/>
+      <c r="D208" s="127"/>
       <c r="F208" s="66" t="s">
         <v>228</v>
       </c>
@@ -6611,12 +6630,12 @@
       <c r="K208" s="71"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="152"/>
-      <c r="B209" s="147"/>
-      <c r="C209" s="127" t="s">
+      <c r="A209" s="131"/>
+      <c r="B209" s="129"/>
+      <c r="C209" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="D209" s="113" t="s">
+      <c r="D209" s="125" t="s">
         <v>244</v>
       </c>
       <c r="F209" s="66" t="s">
@@ -6628,10 +6647,10 @@
       <c r="K209" s="71"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="152"/>
-      <c r="B210" s="147"/>
-      <c r="C210" s="128"/>
-      <c r="D210" s="114"/>
+      <c r="A210" s="131"/>
+      <c r="B210" s="129"/>
+      <c r="C210" s="145"/>
+      <c r="D210" s="126"/>
       <c r="F210" s="66" t="s">
         <v>245</v>
       </c>
@@ -6641,10 +6660,10 @@
       <c r="K210" s="71"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="152"/>
-      <c r="B211" s="147"/>
-      <c r="C211" s="128"/>
-      <c r="D211" s="114"/>
+      <c r="A211" s="131"/>
+      <c r="B211" s="129"/>
+      <c r="C211" s="145"/>
+      <c r="D211" s="126"/>
       <c r="F211" s="66" t="s">
         <v>124</v>
       </c>
@@ -6654,10 +6673,10 @@
       <c r="K211" s="71"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="152"/>
-      <c r="B212" s="147"/>
-      <c r="C212" s="128"/>
-      <c r="D212" s="114"/>
+      <c r="A212" s="131"/>
+      <c r="B212" s="129"/>
+      <c r="C212" s="145"/>
+      <c r="D212" s="126"/>
       <c r="F212" s="66" t="s">
         <v>207</v>
       </c>
@@ -6667,10 +6686,10 @@
       <c r="K212" s="71"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="152"/>
-      <c r="B213" s="147"/>
-      <c r="C213" s="128"/>
-      <c r="D213" s="114"/>
+      <c r="A213" s="131"/>
+      <c r="B213" s="129"/>
+      <c r="C213" s="145"/>
+      <c r="D213" s="126"/>
       <c r="F213" s="66" t="s">
         <v>210</v>
       </c>
@@ -6680,10 +6699,10 @@
       <c r="K213" s="71"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="152"/>
-      <c r="B214" s="147"/>
-      <c r="C214" s="128"/>
-      <c r="D214" s="114"/>
+      <c r="A214" s="131"/>
+      <c r="B214" s="129"/>
+      <c r="C214" s="145"/>
+      <c r="D214" s="126"/>
       <c r="F214" s="66" t="s">
         <v>246</v>
       </c>
@@ -6693,10 +6712,10 @@
       <c r="K214" s="71"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="152"/>
-      <c r="B215" s="147"/>
-      <c r="C215" s="128"/>
-      <c r="D215" s="114"/>
+      <c r="A215" s="131"/>
+      <c r="B215" s="129"/>
+      <c r="C215" s="145"/>
+      <c r="D215" s="126"/>
       <c r="F215" s="66" t="s">
         <v>228</v>
       </c>
@@ -6706,10 +6725,10 @@
       <c r="K215" s="71"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="152"/>
-      <c r="B216" s="147"/>
-      <c r="C216" s="128"/>
-      <c r="D216" s="114"/>
+      <c r="A216" s="131"/>
+      <c r="B216" s="129"/>
+      <c r="C216" s="145"/>
+      <c r="D216" s="126"/>
       <c r="F216" s="66" t="s">
         <v>247</v>
       </c>
@@ -6719,10 +6738,10 @@
       <c r="K216" s="71"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="152"/>
-      <c r="B217" s="147"/>
-      <c r="C217" s="128"/>
-      <c r="D217" s="114"/>
+      <c r="A217" s="131"/>
+      <c r="B217" s="129"/>
+      <c r="C217" s="145"/>
+      <c r="D217" s="126"/>
       <c r="F217" s="66" t="s">
         <v>248</v>
       </c>
@@ -6732,10 +6751,10 @@
       <c r="K217" s="71"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="152"/>
-      <c r="B218" s="147"/>
-      <c r="C218" s="128"/>
-      <c r="D218" s="114"/>
+      <c r="A218" s="131"/>
+      <c r="B218" s="129"/>
+      <c r="C218" s="145"/>
+      <c r="D218" s="126"/>
       <c r="F218" s="66" t="s">
         <v>249</v>
       </c>
@@ -6745,10 +6764,10 @@
       <c r="K218" s="71"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="152"/>
-      <c r="B219" s="147"/>
-      <c r="C219" s="128"/>
-      <c r="D219" s="114"/>
+      <c r="A219" s="131"/>
+      <c r="B219" s="129"/>
+      <c r="C219" s="145"/>
+      <c r="D219" s="126"/>
       <c r="F219" s="66" t="s">
         <v>51</v>
       </c>
@@ -6758,10 +6777,10 @@
       <c r="K219" s="71"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="152"/>
-      <c r="B220" s="147"/>
-      <c r="C220" s="128"/>
-      <c r="D220" s="114"/>
+      <c r="A220" s="131"/>
+      <c r="B220" s="129"/>
+      <c r="C220" s="145"/>
+      <c r="D220" s="126"/>
       <c r="F220" s="66" t="s">
         <v>250</v>
       </c>
@@ -6771,10 +6790,10 @@
       <c r="K220" s="71"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="152"/>
-      <c r="B221" s="147"/>
-      <c r="C221" s="128"/>
-      <c r="D221" s="114"/>
+      <c r="A221" s="131"/>
+      <c r="B221" s="129"/>
+      <c r="C221" s="145"/>
+      <c r="D221" s="126"/>
       <c r="F221" s="66" t="s">
         <v>251</v>
       </c>
@@ -6784,10 +6803,10 @@
       <c r="K221" s="71"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="152"/>
-      <c r="B222" s="147"/>
-      <c r="C222" s="128"/>
-      <c r="D222" s="114"/>
+      <c r="A222" s="131"/>
+      <c r="B222" s="129"/>
+      <c r="C222" s="145"/>
+      <c r="D222" s="126"/>
       <c r="F222" s="66" t="s">
         <v>129</v>
       </c>
@@ -6797,10 +6816,10 @@
       <c r="K222" s="71"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="152"/>
-      <c r="B223" s="147"/>
-      <c r="C223" s="128"/>
-      <c r="D223" s="114"/>
+      <c r="A223" s="131"/>
+      <c r="B223" s="129"/>
+      <c r="C223" s="145"/>
+      <c r="D223" s="126"/>
       <c r="F223" s="66" t="s">
         <v>252</v>
       </c>
@@ -6810,10 +6829,10 @@
       <c r="K223" s="71"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="152"/>
-      <c r="B224" s="147"/>
-      <c r="C224" s="128"/>
-      <c r="D224" s="114"/>
+      <c r="A224" s="131"/>
+      <c r="B224" s="129"/>
+      <c r="C224" s="145"/>
+      <c r="D224" s="126"/>
       <c r="F224" s="66" t="s">
         <v>253</v>
       </c>
@@ -6823,10 +6842,10 @@
       <c r="K224" s="71"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="152"/>
-      <c r="B225" s="147"/>
-      <c r="C225" s="128"/>
-      <c r="D225" s="114"/>
+      <c r="A225" s="131"/>
+      <c r="B225" s="129"/>
+      <c r="C225" s="145"/>
+      <c r="D225" s="126"/>
       <c r="F225" s="66" t="s">
         <v>254</v>
       </c>
@@ -6836,10 +6855,10 @@
       <c r="K225" s="71"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="152"/>
-      <c r="B226" s="147"/>
-      <c r="C226" s="128"/>
-      <c r="D226" s="114"/>
+      <c r="A226" s="131"/>
+      <c r="B226" s="129"/>
+      <c r="C226" s="145"/>
+      <c r="D226" s="126"/>
       <c r="F226" s="66" t="s">
         <v>255</v>
       </c>
@@ -6849,10 +6868,10 @@
       <c r="K226" s="71"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="152"/>
-      <c r="B227" s="147"/>
-      <c r="C227" s="128"/>
-      <c r="D227" s="114"/>
+      <c r="A227" s="131"/>
+      <c r="B227" s="129"/>
+      <c r="C227" s="145"/>
+      <c r="D227" s="126"/>
       <c r="F227" s="66" t="s">
         <v>256</v>
       </c>
@@ -6862,10 +6881,10 @@
       <c r="K227" s="71"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="152"/>
-      <c r="B228" s="147"/>
-      <c r="C228" s="128"/>
-      <c r="D228" s="114"/>
+      <c r="A228" s="131"/>
+      <c r="B228" s="129"/>
+      <c r="C228" s="145"/>
+      <c r="D228" s="126"/>
       <c r="F228" s="66" t="s">
         <v>257</v>
       </c>
@@ -6875,10 +6894,10 @@
       <c r="K228" s="71"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="152"/>
-      <c r="B229" s="147"/>
-      <c r="C229" s="129"/>
-      <c r="D229" s="115"/>
+      <c r="A229" s="131"/>
+      <c r="B229" s="129"/>
+      <c r="C229" s="146"/>
+      <c r="D229" s="127"/>
       <c r="F229" s="66" t="s">
         <v>258</v>
       </c>
@@ -6888,12 +6907,12 @@
       <c r="K229" s="71"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="152"/>
-      <c r="B230" s="147"/>
-      <c r="C230" s="127" t="s">
+      <c r="A230" s="131"/>
+      <c r="B230" s="129"/>
+      <c r="C230" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="D230" s="113" t="s">
+      <c r="D230" s="125" t="s">
         <v>259</v>
       </c>
       <c r="F230" s="66" t="s">
@@ -6905,10 +6924,10 @@
       <c r="K230" s="71"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="152"/>
-      <c r="B231" s="147"/>
-      <c r="C231" s="128"/>
-      <c r="D231" s="114"/>
+      <c r="A231" s="131"/>
+      <c r="B231" s="129"/>
+      <c r="C231" s="145"/>
+      <c r="D231" s="126"/>
       <c r="F231" s="66" t="s">
         <v>261</v>
       </c>
@@ -6918,10 +6937,10 @@
       <c r="K231" s="71"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="152"/>
-      <c r="B232" s="147"/>
-      <c r="C232" s="128"/>
-      <c r="D232" s="114"/>
+      <c r="A232" s="131"/>
+      <c r="B232" s="129"/>
+      <c r="C232" s="145"/>
+      <c r="D232" s="126"/>
       <c r="F232" s="66" t="s">
         <v>66</v>
       </c>
@@ -6931,10 +6950,10 @@
       <c r="K232" s="71"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="152"/>
-      <c r="B233" s="147"/>
-      <c r="C233" s="128"/>
-      <c r="D233" s="114"/>
+      <c r="A233" s="131"/>
+      <c r="B233" s="129"/>
+      <c r="C233" s="145"/>
+      <c r="D233" s="126"/>
       <c r="F233" s="66" t="s">
         <v>262</v>
       </c>
@@ -6944,10 +6963,10 @@
       <c r="K233" s="71"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="152"/>
-      <c r="B234" s="147"/>
-      <c r="C234" s="128"/>
-      <c r="D234" s="114"/>
+      <c r="A234" s="131"/>
+      <c r="B234" s="129"/>
+      <c r="C234" s="145"/>
+      <c r="D234" s="126"/>
       <c r="F234" s="66" t="s">
         <v>263</v>
       </c>
@@ -6957,10 +6976,10 @@
       <c r="K234" s="71"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="152"/>
-      <c r="B235" s="147"/>
-      <c r="C235" s="128"/>
-      <c r="D235" s="114"/>
+      <c r="A235" s="131"/>
+      <c r="B235" s="129"/>
+      <c r="C235" s="145"/>
+      <c r="D235" s="126"/>
       <c r="F235" s="66" t="s">
         <v>264</v>
       </c>
@@ -6970,10 +6989,10 @@
       <c r="K235" s="71"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="152"/>
-      <c r="B236" s="147"/>
-      <c r="C236" s="128"/>
-      <c r="D236" s="114"/>
+      <c r="A236" s="131"/>
+      <c r="B236" s="129"/>
+      <c r="C236" s="145"/>
+      <c r="D236" s="126"/>
       <c r="F236" s="66" t="s">
         <v>208</v>
       </c>
@@ -6983,10 +7002,10 @@
       <c r="K236" s="71"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="152"/>
-      <c r="B237" s="147"/>
-      <c r="C237" s="128"/>
-      <c r="D237" s="114"/>
+      <c r="A237" s="131"/>
+      <c r="B237" s="129"/>
+      <c r="C237" s="145"/>
+      <c r="D237" s="126"/>
       <c r="F237" s="66" t="s">
         <v>209</v>
       </c>
@@ -6996,10 +7015,10 @@
       <c r="K237" s="71"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="152"/>
-      <c r="B238" s="147"/>
-      <c r="C238" s="128"/>
-      <c r="D238" s="114"/>
+      <c r="A238" s="131"/>
+      <c r="B238" s="129"/>
+      <c r="C238" s="145"/>
+      <c r="D238" s="126"/>
       <c r="F238" s="66" t="s">
         <v>210</v>
       </c>
@@ -7009,10 +7028,10 @@
       <c r="K238" s="71"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="152"/>
-      <c r="B239" s="147"/>
-      <c r="C239" s="128"/>
-      <c r="D239" s="114"/>
+      <c r="A239" s="131"/>
+      <c r="B239" s="129"/>
+      <c r="C239" s="145"/>
+      <c r="D239" s="126"/>
       <c r="F239" s="66" t="s">
         <v>265</v>
       </c>
@@ -7022,10 +7041,10 @@
       <c r="K239" s="71"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="152"/>
-      <c r="B240" s="147"/>
-      <c r="C240" s="128"/>
-      <c r="D240" s="114"/>
+      <c r="A240" s="131"/>
+      <c r="B240" s="129"/>
+      <c r="C240" s="145"/>
+      <c r="D240" s="126"/>
       <c r="F240" s="66" t="s">
         <v>266</v>
       </c>
@@ -7035,10 +7054,10 @@
       <c r="K240" s="71"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="152"/>
-      <c r="B241" s="147"/>
-      <c r="C241" s="128"/>
-      <c r="D241" s="114"/>
+      <c r="A241" s="131"/>
+      <c r="B241" s="129"/>
+      <c r="C241" s="145"/>
+      <c r="D241" s="126"/>
       <c r="F241" s="66" t="s">
         <v>252</v>
       </c>
@@ -7048,10 +7067,10 @@
       <c r="K241" s="71"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="152"/>
-      <c r="B242" s="147"/>
-      <c r="C242" s="128"/>
-      <c r="D242" s="114"/>
+      <c r="A242" s="131"/>
+      <c r="B242" s="129"/>
+      <c r="C242" s="145"/>
+      <c r="D242" s="126"/>
       <c r="F242" s="66" t="s">
         <v>267</v>
       </c>
@@ -7061,10 +7080,10 @@
       <c r="K242" s="71"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="152"/>
-      <c r="B243" s="147"/>
-      <c r="C243" s="128"/>
-      <c r="D243" s="114"/>
+      <c r="A243" s="131"/>
+      <c r="B243" s="129"/>
+      <c r="C243" s="145"/>
+      <c r="D243" s="126"/>
       <c r="F243" s="66" t="s">
         <v>268</v>
       </c>
@@ -7074,10 +7093,10 @@
       <c r="K243" s="71"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="152"/>
-      <c r="B244" s="147"/>
-      <c r="C244" s="128"/>
-      <c r="D244" s="114"/>
+      <c r="A244" s="131"/>
+      <c r="B244" s="129"/>
+      <c r="C244" s="145"/>
+      <c r="D244" s="126"/>
       <c r="F244" s="66" t="s">
         <v>269</v>
       </c>
@@ -7087,10 +7106,10 @@
       <c r="K244" s="71"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="152"/>
-      <c r="B245" s="147"/>
-      <c r="C245" s="128"/>
-      <c r="D245" s="114"/>
+      <c r="A245" s="131"/>
+      <c r="B245" s="129"/>
+      <c r="C245" s="145"/>
+      <c r="D245" s="126"/>
       <c r="F245" s="66" t="s">
         <v>270</v>
       </c>
@@ -7100,10 +7119,10 @@
       <c r="K245" s="71"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="152"/>
-      <c r="B246" s="147"/>
-      <c r="C246" s="128"/>
-      <c r="D246" s="114"/>
+      <c r="A246" s="131"/>
+      <c r="B246" s="129"/>
+      <c r="C246" s="145"/>
+      <c r="D246" s="126"/>
       <c r="F246" s="66" t="s">
         <v>271</v>
       </c>
@@ -7113,10 +7132,10 @@
       <c r="K246" s="71"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="152"/>
-      <c r="B247" s="147"/>
-      <c r="C247" s="128"/>
-      <c r="D247" s="114"/>
+      <c r="A247" s="131"/>
+      <c r="B247" s="129"/>
+      <c r="C247" s="145"/>
+      <c r="D247" s="126"/>
       <c r="F247" s="66" t="s">
         <v>272</v>
       </c>
@@ -7126,10 +7145,10 @@
       <c r="K247" s="71"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="153"/>
-      <c r="B248" s="147"/>
-      <c r="C248" s="128"/>
-      <c r="D248" s="114"/>
+      <c r="A248" s="132"/>
+      <c r="B248" s="129"/>
+      <c r="C248" s="145"/>
+      <c r="D248" s="126"/>
       <c r="F248" s="66" t="s">
         <v>273</v>
       </c>
@@ -7139,11 +7158,11 @@
       <c r="K248" s="71"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="113" t="s">
+      <c r="A249" s="125" t="s">
+        <v>574</v>
+      </c>
+      <c r="B249" s="83" t="s">
         <v>274</v>
-      </c>
-      <c r="B249" s="83" t="s">
-        <v>275</v>
       </c>
       <c r="C249" s="75"/>
       <c r="D249" s="75"/>
@@ -7154,16 +7173,16 @@
       <c r="K249" s="71"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="114"/>
-      <c r="B250" s="113" t="s">
+      <c r="A250" s="126"/>
+      <c r="B250" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="C250" s="125" t="s">
         <v>276</v>
       </c>
-      <c r="C250" s="113" t="s">
+      <c r="D250" s="125"/>
+      <c r="F250" s="66" t="s">
         <v>277</v>
-      </c>
-      <c r="D250" s="113"/>
-      <c r="F250" s="66" t="s">
-        <v>278</v>
       </c>
       <c r="H250" s="76"/>
       <c r="I250" s="88"/>
@@ -7171,12 +7190,12 @@
       <c r="K250" s="71"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="114"/>
-      <c r="B251" s="114"/>
-      <c r="C251" s="114"/>
-      <c r="D251" s="114"/>
+      <c r="A251" s="126"/>
+      <c r="B251" s="126"/>
+      <c r="C251" s="126"/>
+      <c r="D251" s="126"/>
       <c r="F251" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H251" s="76"/>
       <c r="I251" s="88"/>
@@ -7184,12 +7203,12 @@
       <c r="K251" s="71"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="114"/>
-      <c r="B252" s="114"/>
-      <c r="C252" s="114"/>
-      <c r="D252" s="114"/>
+      <c r="A252" s="126"/>
+      <c r="B252" s="126"/>
+      <c r="C252" s="126"/>
+      <c r="D252" s="126"/>
       <c r="F252" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H252" s="76"/>
       <c r="I252" s="88"/>
@@ -7197,12 +7216,12 @@
       <c r="K252" s="71"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="114"/>
-      <c r="B253" s="114"/>
-      <c r="C253" s="114"/>
-      <c r="D253" s="114"/>
+      <c r="A253" s="126"/>
+      <c r="B253" s="126"/>
+      <c r="C253" s="126"/>
+      <c r="D253" s="126"/>
       <c r="F253" s="84" t="s">
-        <v>281</v>
+        <v>563</v>
       </c>
       <c r="H253" s="85"/>
       <c r="I253" s="89"/>
@@ -7210,12 +7229,12 @@
       <c r="K253" s="90"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="114"/>
-      <c r="B254" s="114"/>
-      <c r="C254" s="114"/>
-      <c r="D254" s="114"/>
+      <c r="A254" s="126"/>
+      <c r="B254" s="126"/>
+      <c r="C254" s="126"/>
+      <c r="D254" s="126"/>
       <c r="F254" s="84" t="s">
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="H254" s="85"/>
       <c r="I254" s="89"/>
@@ -7223,12 +7242,12 @@
       <c r="K254" s="90"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="114"/>
-      <c r="B255" s="114"/>
-      <c r="C255" s="114"/>
-      <c r="D255" s="114"/>
+      <c r="A255" s="126"/>
+      <c r="B255" s="126"/>
+      <c r="C255" s="126"/>
+      <c r="D255" s="126"/>
       <c r="F255" s="84" t="s">
-        <v>283</v>
+        <v>565</v>
       </c>
       <c r="H255" s="85"/>
       <c r="I255" s="89"/>
@@ -7236,12 +7255,12 @@
       <c r="K255" s="90"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="114"/>
-      <c r="B256" s="114"/>
-      <c r="C256" s="114"/>
-      <c r="D256" s="114"/>
+      <c r="A256" s="126"/>
+      <c r="B256" s="126"/>
+      <c r="C256" s="126"/>
+      <c r="D256" s="126"/>
       <c r="F256" s="84" t="s">
-        <v>284</v>
+        <v>566</v>
       </c>
       <c r="H256" s="85"/>
       <c r="I256" s="89"/>
@@ -7249,12 +7268,12 @@
       <c r="K256" s="90"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="114"/>
-      <c r="B257" s="114"/>
-      <c r="C257" s="114"/>
-      <c r="D257" s="114"/>
+      <c r="A257" s="126"/>
+      <c r="B257" s="126"/>
+      <c r="C257" s="126"/>
+      <c r="D257" s="126"/>
       <c r="F257" s="84" t="s">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="H257" s="85"/>
       <c r="I257" s="89"/>
@@ -7262,12 +7281,12 @@
       <c r="K257" s="90"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="114"/>
-      <c r="B258" s="114"/>
-      <c r="C258" s="114"/>
-      <c r="D258" s="114"/>
+      <c r="A258" s="126"/>
+      <c r="B258" s="126"/>
+      <c r="C258" s="126"/>
+      <c r="D258" s="126"/>
       <c r="F258" s="84" t="s">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="H258" s="85"/>
       <c r="I258" s="89"/>
@@ -7275,12 +7294,12 @@
       <c r="K258" s="90"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="114"/>
-      <c r="B259" s="114"/>
-      <c r="C259" s="114"/>
-      <c r="D259" s="114"/>
+      <c r="A259" s="126"/>
+      <c r="B259" s="126"/>
+      <c r="C259" s="127"/>
+      <c r="D259" s="127"/>
       <c r="F259" s="84" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H259" s="85"/>
       <c r="I259" s="89"/>
@@ -7288,261 +7307,263 @@
       <c r="K259" s="90"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="114"/>
-      <c r="B260" s="114"/>
-      <c r="C260" s="115"/>
-      <c r="D260" s="115"/>
-      <c r="F260" s="84" t="s">
-        <v>287</v>
-      </c>
+      <c r="A260" s="126"/>
+      <c r="B260" s="126"/>
+      <c r="C260" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="D260" s="86"/>
+      <c r="F260" s="84"/>
       <c r="H260" s="85"/>
       <c r="I260" s="89"/>
       <c r="J260" s="89"/>
       <c r="K260" s="90"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="114"/>
-      <c r="B261" s="114"/>
-      <c r="C261" s="86" t="s">
-        <v>288</v>
-      </c>
-      <c r="D261" s="86"/>
-      <c r="F261" s="84"/>
-      <c r="H261" s="85"/>
+      <c r="A261" s="126"/>
+      <c r="B261" s="126"/>
+      <c r="C261" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="D261" s="149"/>
+      <c r="F261" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="H261" s="85" t="s">
+        <v>567</v>
+      </c>
       <c r="I261" s="89"/>
       <c r="J261" s="89"/>
       <c r="K261" s="90"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="114"/>
-      <c r="B262" s="114"/>
-      <c r="C262" s="116" t="s">
-        <v>289</v>
-      </c>
-      <c r="D262" s="116"/>
+      <c r="A262" s="126"/>
+      <c r="B262" s="126"/>
+      <c r="C262" s="150"/>
+      <c r="D262" s="150"/>
       <c r="F262" s="84" t="s">
-        <v>290</v>
-      </c>
-      <c r="H262" s="87" t="s">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="H262" s="85"/>
       <c r="I262" s="89"/>
       <c r="J262" s="89"/>
       <c r="K262" s="90"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="114"/>
-      <c r="B263" s="114"/>
-      <c r="C263" s="117"/>
-      <c r="D263" s="117"/>
+      <c r="A263" s="126"/>
+      <c r="B263" s="126"/>
+      <c r="C263" s="150"/>
+      <c r="D263" s="150"/>
       <c r="F263" s="84" t="s">
-        <v>292</v>
-      </c>
-      <c r="H263" s="85"/>
+        <v>563</v>
+      </c>
+      <c r="H263" s="221" t="s">
+        <v>572</v>
+      </c>
       <c r="I263" s="89"/>
       <c r="J263" s="89"/>
       <c r="K263" s="90"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="114"/>
-      <c r="B264" s="114"/>
-      <c r="C264" s="117"/>
-      <c r="D264" s="117"/>
+      <c r="A264" s="126"/>
+      <c r="B264" s="126"/>
+      <c r="C264" s="150"/>
+      <c r="D264" s="150"/>
       <c r="F264" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="H264" s="87" t="s">
-        <v>293</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="H264" s="85"/>
       <c r="I264" s="89"/>
       <c r="J264" s="89"/>
       <c r="K264" s="90"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="114"/>
-      <c r="B265" s="114"/>
-      <c r="C265" s="117"/>
-      <c r="D265" s="117"/>
+      <c r="A265" s="126"/>
+      <c r="B265" s="126"/>
+      <c r="C265" s="150"/>
+      <c r="D265" s="150"/>
       <c r="F265" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="H265" s="85"/>
+        <v>569</v>
+      </c>
+      <c r="H265" s="85" t="s">
+        <v>571</v>
+      </c>
       <c r="I265" s="89"/>
       <c r="J265" s="89"/>
       <c r="K265" s="90"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="114"/>
-      <c r="B266" s="114"/>
-      <c r="C266" s="117"/>
-      <c r="D266" s="117"/>
+      <c r="A266" s="126"/>
+      <c r="B266" s="126"/>
+      <c r="C266" s="150"/>
+      <c r="D266" s="150"/>
       <c r="F266" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="H266" s="87" t="s">
-        <v>282</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="H266" s="85"/>
       <c r="I266" s="89"/>
       <c r="J266" s="89"/>
       <c r="K266" s="90"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="114"/>
-      <c r="B267" s="114"/>
-      <c r="C267" s="117"/>
-      <c r="D267" s="117"/>
-      <c r="F267" s="84" t="s">
-        <v>295</v>
-      </c>
-      <c r="H267" s="85"/>
+      <c r="A267" s="126"/>
+      <c r="B267" s="126"/>
+      <c r="C267" s="150"/>
+      <c r="D267" s="150"/>
+      <c r="F267" s="91" t="s">
+        <v>287</v>
+      </c>
+      <c r="H267" s="87"/>
       <c r="I267" s="89"/>
       <c r="J267" s="89"/>
-      <c r="K267" s="90"/>
+      <c r="K267" s="90" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="114"/>
-      <c r="B268" s="114"/>
-      <c r="C268" s="117"/>
-      <c r="D268" s="117"/>
+      <c r="A268" s="126"/>
+      <c r="B268" s="126"/>
+      <c r="C268" s="150"/>
+      <c r="D268" s="150"/>
       <c r="F268" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="H268" s="87"/>
+        <v>288</v>
+      </c>
+      <c r="H268" s="85"/>
       <c r="I268" s="89"/>
       <c r="J268" s="89"/>
-      <c r="K268" s="90" t="s">
-        <v>297</v>
-      </c>
+      <c r="K268" s="90"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="114"/>
-      <c r="B269" s="114"/>
-      <c r="C269" s="117"/>
-      <c r="D269" s="117"/>
-      <c r="F269" s="91" t="s">
-        <v>298</v>
-      </c>
-      <c r="H269" s="85"/>
+      <c r="A269" s="126"/>
+      <c r="B269" s="126"/>
+      <c r="C269" s="150"/>
+      <c r="D269" s="150"/>
+      <c r="F269" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="H269" s="87" t="s">
+        <v>289</v>
+      </c>
       <c r="I269" s="89"/>
       <c r="J269" s="89"/>
       <c r="K269" s="90"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="114"/>
-      <c r="B270" s="114"/>
-      <c r="C270" s="117"/>
-      <c r="D270" s="117"/>
-      <c r="F270" s="84" t="s">
-        <v>299</v>
+      <c r="A270" s="126"/>
+      <c r="B270" s="126"/>
+      <c r="C270" s="150"/>
+      <c r="D270" s="150"/>
+      <c r="F270" s="92" t="s">
+        <v>286</v>
       </c>
       <c r="H270" s="87" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I270" s="89"/>
       <c r="J270" s="89"/>
-      <c r="K270" s="90"/>
+      <c r="K270" s="102" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="114"/>
-      <c r="B271" s="114"/>
-      <c r="C271" s="117"/>
-      <c r="D271" s="117"/>
+      <c r="A271" s="126"/>
+      <c r="B271" s="126"/>
+      <c r="C271" s="151"/>
+      <c r="D271" s="151"/>
       <c r="F271" s="92" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H271" s="87" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I271" s="89"/>
       <c r="J271" s="89"/>
-      <c r="K271" s="102" t="s">
-        <v>301</v>
-      </c>
+      <c r="K271" s="90"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="114"/>
-      <c r="B272" s="114"/>
-      <c r="C272" s="118"/>
-      <c r="D272" s="118"/>
-      <c r="F272" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="H272" s="87" t="s">
-        <v>302</v>
-      </c>
+      <c r="A272" s="126"/>
+      <c r="B272" s="126"/>
+      <c r="C272" s="152" t="s">
+        <v>293</v>
+      </c>
+      <c r="D272" s="152"/>
+      <c r="F272" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="H272" s="85"/>
       <c r="I272" s="89"/>
       <c r="J272" s="89"/>
       <c r="K272" s="90"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A273" s="114"/>
-      <c r="B273" s="114"/>
-      <c r="C273" s="119" t="s">
-        <v>303</v>
-      </c>
-      <c r="D273" s="119"/>
+    <row r="273" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="126"/>
+      <c r="B273" s="126"/>
+      <c r="C273" s="153"/>
+      <c r="D273" s="153"/>
       <c r="F273" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H273" s="85"/>
+        <v>294</v>
+      </c>
+      <c r="H273" s="87" t="s">
+        <v>295</v>
+      </c>
       <c r="I273" s="89"/>
       <c r="J273" s="89"/>
       <c r="K273" s="90"/>
     </row>
     <row r="274" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="114"/>
-      <c r="B274" s="114"/>
-      <c r="C274" s="120"/>
-      <c r="D274" s="120"/>
+      <c r="A274" s="126"/>
+      <c r="B274" s="126"/>
+      <c r="C274" s="153"/>
+      <c r="D274" s="153"/>
       <c r="F274" s="84" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H274" s="87" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I274" s="89"/>
       <c r="J274" s="89"/>
       <c r="K274" s="90"/>
     </row>
     <row r="275" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="114"/>
-      <c r="B275" s="114"/>
-      <c r="C275" s="120"/>
-      <c r="D275" s="120"/>
+      <c r="A275" s="126"/>
+      <c r="B275" s="126"/>
+      <c r="C275" s="154"/>
+      <c r="D275" s="154"/>
       <c r="F275" s="84" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H275" s="87" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="I275" s="89"/>
       <c r="J275" s="89"/>
       <c r="K275" s="90"/>
     </row>
-    <row r="276" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="114"/>
-      <c r="B276" s="114"/>
-      <c r="C276" s="121"/>
-      <c r="D276" s="121"/>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" s="126"/>
+      <c r="B276" s="126"/>
+      <c r="C276" s="152" t="s">
+        <v>300</v>
+      </c>
+      <c r="D276" s="152"/>
       <c r="F276" s="84" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="H276" s="87" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="I276" s="89"/>
       <c r="J276" s="89"/>
       <c r="K276" s="90"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="114"/>
-      <c r="B277" s="114"/>
-      <c r="C277" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="D277" s="119"/>
+      <c r="A277" s="126"/>
+      <c r="B277" s="126"/>
+      <c r="C277" s="153"/>
+      <c r="D277" s="153"/>
       <c r="F277" s="84" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="H277" s="87" t="s">
         <v>174</v>
@@ -7552,12 +7573,12 @@
       <c r="K277" s="90"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="114"/>
-      <c r="B278" s="114"/>
-      <c r="C278" s="120"/>
-      <c r="D278" s="120"/>
+      <c r="A278" s="126"/>
+      <c r="B278" s="126"/>
+      <c r="C278" s="153"/>
+      <c r="D278" s="153"/>
       <c r="F278" s="84" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H278" s="87" t="s">
         <v>174</v>
@@ -7567,12 +7588,12 @@
       <c r="K278" s="90"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="114"/>
-      <c r="B279" s="114"/>
-      <c r="C279" s="120"/>
-      <c r="D279" s="120"/>
+      <c r="A279" s="126"/>
+      <c r="B279" s="126"/>
+      <c r="C279" s="154"/>
+      <c r="D279" s="154"/>
       <c r="F279" s="84" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H279" s="87" t="s">
         <v>174</v>
@@ -7582,190 +7603,188 @@
       <c r="K279" s="90"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="114"/>
-      <c r="B280" s="114"/>
-      <c r="C280" s="121"/>
-      <c r="D280" s="121"/>
-      <c r="F280" s="84" t="s">
-        <v>313</v>
-      </c>
-      <c r="H280" s="87" t="s">
-        <v>174</v>
-      </c>
+      <c r="A280" s="126"/>
+      <c r="B280" s="126"/>
+      <c r="C280" s="147" t="s">
+        <v>304</v>
+      </c>
+      <c r="D280" s="149"/>
+      <c r="F280" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="H280" s="87"/>
       <c r="I280" s="89"/>
       <c r="J280" s="89"/>
       <c r="K280" s="90"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="114"/>
-      <c r="B281" s="114"/>
-      <c r="C281" s="122" t="s">
-        <v>314</v>
-      </c>
-      <c r="D281" s="116"/>
-      <c r="F281" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="H281" s="87"/>
+      <c r="A281" s="126"/>
+      <c r="B281" s="126"/>
+      <c r="C281" s="148"/>
+      <c r="D281" s="151"/>
+      <c r="F281" s="95" t="s">
+        <v>306</v>
+      </c>
+      <c r="H281" s="87" t="s">
+        <v>307</v>
+      </c>
       <c r="I281" s="89"/>
       <c r="J281" s="89"/>
       <c r="K281" s="90"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A282" s="114"/>
-      <c r="B282" s="114"/>
-      <c r="C282" s="123"/>
-      <c r="D282" s="118"/>
-      <c r="F282" s="95" t="s">
+    <row r="282" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A282" s="126"/>
+      <c r="B282" s="126"/>
+      <c r="C282" s="96" t="s">
+        <v>308</v>
+      </c>
+      <c r="D282" s="93"/>
+      <c r="F282" s="84"/>
+      <c r="H282" s="85"/>
+      <c r="I282" s="89"/>
+      <c r="J282" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="K282" s="90"/>
+    </row>
+    <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A283" s="126"/>
+      <c r="B283" s="126"/>
+      <c r="C283" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="D283" s="98"/>
+      <c r="F283" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="H283" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="I283" s="89"/>
+      <c r="J283" s="89"/>
+      <c r="K283" s="102" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A284" s="126"/>
+      <c r="B284" s="126"/>
+      <c r="C284" s="99" t="s">
+        <v>314</v>
+      </c>
+      <c r="D284" s="100"/>
+      <c r="F284" s="84"/>
+      <c r="H284" s="85"/>
+      <c r="I284" s="89"/>
+      <c r="J284" s="89" t="s">
+        <v>309</v>
+      </c>
+      <c r="K284" s="90"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A285" s="126"/>
+      <c r="B285" s="126"/>
+      <c r="C285" s="101" t="s">
+        <v>315</v>
+      </c>
+      <c r="D285" s="101"/>
+      <c r="F285" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="H282" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="I282" s="89"/>
-      <c r="J282" s="89"/>
-      <c r="K282" s="90"/>
-    </row>
-    <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A283" s="114"/>
-      <c r="B283" s="114"/>
-      <c r="C283" s="96" t="s">
-        <v>318</v>
-      </c>
-      <c r="D283" s="93"/>
-      <c r="F283" s="84"/>
-      <c r="H283" s="85"/>
-      <c r="I283" s="89"/>
-      <c r="J283" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="K283" s="90"/>
-    </row>
-    <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A284" s="114"/>
-      <c r="B284" s="114"/>
-      <c r="C284" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D284" s="98"/>
-      <c r="F284" s="94" t="s">
-        <v>321</v>
-      </c>
-      <c r="H284" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="I284" s="89"/>
-      <c r="J284" s="89"/>
-      <c r="K284" s="102" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A285" s="114"/>
-      <c r="B285" s="114"/>
-      <c r="C285" s="99" t="s">
-        <v>324</v>
-      </c>
-      <c r="D285" s="100"/>
-      <c r="F285" s="84"/>
       <c r="H285" s="85"/>
       <c r="I285" s="89"/>
-      <c r="J285" s="89" t="s">
-        <v>319</v>
-      </c>
+      <c r="J285" s="89"/>
       <c r="K285" s="90"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="114"/>
-      <c r="B286" s="114"/>
-      <c r="C286" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="D286" s="101"/>
+      <c r="A286" s="126"/>
+      <c r="B286" s="126"/>
+      <c r="C286" s="86"/>
+      <c r="D286" s="86"/>
       <c r="F286" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="H286" s="85"/>
+        <v>317</v>
+      </c>
+      <c r="H286" s="87" t="s">
+        <v>318</v>
+      </c>
       <c r="I286" s="89"/>
       <c r="J286" s="89"/>
       <c r="K286" s="90"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="114"/>
-      <c r="B287" s="114"/>
+      <c r="A287" s="126"/>
+      <c r="B287" s="126"/>
       <c r="C287" s="86"/>
       <c r="D287" s="86"/>
       <c r="F287" s="95" t="s">
-        <v>327</v>
-      </c>
-      <c r="H287" s="87" t="s">
-        <v>328</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="H287" s="87"/>
       <c r="I287" s="89"/>
       <c r="J287" s="89"/>
       <c r="K287" s="90"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="114"/>
-      <c r="B288" s="114"/>
-      <c r="C288" s="86"/>
-      <c r="D288" s="86"/>
+      <c r="A288" s="126"/>
+      <c r="B288" s="126"/>
+      <c r="C288" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="D288" s="101"/>
       <c r="F288" s="95" t="s">
-        <v>329</v>
-      </c>
-      <c r="H288" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="H288" s="85"/>
       <c r="I288" s="89"/>
       <c r="J288" s="89"/>
       <c r="K288" s="90"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="114"/>
-      <c r="B289" s="114"/>
-      <c r="C289" s="101" t="s">
-        <v>330</v>
-      </c>
-      <c r="D289" s="101"/>
+      <c r="A289" s="126"/>
+      <c r="B289" s="126"/>
+      <c r="C289" s="86"/>
+      <c r="D289" s="86"/>
       <c r="F289" s="95" t="s">
-        <v>331</v>
-      </c>
-      <c r="H289" s="85"/>
+        <v>322</v>
+      </c>
+      <c r="H289" s="87" t="s">
+        <v>323</v>
+      </c>
       <c r="I289" s="89"/>
       <c r="J289" s="89"/>
       <c r="K289" s="90"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="114"/>
-      <c r="B290" s="114"/>
+      <c r="A290" s="126"/>
+      <c r="B290" s="126"/>
       <c r="C290" s="86"/>
       <c r="D290" s="86"/>
       <c r="F290" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="H290" s="87" t="s">
-        <v>333</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="H290" s="85"/>
       <c r="I290" s="89"/>
       <c r="J290" s="89"/>
       <c r="K290" s="90"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="114"/>
-      <c r="B291" s="114"/>
-      <c r="C291" s="86"/>
-      <c r="D291" s="86"/>
-      <c r="F291" s="95" t="s">
-        <v>334</v>
-      </c>
+      <c r="A291" s="126"/>
+      <c r="B291" s="126"/>
+      <c r="C291" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="D291" s="101"/>
+      <c r="F291" s="84"/>
       <c r="H291" s="85"/>
       <c r="I291" s="89"/>
       <c r="J291" s="89"/>
       <c r="K291" s="90"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="114"/>
-      <c r="B292" s="114"/>
+      <c r="A292" s="126"/>
+      <c r="B292" s="127"/>
       <c r="C292" s="101" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D292" s="101"/>
       <c r="F292" s="84"/>
@@ -7775,45 +7794,70 @@
       <c r="K292" s="90"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="114"/>
-      <c r="B293" s="115"/>
-      <c r="C293" s="101" t="s">
-        <v>336</v>
-      </c>
-      <c r="D293" s="101"/>
+      <c r="A293" s="127"/>
+      <c r="B293" s="63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C293" s="86"/>
+      <c r="D293" s="86"/>
       <c r="F293" s="84"/>
       <c r="H293" s="85"/>
       <c r="I293" s="89"/>
       <c r="J293" s="89"/>
       <c r="K293" s="90"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A294" s="115"/>
-      <c r="B294" s="63" t="s">
-        <v>337</v>
-      </c>
-      <c r="C294" s="86"/>
-      <c r="D294" s="86"/>
-      <c r="F294" s="84"/>
-      <c r="H294" s="85"/>
-      <c r="I294" s="89"/>
-      <c r="J294" s="89"/>
-      <c r="K294" s="90"/>
-    </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C47"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A249:A294"/>
+    <mergeCell ref="D230:D248"/>
+    <mergeCell ref="D250:D259"/>
+    <mergeCell ref="C261:C271"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="C276:C279"/>
+    <mergeCell ref="C230:C248"/>
+    <mergeCell ref="C250:C259"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="D155:D160"/>
+    <mergeCell ref="D261:D271"/>
+    <mergeCell ref="D272:D275"/>
+    <mergeCell ref="D276:D279"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="D161:D191"/>
+    <mergeCell ref="D192:D208"/>
+    <mergeCell ref="D209:D229"/>
+    <mergeCell ref="C161:C191"/>
+    <mergeCell ref="C192:C208"/>
+    <mergeCell ref="C209:C229"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C145:C160"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="A249:A293"/>
     <mergeCell ref="B2:B27"/>
     <mergeCell ref="B28:B37"/>
     <mergeCell ref="B38:B47"/>
@@ -7824,60 +7868,22 @@
     <mergeCell ref="B135:B140"/>
     <mergeCell ref="B141:B144"/>
     <mergeCell ref="B145:B248"/>
-    <mergeCell ref="B250:B293"/>
+    <mergeCell ref="B250:B292"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="A28:A56"/>
     <mergeCell ref="A57:A144"/>
     <mergeCell ref="A145:A248"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C145:C160"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="D155:D160"/>
-    <mergeCell ref="D262:D272"/>
-    <mergeCell ref="D273:D276"/>
-    <mergeCell ref="D277:D280"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="D161:D191"/>
-    <mergeCell ref="D192:D208"/>
-    <mergeCell ref="D209:D229"/>
-    <mergeCell ref="C161:C191"/>
-    <mergeCell ref="C192:C208"/>
-    <mergeCell ref="C209:C229"/>
-    <mergeCell ref="D230:D248"/>
-    <mergeCell ref="D250:D260"/>
-    <mergeCell ref="C262:C272"/>
-    <mergeCell ref="C273:C276"/>
-    <mergeCell ref="C277:C280"/>
-    <mergeCell ref="C230:C248"/>
-    <mergeCell ref="C250:C260"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C47"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7890,7 +7896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -7919,1085 +7925,1093 @@
         <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="158" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" s="164" t="s">
+        <v>337</v>
+      </c>
+      <c r="D3" s="182" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F3" s="182" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="205" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="158"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J4" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="158"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="10" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="211" t="s">
+      <c r="E5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="F5" s="10" t="s">
         <v>347</v>
-      </c>
-      <c r="D3" s="183" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="161" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="183" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="157" t="s">
-        <v>351</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="211"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="211"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="211"/>
-      <c r="C6" s="199"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="165"/>
       <c r="D6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="211"/>
-      <c r="C7" s="199"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="165"/>
       <c r="D7" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="158"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="183" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="183" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="H8" s="207" t="s">
+        <v>361</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="158"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="208"/>
+      <c r="I9" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="158"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="183" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="164" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="183" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="207" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="158"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="158"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="182" t="s">
         <v>366</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="E12" s="186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="200" t="s">
+        <v>367</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="205" t="s">
+        <v>368</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="158"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="158"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="186" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="182" t="s">
+        <v>372</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="H14" s="205" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="158"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="158"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="200" t="s">
+        <v>376</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" s="186" t="s">
+        <v>378</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="158"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="H17" s="188"/>
+      <c r="I17" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="211"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="184" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="187" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="184" t="s">
-        <v>369</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="H8" s="159" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="211"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="211"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="184" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" s="187" t="s">
-        <v>368</v>
-      </c>
-      <c r="F10" s="184" t="s">
-        <v>369</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="159" t="s">
-        <v>375</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="211"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="211"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="183" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" s="161" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="179" t="s">
-        <v>377</v>
-      </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="157" t="s">
-        <v>378</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="211"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="211"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="183" t="s">
+      <c r="J17" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="158"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="E14" s="161" t="s">
-        <v>368</v>
-      </c>
-      <c r="F14" s="183" t="s">
+      <c r="H18" s="188"/>
+      <c r="I18" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="J18" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="158"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H14" s="157" t="s">
+      <c r="J19" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="211"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="7" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="158"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="211"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="179" t="s">
+      <c r="J20" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="159" t="s">
         <v>386</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="C21" s="167" t="s">
         <v>387</v>
       </c>
-      <c r="H16" s="161" t="s">
+      <c r="D21" s="179" t="s">
         <v>388</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="E21" s="189" t="s">
         <v>389</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="211"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="183"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="24" t="s">
+      <c r="F21" s="201" t="s">
         <v>390</v>
       </c>
-      <c r="H17" s="162"/>
-      <c r="I17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="211"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="24" t="s">
+      <c r="G21" s="23"/>
+      <c r="H21" s="192" t="s">
         <v>391</v>
       </c>
-      <c r="H18" s="162"/>
-      <c r="I18" s="7" t="s">
+      <c r="I21" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="211"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="183"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="7" t="s">
+      <c r="J21" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="159"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J22" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="159"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="25" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="211"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="7" t="s">
+      <c r="J23" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="159"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="201"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="212" t="s">
+      <c r="J24" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="159"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="179" t="s">
         <v>396</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="E25" s="192" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="F25" s="202" t="s">
         <v>398</v>
       </c>
-      <c r="E21" s="189" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="192" t="s">
         <v>399</v>
       </c>
-      <c r="F21" s="154" t="s">
+      <c r="I25" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="164" t="s">
+      <c r="J25" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="159"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="159"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="J27" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="159"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="179" t="s">
         <v>402</v>
       </c>
-      <c r="J21" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="212"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="25" t="s">
+      <c r="E28" s="192" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="179" t="s">
         <v>403</v>
       </c>
-      <c r="J22" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="212"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="25" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="209" t="s">
         <v>404</v>
       </c>
-      <c r="J23" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="212"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="J24" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="212"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="181" t="s">
+      <c r="J28" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="159"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E25" s="164" t="s">
+      <c r="J29" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="159"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="F25" s="180" t="s">
+      <c r="J30" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="159"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="179"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="164" t="s">
+      <c r="J31" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="159"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="J32" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="159"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="J25" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="212"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="181"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="212"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="181"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="25" t="s">
+      <c r="J33" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="159"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="J27" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="212"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="181" t="s">
+      <c r="E34" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>412</v>
       </c>
-      <c r="E28" s="164" t="s">
-        <v>407</v>
-      </c>
-      <c r="F28" s="181" t="s">
+      <c r="G34" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="167" t="s">
+      <c r="H34" s="32" t="s">
         <v>414</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="I34" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="J28" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="212"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="181"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="25" t="s">
+      <c r="J34" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="159"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="180" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="212"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="25" t="s">
+      <c r="E35" s="167" t="s">
         <v>417</v>
       </c>
-      <c r="J30" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="212"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="181"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="25" t="s">
+      <c r="F35" s="180" t="s">
         <v>418</v>
       </c>
-      <c r="J31" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="212"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="25" t="s">
+      <c r="G35" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="212"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="25" t="s">
+      <c r="H35" s="212" t="s">
         <v>420</v>
       </c>
-      <c r="J33" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="212"/>
-      <c r="C34" s="200"/>
-      <c r="D34" s="32" t="s">
+      <c r="I35" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>407</v>
-      </c>
-      <c r="F34" s="32" t="s">
+      <c r="J35" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="159"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="36" t="s">
         <v>422</v>
       </c>
-      <c r="G34" s="34" t="s">
+      <c r="H36" s="213"/>
+      <c r="I36" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="J36" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="159"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="32" t="s">
         <v>424</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="212"/>
-      <c r="C35" s="200"/>
-      <c r="D35" s="182" t="s">
-        <v>426</v>
-      </c>
-      <c r="E35" s="192" t="s">
-        <v>427</v>
-      </c>
-      <c r="F35" s="182" t="s">
-        <v>428</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="H35" s="170" t="s">
-        <v>430</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="212"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="36" t="s">
-        <v>432</v>
-      </c>
-      <c r="H36" s="171"/>
-      <c r="I36" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="212"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="32" t="s">
-        <v>434</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G37" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="160"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="181" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="189" t="s">
+        <v>397</v>
+      </c>
+      <c r="F38" s="201" t="s">
+        <v>429</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="H38" s="214" t="s">
+        <v>431</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="J38" s="38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="160"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="181"/>
+      <c r="E39" s="190"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="H39" s="215"/>
+      <c r="I39" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="J39" s="38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="160"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="181"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="H40" s="216"/>
+      <c r="I40" s="38" t="s">
         <v>436</v>
       </c>
-      <c r="H37" s="32" t="s">
+      <c r="J40" s="38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="161" t="s">
         <v>437</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="C41" s="170" t="s">
         <v>438</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="213"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="198" t="s">
-        <v>381</v>
-      </c>
-      <c r="E38" s="189" t="s">
-        <v>407</v>
-      </c>
-      <c r="F38" s="154" t="s">
+      <c r="D41" s="184" t="s">
         <v>439</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="E41" s="196" t="s">
         <v>440</v>
       </c>
-      <c r="H38" s="172" t="s">
+      <c r="F41" s="203" t="s">
         <v>441</v>
       </c>
-      <c r="I38" s="38" t="s">
+      <c r="G41" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="J38" s="38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="213"/>
-      <c r="C39" s="201"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="190"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="39" t="s">
+      <c r="H41" s="217" t="s">
         <v>443</v>
       </c>
-      <c r="H39" s="173"/>
-      <c r="I39" s="38" t="s">
+      <c r="I41" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="J39" s="38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="213"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="40" t="s">
+      <c r="J41" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="161"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="H40" s="174"/>
-      <c r="I40" s="38" t="s">
+      <c r="J42" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="161"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="J40" s="38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="214" t="s">
+      <c r="E43" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="C41" s="202" t="s">
+      <c r="F43" s="45" t="s">
         <v>448</v>
-      </c>
-      <c r="D41" s="185" t="s">
-        <v>449</v>
-      </c>
-      <c r="E41" s="194" t="s">
-        <v>450</v>
-      </c>
-      <c r="F41" s="155" t="s">
-        <v>451</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="H41" s="175" t="s">
-        <v>453</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>454</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="214"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="176"/>
-      <c r="I42" s="41" t="s">
-        <v>455</v>
-      </c>
-      <c r="J42" s="41" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="214"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>457</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>458</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="45" t="s">
+        <v>449</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="J43" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="161"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="41" t="s">
+        <v>451</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>452</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>455</v>
+      </c>
+      <c r="J44" s="45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="162" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="173" t="s">
+        <v>457</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="E45" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="F45" s="49" t="s">
         <v>460</v>
       </c>
-      <c r="J43" s="45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="214"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="41" t="s">
+      <c r="G45" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>567</v>
-      </c>
-      <c r="F44" s="42" t="s">
+      <c r="H45" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="G44" s="48" t="s">
+      <c r="I45" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="J45" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="162"/>
+      <c r="C46" s="174"/>
+      <c r="D46" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="I44" s="41" t="s">
+      <c r="E46" s="50" t="s">
         <v>465</v>
       </c>
-      <c r="J44" s="45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="215" t="s">
+      <c r="F46" s="49" t="s">
         <v>466</v>
-      </c>
-      <c r="C45" s="205" t="s">
-        <v>467</v>
-      </c>
-      <c r="D45" s="49" t="s">
-        <v>468</v>
-      </c>
-      <c r="E45" s="50" t="s">
-        <v>469</v>
-      </c>
-      <c r="F45" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>471</v>
-      </c>
-      <c r="H45" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="I45" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="J45" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="215"/>
-      <c r="C46" s="206"/>
-      <c r="D46" s="49" t="s">
-        <v>474</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>475</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>476</v>
       </c>
       <c r="G46" s="51"/>
       <c r="H46" s="49" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="I46" s="49" t="s">
         <v>159</v>
       </c>
       <c r="J46" s="49" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="215"/>
-      <c r="C47" s="206"/>
-      <c r="D47" s="186" t="s">
+      <c r="B47" s="162"/>
+      <c r="C47" s="174"/>
+      <c r="D47" s="185" t="s">
+        <v>468</v>
+      </c>
+      <c r="E47" s="198" t="s">
+        <v>459</v>
+      </c>
+      <c r="F47" s="204" t="s">
+        <v>469</v>
+      </c>
+      <c r="G47" s="52" t="s">
+        <v>470</v>
+      </c>
+      <c r="H47" s="219" t="s">
+        <v>471</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="J47" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="162"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="53" t="s">
+        <v>473</v>
+      </c>
+      <c r="H48" s="220"/>
+      <c r="I48" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="163" t="s">
+        <v>475</v>
+      </c>
+      <c r="C49" s="176" t="s">
+        <v>476</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>477</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F49" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="E47" s="196" t="s">
-        <v>469</v>
-      </c>
-      <c r="F47" s="156" t="s">
+      <c r="G49" s="56" t="s">
         <v>479</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="H49" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="H47" s="177" t="s">
+      <c r="I49" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="I47" s="49" t="s">
+      <c r="J49" s="54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="163"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="54" t="s">
         <v>482</v>
       </c>
-      <c r="J47" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="215"/>
-      <c r="C48" s="207"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="197"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="53" t="s">
+      <c r="E50" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="54" t="s">
         <v>483</v>
       </c>
-      <c r="H48" s="178"/>
-      <c r="I48" s="49" t="s">
+      <c r="G50" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="J48" s="49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="216" t="s">
+      <c r="H50" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="C49" s="208" t="s">
+      <c r="I50" s="54" t="s">
         <v>486</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="J50" s="54" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="163"/>
+      <c r="C51" s="177"/>
+      <c r="D51" s="54" t="s">
         <v>487</v>
       </c>
-      <c r="E49" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="54" t="s">
+      <c r="E51" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F51" s="54" t="s">
         <v>488</v>
-      </c>
-      <c r="G49" s="56" t="s">
-        <v>489</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>490</v>
-      </c>
-      <c r="I49" s="54" t="s">
-        <v>491</v>
-      </c>
-      <c r="J49" s="54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="216"/>
-      <c r="C50" s="209"/>
-      <c r="D50" s="54" t="s">
-        <v>492</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>495</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="J50" s="54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="216"/>
-      <c r="C51" s="209"/>
-      <c r="D51" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="F51" s="54" t="s">
-        <v>498</v>
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="54" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="I51" s="54" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="J51" s="54" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="216"/>
-      <c r="C52" s="209"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="54" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F52" s="54" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="G52" s="56" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="H52" s="54" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="I52" s="54" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J52" s="54" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="216"/>
-      <c r="C53" s="210"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="178"/>
       <c r="D53" s="54" t="s">
         <v>180</v>
       </c>
       <c r="E53" s="55" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F53" s="54" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G53" s="56" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="H53" s="54" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="I53" s="54" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="J53" s="54" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E3:E4"/>
@@ -9014,32 +9028,24 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="D25:D27"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
+++ b/03.指标管理/权益/指标定义表-权益类V1.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="指标" sheetId="1" r:id="rId1"/>
@@ -2253,7 +2253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2409,174 +2409,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2588,268 +2420,439 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3310,9 +3313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3366,13 +3369,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="143" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="12"/>
@@ -3387,9 +3390,9 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
@@ -3404,9 +3407,9 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
@@ -3423,9 +3426,9 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -3442,9 +3445,9 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -3461,9 +3464,9 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
@@ -3478,9 +3481,9 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="77" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="143" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="12"/>
@@ -3497,9 +3500,9 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -3514,9 +3517,9 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="15" t="s">
@@ -3531,9 +3534,9 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="16" t="s">
@@ -3546,9 +3549,9 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="A12" s="144"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="16" t="s">
@@ -3561,9 +3564,9 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="144"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="16" t="s">
@@ -3576,9 +3579,9 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="144"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="16" t="s">
@@ -3591,9 +3594,9 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="16" t="s">
@@ -3606,9 +3609,9 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="A16" s="144"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="16" t="s">
@@ -3621,9 +3624,9 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="77" t="s">
+      <c r="A17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="143" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="12"/>
@@ -3638,9 +3641,9 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
@@ -3653,9 +3656,9 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="145"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
@@ -3668,8 +3671,8 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="144"/>
+      <c r="B20" s="144"/>
       <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
@@ -3687,9 +3690,9 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="74" t="s">
+      <c r="A21" s="144"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="132" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="12"/>
@@ -3704,9 +3707,9 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="76"/>
+      <c r="A22" s="144"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
@@ -3719,9 +3722,9 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="76"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
@@ -3734,9 +3737,9 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="76"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
@@ -3749,9 +3752,9 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="76"/>
+      <c r="A25" s="144"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
@@ -3764,9 +3767,9 @@
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="76"/>
+      <c r="A26" s="144"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12" t="s">
@@ -3779,9 +3782,9 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="75"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12" t="s">
@@ -3794,13 +3797,13 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="77" t="s">
+      <c r="B28" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="132" t="s">
         <v>45</v>
       </c>
       <c r="D28" s="12"/>
@@ -3819,9 +3822,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="75"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="133"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="18" t="s">
@@ -3834,8 +3837,8 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="78"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
@@ -3853,9 +3856,9 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="74" t="s">
+      <c r="A31" s="134"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="12"/>
@@ -3872,9 +3875,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="75"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
@@ -3887,8 +3890,8 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="78"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="15" t="s">
         <v>505</v>
       </c>
@@ -3906,9 +3909,9 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="74" t="s">
+      <c r="A34" s="134"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="132" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="12"/>
@@ -3923,9 +3926,9 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="75"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12" t="s">
@@ -3938,9 +3941,9 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="74" t="s">
+      <c r="A36" s="134"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="132" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="12"/>
@@ -3955,9 +3958,9 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="75"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="133"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="18" t="s">
@@ -3970,11 +3973,11 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="74" t="s">
+      <c r="A38" s="134"/>
+      <c r="B38" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="132" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="12"/>
@@ -3989,9 +3992,9 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12" t="s">
@@ -4006,9 +4009,9 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="75"/>
+      <c r="A40" s="134"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="133"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12" t="s">
@@ -4023,9 +4026,9 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="76"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="74" t="s">
+      <c r="A41" s="134"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="132" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="12"/>
@@ -4040,9 +4043,9 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="76"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
+      <c r="A42" s="134"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12" t="s">
@@ -4055,9 +4058,9 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
+      <c r="A43" s="134"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12" t="s">
@@ -4070,9 +4073,9 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="76"/>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
+      <c r="A44" s="134"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12" t="s">
@@ -4085,9 +4088,9 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="76"/>
-      <c r="B45" s="76"/>
-      <c r="C45" s="76"/>
+      <c r="A45" s="134"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12" t="s">
@@ -4100,9 +4103,9 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="76"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
+      <c r="A46" s="134"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12" t="s">
@@ -4115,9 +4118,9 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="76"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
+      <c r="A47" s="134"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12" t="s">
@@ -4130,11 +4133,11 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
-      <c r="B48" s="74" t="s">
+      <c r="A48" s="134"/>
+      <c r="B48" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="135" t="s">
         <v>70</v>
       </c>
       <c r="D48" s="12"/>
@@ -4147,9 +4150,9 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="76"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="72"/>
+      <c r="A49" s="134"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="136"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="20" t="s">
@@ -4166,9 +4169,9 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="72"/>
+      <c r="A50" s="134"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="136"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="20" t="s">
@@ -4185,9 +4188,9 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="76"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="73"/>
+      <c r="A51" s="134"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="137"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="20" t="s">
@@ -4204,9 +4207,9 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="71" t="s">
+      <c r="A52" s="134"/>
+      <c r="B52" s="134"/>
+      <c r="C52" s="135" t="s">
         <v>79</v>
       </c>
       <c r="D52" s="12"/>
@@ -4223,9 +4226,9 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="76"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="72"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="136"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="20" t="s">
@@ -4240,9 +4243,9 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="76"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="72"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="136"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="20" t="s">
@@ -4257,9 +4260,9 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="76"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="73"/>
+      <c r="A55" s="134"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="137"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="20" t="s">
@@ -4276,8 +4279,8 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="75"/>
-      <c r="B56" s="75"/>
+      <c r="A56" s="133"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="20" t="s">
         <v>81</v>
       </c>
@@ -4297,13 +4300,13 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="135" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="12"/>
@@ -4320,9 +4323,9 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12" t="s">
@@ -4335,9 +4338,9 @@
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
@@ -4350,9 +4353,9 @@
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
+      <c r="A60" s="136"/>
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
@@ -4365,9 +4368,9 @@
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="73"/>
+      <c r="A61" s="136"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="137"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
@@ -4380,9 +4383,9 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="86" t="s">
+      <c r="A62" s="136"/>
+      <c r="B62" s="136"/>
+      <c r="C62" s="129" t="s">
         <v>506</v>
       </c>
       <c r="D62" s="12"/>
@@ -4397,9 +4400,9 @@
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="87"/>
+      <c r="A63" s="136"/>
+      <c r="B63" s="136"/>
+      <c r="C63" s="130"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="15" t="s">
@@ -4414,9 +4417,9 @@
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="87"/>
+      <c r="A64" s="136"/>
+      <c r="B64" s="136"/>
+      <c r="C64" s="130"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
       <c r="F64" s="15" t="s">
@@ -4431,9 +4434,9 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="87"/>
+      <c r="A65" s="136"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="130"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="15" t="s">
@@ -4448,9 +4451,9 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="88"/>
+      <c r="A66" s="136"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="142"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="15" t="s">
@@ -4465,9 +4468,9 @@
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="72"/>
-      <c r="B67" s="72"/>
-      <c r="C67" s="74" t="s">
+      <c r="A67" s="136"/>
+      <c r="B67" s="136"/>
+      <c r="C67" s="132" t="s">
         <v>94</v>
       </c>
       <c r="D67" s="12"/>
@@ -4484,9 +4487,9 @@
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="72"/>
-      <c r="B68" s="72"/>
-      <c r="C68" s="75"/>
+      <c r="A68" s="136"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="133"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
@@ -4499,9 +4502,9 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="72"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="71" t="s">
+      <c r="A69" s="136"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="135" t="s">
         <v>98</v>
       </c>
       <c r="D69" s="12"/>
@@ -4516,9 +4519,9 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="72"/>
-      <c r="B70" s="72"/>
-      <c r="C70" s="73"/>
+      <c r="A70" s="136"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="137"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="18" t="s">
@@ -4533,9 +4536,9 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="72"/>
-      <c r="B71" s="72"/>
-      <c r="C71" s="71" t="s">
+      <c r="A71" s="136"/>
+      <c r="B71" s="136"/>
+      <c r="C71" s="135" t="s">
         <v>101</v>
       </c>
       <c r="D71" s="12"/>
@@ -4550,9 +4553,9 @@
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="72"/>
-      <c r="B72" s="72"/>
-      <c r="C72" s="73"/>
+      <c r="A72" s="136"/>
+      <c r="B72" s="136"/>
+      <c r="C72" s="137"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="F72" s="12" t="s">
@@ -4565,9 +4568,9 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="72"/>
-      <c r="B73" s="72"/>
-      <c r="C73" s="71" t="s">
+      <c r="A73" s="136"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="135" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="12"/>
@@ -4582,9 +4585,9 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="72"/>
-      <c r="B74" s="72"/>
-      <c r="C74" s="73"/>
+      <c r="A74" s="136"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="137"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="F74" s="12" t="s">
@@ -4597,9 +4600,9 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="74" t="s">
+      <c r="A75" s="136"/>
+      <c r="B75" s="136"/>
+      <c r="C75" s="132" t="s">
         <v>106</v>
       </c>
       <c r="D75" s="12"/>
@@ -4614,9 +4617,9 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="75"/>
+      <c r="A76" s="136"/>
+      <c r="B76" s="136"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="F76" s="12" t="s">
@@ -4629,8 +4632,8 @@
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
+      <c r="A77" s="136"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="12" t="s">
         <v>76</v>
       </c>
@@ -4646,9 +4649,9 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="89" t="s">
+      <c r="A78" s="136"/>
+      <c r="B78" s="136"/>
+      <c r="C78" s="139" t="s">
         <v>516</v>
       </c>
       <c r="D78" s="12"/>
@@ -4663,9 +4666,9 @@
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="75"/>
+      <c r="A79" s="136"/>
+      <c r="B79" s="136"/>
+      <c r="C79" s="133"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="15" t="s">
@@ -4680,9 +4683,9 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="74" t="s">
+      <c r="A80" s="136"/>
+      <c r="B80" s="136"/>
+      <c r="C80" s="132" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="12"/>
@@ -4697,9 +4700,9 @@
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="72"/>
-      <c r="B81" s="72"/>
-      <c r="C81" s="75"/>
+      <c r="A81" s="136"/>
+      <c r="B81" s="136"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
@@ -4712,9 +4715,9 @@
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="90" t="s">
+      <c r="A82" s="136"/>
+      <c r="B82" s="136"/>
+      <c r="C82" s="140" t="s">
         <v>515</v>
       </c>
       <c r="D82" s="12"/>
@@ -4729,9 +4732,9 @@
       <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="72"/>
-      <c r="B83" s="73"/>
-      <c r="C83" s="91"/>
+      <c r="A83" s="136"/>
+      <c r="B83" s="137"/>
+      <c r="C83" s="141"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12" t="s">
@@ -4744,11 +4747,11 @@
       <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
-      <c r="B84" s="71" t="s">
+      <c r="A84" s="136"/>
+      <c r="B84" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="132" t="s">
         <v>113</v>
       </c>
       <c r="D84" s="12"/>
@@ -4763,9 +4766,9 @@
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="76"/>
+      <c r="A85" s="136"/>
+      <c r="B85" s="136"/>
+      <c r="C85" s="134"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12" t="s">
@@ -4782,9 +4785,9 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="75"/>
+      <c r="A86" s="136"/>
+      <c r="B86" s="136"/>
+      <c r="C86" s="133"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="25" t="s">
@@ -4801,9 +4804,9 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="71" t="s">
+      <c r="A87" s="136"/>
+      <c r="B87" s="136"/>
+      <c r="C87" s="135" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="12"/>
@@ -4818,9 +4821,9 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="72"/>
-      <c r="B88" s="72"/>
-      <c r="C88" s="72"/>
+      <c r="A88" s="136"/>
+      <c r="B88" s="136"/>
+      <c r="C88" s="136"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12" t="s">
@@ -4833,9 +4836,9 @@
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="72"/>
-      <c r="B89" s="72"/>
-      <c r="C89" s="72"/>
+      <c r="A89" s="136"/>
+      <c r="B89" s="136"/>
+      <c r="C89" s="136"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="27" t="s">
@@ -4848,9 +4851,9 @@
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="72"/>
-      <c r="B90" s="72"/>
-      <c r="C90" s="73"/>
+      <c r="A90" s="136"/>
+      <c r="B90" s="136"/>
+      <c r="C90" s="137"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12" t="s">
@@ -4867,9 +4870,9 @@
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="72"/>
-      <c r="B91" s="72"/>
-      <c r="C91" s="71" t="s">
+      <c r="A91" s="136"/>
+      <c r="B91" s="136"/>
+      <c r="C91" s="135" t="s">
         <v>118</v>
       </c>
       <c r="D91" s="12"/>
@@ -4884,9 +4887,9 @@
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="72"/>
-      <c r="B92" s="72"/>
-      <c r="C92" s="72"/>
+      <c r="A92" s="136"/>
+      <c r="B92" s="136"/>
+      <c r="C92" s="136"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12" t="s">
@@ -4899,9 +4902,9 @@
       <c r="K92" s="12"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="72"/>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
+      <c r="A93" s="136"/>
+      <c r="B93" s="136"/>
+      <c r="C93" s="136"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="27" t="s">
@@ -4914,9 +4917,9 @@
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="72"/>
-      <c r="B94" s="72"/>
-      <c r="C94" s="73"/>
+      <c r="A94" s="136"/>
+      <c r="B94" s="136"/>
+      <c r="C94" s="137"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
       <c r="F94" s="12" t="s">
@@ -4931,9 +4934,9 @@
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="72"/>
-      <c r="B95" s="72"/>
-      <c r="C95" s="92" t="s">
+      <c r="A95" s="136"/>
+      <c r="B95" s="136"/>
+      <c r="C95" s="126" t="s">
         <v>527</v>
       </c>
       <c r="D95" s="12"/>
@@ -4952,9 +4955,9 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="72"/>
-      <c r="B96" s="72"/>
-      <c r="C96" s="93"/>
+      <c r="A96" s="136"/>
+      <c r="B96" s="136"/>
+      <c r="C96" s="127"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12" t="s">
@@ -4967,9 +4970,9 @@
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="72"/>
-      <c r="B97" s="72"/>
-      <c r="C97" s="93"/>
+      <c r="A97" s="136"/>
+      <c r="B97" s="136"/>
+      <c r="C97" s="127"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12" t="s">
@@ -4982,9 +4985,9 @@
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="72"/>
-      <c r="B98" s="72"/>
-      <c r="C98" s="93"/>
+      <c r="A98" s="136"/>
+      <c r="B98" s="136"/>
+      <c r="C98" s="127"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12" t="s">
@@ -4997,9 +5000,9 @@
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="72"/>
-      <c r="B99" s="72"/>
-      <c r="C99" s="93"/>
+      <c r="A99" s="136"/>
+      <c r="B99" s="136"/>
+      <c r="C99" s="127"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12" t="s">
@@ -5012,9 +5015,9 @@
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="72"/>
-      <c r="B100" s="72"/>
-      <c r="C100" s="93"/>
+      <c r="A100" s="136"/>
+      <c r="B100" s="136"/>
+      <c r="C100" s="127"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12"/>
       <c r="F100" s="12" t="s">
@@ -5027,9 +5030,9 @@
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="72"/>
-      <c r="B101" s="72"/>
-      <c r="C101" s="93"/>
+      <c r="A101" s="136"/>
+      <c r="B101" s="136"/>
+      <c r="C101" s="127"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12" t="s">
@@ -5042,9 +5045,9 @@
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="72"/>
-      <c r="B102" s="72"/>
-      <c r="C102" s="94"/>
+      <c r="A102" s="136"/>
+      <c r="B102" s="136"/>
+      <c r="C102" s="128"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12" t="s">
@@ -5057,8 +5060,8 @@
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="72"/>
-      <c r="B103" s="72"/>
+      <c r="A103" s="136"/>
+      <c r="B103" s="136"/>
       <c r="C103" s="12" t="s">
         <v>130</v>
       </c>
@@ -5074,9 +5077,9 @@
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="72"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="71" t="s">
+      <c r="A104" s="136"/>
+      <c r="B104" s="136"/>
+      <c r="C104" s="135" t="s">
         <v>132</v>
       </c>
       <c r="D104" s="12"/>
@@ -5093,9 +5096,9 @@
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="72"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
+      <c r="A105" s="136"/>
+      <c r="B105" s="136"/>
+      <c r="C105" s="136"/>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="18" t="s">
@@ -5112,9 +5115,9 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="72"/>
-      <c r="B106" s="72"/>
-      <c r="C106" s="73"/>
+      <c r="A106" s="136"/>
+      <c r="B106" s="136"/>
+      <c r="C106" s="137"/>
       <c r="D106" s="12"/>
       <c r="E106" s="12"/>
       <c r="F106" s="12" t="s">
@@ -5127,9 +5130,9 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" s="72"/>
-      <c r="B107" s="72"/>
-      <c r="C107" s="71" t="s">
+      <c r="A107" s="136"/>
+      <c r="B107" s="136"/>
+      <c r="C107" s="135" t="s">
         <v>137</v>
       </c>
       <c r="D107" s="12"/>
@@ -5144,9 +5147,9 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" s="72"/>
-      <c r="B108" s="72"/>
-      <c r="C108" s="72"/>
+      <c r="A108" s="136"/>
+      <c r="B108" s="136"/>
+      <c r="C108" s="136"/>
       <c r="D108" s="12"/>
       <c r="E108" s="12"/>
       <c r="F108" s="12" t="s">
@@ -5161,9 +5164,9 @@
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="72"/>
-      <c r="B109" s="72"/>
-      <c r="C109" s="73"/>
+      <c r="A109" s="136"/>
+      <c r="B109" s="136"/>
+      <c r="C109" s="137"/>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12" t="s">
@@ -5176,9 +5179,9 @@
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="72"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="71" t="s">
+      <c r="A110" s="136"/>
+      <c r="B110" s="136"/>
+      <c r="C110" s="135" t="s">
         <v>140</v>
       </c>
       <c r="D110" s="12"/>
@@ -5193,9 +5196,9 @@
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" s="72"/>
-      <c r="B111" s="72"/>
-      <c r="C111" s="72"/>
+      <c r="A111" s="136"/>
+      <c r="B111" s="136"/>
+      <c r="C111" s="136"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12" t="s">
@@ -5210,9 +5213,9 @@
       <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="72"/>
-      <c r="B112" s="72"/>
-      <c r="C112" s="73"/>
+      <c r="A112" s="136"/>
+      <c r="B112" s="136"/>
+      <c r="C112" s="137"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
       <c r="F112" s="12" t="s">
@@ -5225,8 +5228,8 @@
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" s="72"/>
-      <c r="B113" s="73"/>
+      <c r="A113" s="136"/>
+      <c r="B113" s="137"/>
       <c r="C113" s="28" t="s">
         <v>142</v>
       </c>
@@ -5244,11 +5247,11 @@
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="72"/>
-      <c r="B114" s="71" t="s">
+      <c r="A114" s="136"/>
+      <c r="B114" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="C114" s="95" t="s">
+      <c r="C114" s="138" t="s">
         <v>536</v>
       </c>
       <c r="D114" s="12"/>
@@ -5267,9 +5270,9 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" s="72"/>
-      <c r="B115" s="72"/>
-      <c r="C115" s="73"/>
+      <c r="A115" s="136"/>
+      <c r="B115" s="136"/>
+      <c r="C115" s="137"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12" t="s">
@@ -5284,8 +5287,8 @@
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" s="72"/>
-      <c r="B116" s="72"/>
+      <c r="A116" s="136"/>
+      <c r="B116" s="136"/>
       <c r="C116" s="12" t="s">
         <v>147</v>
       </c>
@@ -5303,8 +5306,8 @@
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" s="72"/>
-      <c r="B117" s="72"/>
+      <c r="A117" s="136"/>
+      <c r="B117" s="136"/>
       <c r="C117" s="12" t="s">
         <v>150</v>
       </c>
@@ -5322,8 +5325,8 @@
       <c r="K117" s="12"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" s="72"/>
-      <c r="B118" s="72"/>
+      <c r="A118" s="136"/>
+      <c r="B118" s="136"/>
       <c r="C118" s="12" t="s">
         <v>152</v>
       </c>
@@ -5345,8 +5348,8 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="72"/>
-      <c r="B119" s="72"/>
+      <c r="A119" s="136"/>
+      <c r="B119" s="136"/>
       <c r="C119" s="12" t="s">
         <v>153</v>
       </c>
@@ -5368,9 +5371,9 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A120" s="72"/>
-      <c r="B120" s="72"/>
-      <c r="C120" s="71" t="s">
+      <c r="A120" s="136"/>
+      <c r="B120" s="136"/>
+      <c r="C120" s="135" t="s">
         <v>154</v>
       </c>
       <c r="D120" s="12"/>
@@ -5389,9 +5392,9 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" s="72"/>
-      <c r="B121" s="72"/>
-      <c r="C121" s="72"/>
+      <c r="A121" s="136"/>
+      <c r="B121" s="136"/>
+      <c r="C121" s="136"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="31" t="s">
@@ -5406,9 +5409,9 @@
       <c r="K121" s="18"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" s="72"/>
-      <c r="B122" s="72"/>
-      <c r="C122" s="72"/>
+      <c r="A122" s="136"/>
+      <c r="B122" s="136"/>
+      <c r="C122" s="136"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="31" t="s">
@@ -5423,9 +5426,9 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" s="72"/>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
+      <c r="A123" s="136"/>
+      <c r="B123" s="136"/>
+      <c r="C123" s="136"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="31" t="s">
@@ -5440,9 +5443,9 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" s="72"/>
-      <c r="B124" s="72"/>
-      <c r="C124" s="73"/>
+      <c r="A124" s="136"/>
+      <c r="B124" s="136"/>
+      <c r="C124" s="137"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
       <c r="F124" s="32" t="s">
@@ -5455,8 +5458,8 @@
       <c r="K124" s="12"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72"/>
+      <c r="A125" s="136"/>
+      <c r="B125" s="136"/>
       <c r="C125" s="12" t="s">
         <v>130</v>
       </c>
@@ -5472,9 +5475,9 @@
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" s="72"/>
-      <c r="B126" s="72"/>
-      <c r="C126" s="92" t="s">
+      <c r="A126" s="136"/>
+      <c r="B126" s="136"/>
+      <c r="C126" s="221" t="s">
         <v>566</v>
       </c>
       <c r="D126" s="12"/>
@@ -5491,9 +5494,9 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A127" s="72"/>
-      <c r="B127" s="72"/>
-      <c r="C127" s="93"/>
+      <c r="A127" s="136"/>
+      <c r="B127" s="136"/>
+      <c r="C127" s="127"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12" t="s">
@@ -5506,9 +5509,9 @@
       <c r="K127" s="12"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A128" s="72"/>
-      <c r="B128" s="72"/>
-      <c r="C128" s="94"/>
+      <c r="A128" s="136"/>
+      <c r="B128" s="136"/>
+      <c r="C128" s="128"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12" t="s">
@@ -5523,9 +5526,9 @@
       <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" s="72"/>
-      <c r="B129" s="72"/>
-      <c r="C129" s="92" t="s">
+      <c r="A129" s="136"/>
+      <c r="B129" s="136"/>
+      <c r="C129" s="126" t="s">
         <v>551</v>
       </c>
       <c r="D129" s="12"/>
@@ -5540,9 +5543,9 @@
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" s="72"/>
-      <c r="B130" s="72"/>
-      <c r="C130" s="93"/>
+      <c r="A130" s="136"/>
+      <c r="B130" s="136"/>
+      <c r="C130" s="127"/>
       <c r="D130" s="12"/>
       <c r="E130" s="12"/>
       <c r="F130" s="12" t="s">
@@ -5555,9 +5558,9 @@
       <c r="K130" s="12"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A131" s="72"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="94"/>
+      <c r="A131" s="136"/>
+      <c r="B131" s="136"/>
+      <c r="C131" s="128"/>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12" t="s">
@@ -5572,9 +5575,9 @@
       <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A132" s="72"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="86" t="s">
+      <c r="A132" s="136"/>
+      <c r="B132" s="136"/>
+      <c r="C132" s="129" t="s">
         <v>567</v>
       </c>
       <c r="D132" s="12"/>
@@ -5589,9 +5592,9 @@
       <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A133" s="72"/>
-      <c r="B133" s="72"/>
-      <c r="C133" s="87"/>
+      <c r="A133" s="136"/>
+      <c r="B133" s="136"/>
+      <c r="C133" s="130"/>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12" t="s">
@@ -5604,9 +5607,9 @@
       <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A134" s="72"/>
-      <c r="B134" s="72"/>
-      <c r="C134" s="96"/>
+      <c r="A134" s="136"/>
+      <c r="B134" s="136"/>
+      <c r="C134" s="131"/>
       <c r="D134" s="12"/>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
@@ -5621,11 +5624,11 @@
       <c r="K134" s="12"/>
     </row>
     <row r="135" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="72"/>
-      <c r="B135" s="76" t="s">
+      <c r="A135" s="136"/>
+      <c r="B135" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="C135" s="74" t="s">
+      <c r="C135" s="132" t="s">
         <v>165</v>
       </c>
       <c r="D135" s="12"/>
@@ -5640,9 +5643,9 @@
       <c r="K135" s="12"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="72"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="75"/>
+      <c r="A136" s="136"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="133"/>
       <c r="D136" s="12"/>
       <c r="E136" s="12"/>
       <c r="F136" s="18" t="s">
@@ -5655,8 +5658,8 @@
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="72"/>
-      <c r="B137" s="76"/>
+      <c r="A137" s="136"/>
+      <c r="B137" s="134"/>
       <c r="C137" s="12" t="s">
         <v>168</v>
       </c>
@@ -5674,8 +5677,8 @@
       <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="72"/>
-      <c r="B138" s="76"/>
+      <c r="A138" s="136"/>
+      <c r="B138" s="134"/>
       <c r="C138" s="12" t="s">
         <v>130</v>
       </c>
@@ -5691,8 +5694,8 @@
       <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="72"/>
-      <c r="B139" s="76"/>
+      <c r="A139" s="136"/>
+      <c r="B139" s="134"/>
       <c r="C139" s="12" t="s">
         <v>172</v>
       </c>
@@ -5710,8 +5713,8 @@
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" s="72"/>
-      <c r="B140" s="75"/>
+      <c r="A140" s="136"/>
+      <c r="B140" s="133"/>
       <c r="C140" s="12" t="s">
         <v>175</v>
       </c>
@@ -5725,11 +5728,11 @@
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="72"/>
-      <c r="B141" s="71" t="s">
+      <c r="A141" s="136"/>
+      <c r="B141" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="C141" s="74" t="s">
+      <c r="C141" s="132" t="s">
         <v>177</v>
       </c>
       <c r="D141" s="12"/>
@@ -5744,9 +5747,9 @@
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" s="72"/>
-      <c r="B142" s="72"/>
-      <c r="C142" s="76"/>
+      <c r="A142" s="136"/>
+      <c r="B142" s="136"/>
+      <c r="C142" s="134"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
       <c r="F142" s="12" t="s">
@@ -5759,9 +5762,9 @@
       <c r="K142" s="12"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" s="72"/>
-      <c r="B143" s="72"/>
-      <c r="C143" s="75"/>
+      <c r="A143" s="136"/>
+      <c r="B143" s="136"/>
+      <c r="C143" s="133"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12" t="s">
@@ -5774,8 +5777,8 @@
       <c r="K143" s="12"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" s="73"/>
-      <c r="B144" s="73"/>
+      <c r="A144" s="137"/>
+      <c r="B144" s="137"/>
       <c r="C144" s="12" t="s">
         <v>181</v>
       </c>
@@ -5791,16 +5794,16 @@
       <c r="K144" s="12"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="B145" s="80" t="s">
+      <c r="B145" s="109" t="s">
         <v>184</v>
       </c>
-      <c r="C145" s="97" t="s">
+      <c r="C145" s="118" t="s">
         <v>184</v>
       </c>
-      <c r="D145" s="80" t="s">
+      <c r="D145" s="109" t="s">
         <v>185</v>
       </c>
       <c r="F145" s="20" t="s">
@@ -5814,10 +5817,10 @@
       <c r="K145" s="19"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="84"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="82"/>
+      <c r="A146" s="147"/>
+      <c r="B146" s="110"/>
+      <c r="C146" s="119"/>
+      <c r="D146" s="111"/>
       <c r="F146" s="20" t="s">
         <v>186</v>
       </c>
@@ -5829,9 +5832,9 @@
       <c r="K146" s="19"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="84"/>
-      <c r="B147" s="81"/>
-      <c r="C147" s="98"/>
+      <c r="A147" s="147"/>
+      <c r="B147" s="110"/>
+      <c r="C147" s="119"/>
       <c r="D147" s="36" t="s">
         <v>187</v>
       </c>
@@ -5844,10 +5847,10 @@
       <c r="K147" s="19"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="84"/>
-      <c r="B148" s="81"/>
-      <c r="C148" s="98"/>
-      <c r="D148" s="80" t="s">
+      <c r="A148" s="147"/>
+      <c r="B148" s="110"/>
+      <c r="C148" s="119"/>
+      <c r="D148" s="109" t="s">
         <v>189</v>
       </c>
       <c r="F148" s="20" t="s">
@@ -5859,10 +5862,10 @@
       <c r="K148" s="19"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="84"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="98"/>
-      <c r="D149" s="81"/>
+      <c r="A149" s="147"/>
+      <c r="B149" s="110"/>
+      <c r="C149" s="119"/>
+      <c r="D149" s="110"/>
       <c r="F149" s="20" t="s">
         <v>191</v>
       </c>
@@ -5872,10 +5875,10 @@
       <c r="K149" s="19"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" s="84"/>
-      <c r="B150" s="81"/>
-      <c r="C150" s="98"/>
-      <c r="D150" s="82"/>
+      <c r="A150" s="147"/>
+      <c r="B150" s="110"/>
+      <c r="C150" s="119"/>
+      <c r="D150" s="111"/>
       <c r="F150" s="20" t="s">
         <v>192</v>
       </c>
@@ -5885,10 +5888,10 @@
       <c r="K150" s="19"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" s="84"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="98"/>
-      <c r="D151" s="80" t="s">
+      <c r="A151" s="147"/>
+      <c r="B151" s="110"/>
+      <c r="C151" s="119"/>
+      <c r="D151" s="109" t="s">
         <v>193</v>
       </c>
       <c r="F151" s="20" t="s">
@@ -5902,10 +5905,10 @@
       <c r="K151" s="19"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="84"/>
-      <c r="B152" s="81"/>
-      <c r="C152" s="98"/>
-      <c r="D152" s="82"/>
+      <c r="A152" s="147"/>
+      <c r="B152" s="110"/>
+      <c r="C152" s="119"/>
+      <c r="D152" s="111"/>
       <c r="F152" s="20" t="s">
         <v>196</v>
       </c>
@@ -5915,10 +5918,10 @@
       <c r="K152" s="38"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A153" s="84"/>
-      <c r="B153" s="81"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="80" t="s">
+      <c r="A153" s="147"/>
+      <c r="B153" s="110"/>
+      <c r="C153" s="119"/>
+      <c r="D153" s="109" t="s">
         <v>197</v>
       </c>
       <c r="F153" s="20" t="s">
@@ -5930,10 +5933,10 @@
       <c r="K153" s="19"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" s="84"/>
-      <c r="B154" s="81"/>
-      <c r="C154" s="98"/>
-      <c r="D154" s="82"/>
+      <c r="A154" s="147"/>
+      <c r="B154" s="110"/>
+      <c r="C154" s="119"/>
+      <c r="D154" s="111"/>
       <c r="F154" s="20" t="s">
         <v>196</v>
       </c>
@@ -5945,10 +5948,10 @@
       <c r="K154" s="19"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="84"/>
-      <c r="B155" s="81"/>
-      <c r="C155" s="98"/>
-      <c r="D155" s="80" t="s">
+      <c r="A155" s="147"/>
+      <c r="B155" s="110"/>
+      <c r="C155" s="119"/>
+      <c r="D155" s="109" t="s">
         <v>200</v>
       </c>
       <c r="F155" s="20" t="s">
@@ -5960,10 +5963,10 @@
       <c r="K155" s="19"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="84"/>
-      <c r="B156" s="81"/>
-      <c r="C156" s="98"/>
-      <c r="D156" s="81"/>
+      <c r="A156" s="147"/>
+      <c r="B156" s="110"/>
+      <c r="C156" s="119"/>
+      <c r="D156" s="110"/>
       <c r="F156" s="20" t="s">
         <v>202</v>
       </c>
@@ -5973,10 +5976,10 @@
       <c r="K156" s="19"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="84"/>
-      <c r="B157" s="81"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="81"/>
+      <c r="A157" s="147"/>
+      <c r="B157" s="110"/>
+      <c r="C157" s="119"/>
+      <c r="D157" s="110"/>
       <c r="F157" s="20" t="s">
         <v>203</v>
       </c>
@@ -5986,10 +5989,10 @@
       <c r="K157" s="19"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="84"/>
-      <c r="B158" s="81"/>
-      <c r="C158" s="98"/>
-      <c r="D158" s="81"/>
+      <c r="A158" s="147"/>
+      <c r="B158" s="110"/>
+      <c r="C158" s="119"/>
+      <c r="D158" s="110"/>
       <c r="F158" s="20" t="s">
         <v>190</v>
       </c>
@@ -5999,10 +6002,10 @@
       <c r="K158" s="19"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="84"/>
-      <c r="B159" s="81"/>
-      <c r="C159" s="98"/>
-      <c r="D159" s="81"/>
+      <c r="A159" s="147"/>
+      <c r="B159" s="110"/>
+      <c r="C159" s="119"/>
+      <c r="D159" s="110"/>
       <c r="F159" s="20" t="s">
         <v>204</v>
       </c>
@@ -6012,10 +6015,10 @@
       <c r="K159" s="19"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="84"/>
-      <c r="B160" s="81"/>
-      <c r="C160" s="99"/>
-      <c r="D160" s="82"/>
+      <c r="A160" s="147"/>
+      <c r="B160" s="110"/>
+      <c r="C160" s="125"/>
+      <c r="D160" s="111"/>
       <c r="F160" s="20" t="s">
         <v>205</v>
       </c>
@@ -6025,12 +6028,12 @@
       <c r="K160" s="40"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" s="84"/>
-      <c r="B161" s="81"/>
-      <c r="C161" s="108" t="s">
+      <c r="A161" s="147"/>
+      <c r="B161" s="110"/>
+      <c r="C161" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="D161" s="80" t="s">
+      <c r="D161" s="109" t="s">
         <v>206</v>
       </c>
       <c r="F161" s="20" t="s">
@@ -6042,10 +6045,10 @@
       <c r="K161" s="19"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" s="84"/>
-      <c r="B162" s="81"/>
-      <c r="C162" s="109"/>
-      <c r="D162" s="81"/>
+      <c r="A162" s="147"/>
+      <c r="B162" s="110"/>
+      <c r="C162" s="123"/>
+      <c r="D162" s="110"/>
       <c r="F162" s="20" t="s">
         <v>207</v>
       </c>
@@ -6055,10 +6058,10 @@
       <c r="K162" s="19"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" s="84"/>
-      <c r="B163" s="81"/>
-      <c r="C163" s="109"/>
-      <c r="D163" s="81"/>
+      <c r="A163" s="147"/>
+      <c r="B163" s="110"/>
+      <c r="C163" s="123"/>
+      <c r="D163" s="110"/>
       <c r="F163" s="20" t="s">
         <v>208</v>
       </c>
@@ -6068,10 +6071,10 @@
       <c r="K163" s="19"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" s="84"/>
-      <c r="B164" s="81"/>
-      <c r="C164" s="109"/>
-      <c r="D164" s="81"/>
+      <c r="A164" s="147"/>
+      <c r="B164" s="110"/>
+      <c r="C164" s="123"/>
+      <c r="D164" s="110"/>
       <c r="F164" s="20" t="s">
         <v>209</v>
       </c>
@@ -6081,10 +6084,10 @@
       <c r="K164" s="19"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" s="84"/>
-      <c r="B165" s="81"/>
-      <c r="C165" s="109"/>
-      <c r="D165" s="81"/>
+      <c r="A165" s="147"/>
+      <c r="B165" s="110"/>
+      <c r="C165" s="123"/>
+      <c r="D165" s="110"/>
       <c r="F165" s="41" t="s">
         <v>210</v>
       </c>
@@ -6094,10 +6097,10 @@
       <c r="K165" s="19"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" s="84"/>
-      <c r="B166" s="81"/>
-      <c r="C166" s="109"/>
-      <c r="D166" s="81"/>
+      <c r="A166" s="147"/>
+      <c r="B166" s="110"/>
+      <c r="C166" s="123"/>
+      <c r="D166" s="110"/>
       <c r="F166" s="41" t="s">
         <v>211</v>
       </c>
@@ -6107,10 +6110,10 @@
       <c r="K166" s="19"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" s="84"/>
-      <c r="B167" s="81"/>
-      <c r="C167" s="109"/>
-      <c r="D167" s="81"/>
+      <c r="A167" s="147"/>
+      <c r="B167" s="110"/>
+      <c r="C167" s="123"/>
+      <c r="D167" s="110"/>
       <c r="F167" s="41" t="s">
         <v>212</v>
       </c>
@@ -6120,10 +6123,10 @@
       <c r="K167" s="19"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" s="84"/>
-      <c r="B168" s="81"/>
-      <c r="C168" s="109"/>
-      <c r="D168" s="81"/>
+      <c r="A168" s="147"/>
+      <c r="B168" s="110"/>
+      <c r="C168" s="123"/>
+      <c r="D168" s="110"/>
       <c r="F168" s="20" t="s">
         <v>213</v>
       </c>
@@ -6133,10 +6136,10 @@
       <c r="K168" s="19"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" s="84"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="109"/>
-      <c r="D169" s="81"/>
+      <c r="A169" s="147"/>
+      <c r="B169" s="110"/>
+      <c r="C169" s="123"/>
+      <c r="D169" s="110"/>
       <c r="F169" s="20" t="s">
         <v>214</v>
       </c>
@@ -6146,10 +6149,10 @@
       <c r="K169" s="19"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" s="84"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="109"/>
-      <c r="D170" s="81"/>
+      <c r="A170" s="147"/>
+      <c r="B170" s="110"/>
+      <c r="C170" s="123"/>
+      <c r="D170" s="110"/>
       <c r="F170" s="20" t="s">
         <v>215</v>
       </c>
@@ -6159,10 +6162,10 @@
       <c r="K170" s="19"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" s="84"/>
-      <c r="B171" s="81"/>
-      <c r="C171" s="109"/>
-      <c r="D171" s="81"/>
+      <c r="A171" s="147"/>
+      <c r="B171" s="110"/>
+      <c r="C171" s="123"/>
+      <c r="D171" s="110"/>
       <c r="F171" s="20" t="s">
         <v>216</v>
       </c>
@@ -6172,10 +6175,10 @@
       <c r="K171" s="19"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" s="84"/>
-      <c r="B172" s="81"/>
-      <c r="C172" s="109"/>
-      <c r="D172" s="81"/>
+      <c r="A172" s="147"/>
+      <c r="B172" s="110"/>
+      <c r="C172" s="123"/>
+      <c r="D172" s="110"/>
       <c r="F172" s="20" t="s">
         <v>217</v>
       </c>
@@ -6185,10 +6188,10 @@
       <c r="K172" s="19"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" s="84"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="109"/>
-      <c r="D173" s="81"/>
+      <c r="A173" s="147"/>
+      <c r="B173" s="110"/>
+      <c r="C173" s="123"/>
+      <c r="D173" s="110"/>
       <c r="F173" s="20" t="s">
         <v>218</v>
       </c>
@@ -6198,10 +6201,10 @@
       <c r="K173" s="19"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" s="84"/>
-      <c r="B174" s="81"/>
-      <c r="C174" s="109"/>
-      <c r="D174" s="81"/>
+      <c r="A174" s="147"/>
+      <c r="B174" s="110"/>
+      <c r="C174" s="123"/>
+      <c r="D174" s="110"/>
       <c r="F174" s="20" t="s">
         <v>219</v>
       </c>
@@ -6211,10 +6214,10 @@
       <c r="K174" s="19"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" s="84"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="109"/>
-      <c r="D175" s="81"/>
+      <c r="A175" s="147"/>
+      <c r="B175" s="110"/>
+      <c r="C175" s="123"/>
+      <c r="D175" s="110"/>
       <c r="F175" s="20" t="s">
         <v>220</v>
       </c>
@@ -6224,10 +6227,10 @@
       <c r="K175" s="19"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" s="84"/>
-      <c r="B176" s="81"/>
-      <c r="C176" s="109"/>
-      <c r="D176" s="81"/>
+      <c r="A176" s="147"/>
+      <c r="B176" s="110"/>
+      <c r="C176" s="123"/>
+      <c r="D176" s="110"/>
       <c r="F176" s="20" t="s">
         <v>221</v>
       </c>
@@ -6237,10 +6240,10 @@
       <c r="K176" s="19"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A177" s="84"/>
-      <c r="B177" s="81"/>
-      <c r="C177" s="109"/>
-      <c r="D177" s="81"/>
+      <c r="A177" s="147"/>
+      <c r="B177" s="110"/>
+      <c r="C177" s="123"/>
+      <c r="D177" s="110"/>
       <c r="F177" s="20" t="s">
         <v>222</v>
       </c>
@@ -6250,10 +6253,10 @@
       <c r="K177" s="19"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" s="84"/>
-      <c r="B178" s="81"/>
-      <c r="C178" s="109"/>
-      <c r="D178" s="81"/>
+      <c r="A178" s="147"/>
+      <c r="B178" s="110"/>
+      <c r="C178" s="123"/>
+      <c r="D178" s="110"/>
       <c r="F178" s="20" t="s">
         <v>223</v>
       </c>
@@ -6263,10 +6266,10 @@
       <c r="K178" s="19"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" s="84"/>
-      <c r="B179" s="81"/>
-      <c r="C179" s="109"/>
-      <c r="D179" s="81"/>
+      <c r="A179" s="147"/>
+      <c r="B179" s="110"/>
+      <c r="C179" s="123"/>
+      <c r="D179" s="110"/>
       <c r="F179" s="20" t="s">
         <v>224</v>
       </c>
@@ -6276,10 +6279,10 @@
       <c r="K179" s="19"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" s="84"/>
-      <c r="B180" s="81"/>
-      <c r="C180" s="109"/>
-      <c r="D180" s="81"/>
+      <c r="A180" s="147"/>
+      <c r="B180" s="110"/>
+      <c r="C180" s="123"/>
+      <c r="D180" s="110"/>
       <c r="F180" s="20" t="s">
         <v>225</v>
       </c>
@@ -6289,10 +6292,10 @@
       <c r="K180" s="19"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" s="84"/>
-      <c r="B181" s="81"/>
-      <c r="C181" s="109"/>
-      <c r="D181" s="81"/>
+      <c r="A181" s="147"/>
+      <c r="B181" s="110"/>
+      <c r="C181" s="123"/>
+      <c r="D181" s="110"/>
       <c r="F181" s="20" t="s">
         <v>226</v>
       </c>
@@ -6302,10 +6305,10 @@
       <c r="K181" s="19"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" s="84"/>
-      <c r="B182" s="81"/>
-      <c r="C182" s="109"/>
-      <c r="D182" s="81"/>
+      <c r="A182" s="147"/>
+      <c r="B182" s="110"/>
+      <c r="C182" s="123"/>
+      <c r="D182" s="110"/>
       <c r="F182" s="20" t="s">
         <v>227</v>
       </c>
@@ -6315,10 +6318,10 @@
       <c r="K182" s="19"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" s="84"/>
-      <c r="B183" s="81"/>
-      <c r="C183" s="109"/>
-      <c r="D183" s="81"/>
+      <c r="A183" s="147"/>
+      <c r="B183" s="110"/>
+      <c r="C183" s="123"/>
+      <c r="D183" s="110"/>
       <c r="F183" s="20" t="s">
         <v>228</v>
       </c>
@@ -6328,10 +6331,10 @@
       <c r="K183" s="19"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" s="84"/>
-      <c r="B184" s="81"/>
-      <c r="C184" s="109"/>
-      <c r="D184" s="81"/>
+      <c r="A184" s="147"/>
+      <c r="B184" s="110"/>
+      <c r="C184" s="123"/>
+      <c r="D184" s="110"/>
       <c r="F184" s="20" t="s">
         <v>229</v>
       </c>
@@ -6341,10 +6344,10 @@
       <c r="K184" s="19"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" s="84"/>
-      <c r="B185" s="81"/>
-      <c r="C185" s="109"/>
-      <c r="D185" s="81"/>
+      <c r="A185" s="147"/>
+      <c r="B185" s="110"/>
+      <c r="C185" s="123"/>
+      <c r="D185" s="110"/>
       <c r="F185" s="20" t="s">
         <v>230</v>
       </c>
@@ -6354,10 +6357,10 @@
       <c r="K185" s="19"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A186" s="84"/>
-      <c r="B186" s="81"/>
-      <c r="C186" s="109"/>
-      <c r="D186" s="81"/>
+      <c r="A186" s="147"/>
+      <c r="B186" s="110"/>
+      <c r="C186" s="123"/>
+      <c r="D186" s="110"/>
       <c r="F186" s="20" t="s">
         <v>231</v>
       </c>
@@ -6367,10 +6370,10 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A187" s="84"/>
-      <c r="B187" s="81"/>
-      <c r="C187" s="109"/>
-      <c r="D187" s="81"/>
+      <c r="A187" s="147"/>
+      <c r="B187" s="110"/>
+      <c r="C187" s="123"/>
+      <c r="D187" s="110"/>
       <c r="F187" s="20" t="s">
         <v>232</v>
       </c>
@@ -6380,10 +6383,10 @@
       <c r="K187" s="19"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A188" s="84"/>
-      <c r="B188" s="81"/>
-      <c r="C188" s="109"/>
-      <c r="D188" s="81"/>
+      <c r="A188" s="147"/>
+      <c r="B188" s="110"/>
+      <c r="C188" s="123"/>
+      <c r="D188" s="110"/>
       <c r="F188" s="20" t="s">
         <v>233</v>
       </c>
@@ -6393,10 +6396,10 @@
       <c r="K188" s="19"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A189" s="84"/>
-      <c r="B189" s="81"/>
-      <c r="C189" s="109"/>
-      <c r="D189" s="81"/>
+      <c r="A189" s="147"/>
+      <c r="B189" s="110"/>
+      <c r="C189" s="123"/>
+      <c r="D189" s="110"/>
       <c r="F189" s="20" t="s">
         <v>234</v>
       </c>
@@ -6406,10 +6409,10 @@
       <c r="K189" s="19"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A190" s="84"/>
-      <c r="B190" s="81"/>
-      <c r="C190" s="109"/>
-      <c r="D190" s="81"/>
+      <c r="A190" s="147"/>
+      <c r="B190" s="110"/>
+      <c r="C190" s="123"/>
+      <c r="D190" s="110"/>
       <c r="F190" s="20" t="s">
         <v>235</v>
       </c>
@@ -6419,10 +6422,10 @@
       <c r="K190" s="19"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" s="84"/>
-      <c r="B191" s="81"/>
-      <c r="C191" s="110"/>
-      <c r="D191" s="82"/>
+      <c r="A191" s="147"/>
+      <c r="B191" s="110"/>
+      <c r="C191" s="124"/>
+      <c r="D191" s="111"/>
       <c r="F191" s="20" t="s">
         <v>236</v>
       </c>
@@ -6432,12 +6435,12 @@
       <c r="K191" s="19"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A192" s="84"/>
-      <c r="B192" s="81"/>
-      <c r="C192" s="108" t="s">
+      <c r="A192" s="147"/>
+      <c r="B192" s="110"/>
+      <c r="C192" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="D192" s="80" t="s">
+      <c r="D192" s="109" t="s">
         <v>237</v>
       </c>
       <c r="F192" s="20" t="s">
@@ -6449,10 +6452,10 @@
       <c r="K192" s="19"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A193" s="84"/>
-      <c r="B193" s="81"/>
-      <c r="C193" s="109"/>
-      <c r="D193" s="81"/>
+      <c r="A193" s="147"/>
+      <c r="B193" s="110"/>
+      <c r="C193" s="123"/>
+      <c r="D193" s="110"/>
       <c r="F193" s="20" t="s">
         <v>66</v>
       </c>
@@ -6462,10 +6465,10 @@
       <c r="K193" s="19"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A194" s="84"/>
-      <c r="B194" s="81"/>
-      <c r="C194" s="109"/>
-      <c r="D194" s="81"/>
+      <c r="A194" s="147"/>
+      <c r="B194" s="110"/>
+      <c r="C194" s="123"/>
+      <c r="D194" s="110"/>
       <c r="F194" s="20" t="s">
         <v>238</v>
       </c>
@@ -6475,10 +6478,10 @@
       <c r="K194" s="19"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" s="84"/>
-      <c r="B195" s="81"/>
-      <c r="C195" s="109"/>
-      <c r="D195" s="81"/>
+      <c r="A195" s="147"/>
+      <c r="B195" s="110"/>
+      <c r="C195" s="123"/>
+      <c r="D195" s="110"/>
       <c r="F195" s="20" t="s">
         <v>213</v>
       </c>
@@ -6488,10 +6491,10 @@
       <c r="K195" s="19"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A196" s="84"/>
-      <c r="B196" s="81"/>
-      <c r="C196" s="109"/>
-      <c r="D196" s="81"/>
+      <c r="A196" s="147"/>
+      <c r="B196" s="110"/>
+      <c r="C196" s="123"/>
+      <c r="D196" s="110"/>
       <c r="F196" s="20" t="s">
         <v>210</v>
       </c>
@@ -6501,10 +6504,10 @@
       <c r="K196" s="19"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A197" s="84"/>
-      <c r="B197" s="81"/>
-      <c r="C197" s="109"/>
-      <c r="D197" s="81"/>
+      <c r="A197" s="147"/>
+      <c r="B197" s="110"/>
+      <c r="C197" s="123"/>
+      <c r="D197" s="110"/>
       <c r="F197" s="20" t="s">
         <v>208</v>
       </c>
@@ -6514,10 +6517,10 @@
       <c r="K197" s="19"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A198" s="84"/>
-      <c r="B198" s="81"/>
-      <c r="C198" s="109"/>
-      <c r="D198" s="81"/>
+      <c r="A198" s="147"/>
+      <c r="B198" s="110"/>
+      <c r="C198" s="123"/>
+      <c r="D198" s="110"/>
       <c r="F198" s="20" t="s">
         <v>215</v>
       </c>
@@ -6527,10 +6530,10 @@
       <c r="K198" s="19"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A199" s="84"/>
-      <c r="B199" s="81"/>
-      <c r="C199" s="109"/>
-      <c r="D199" s="81"/>
+      <c r="A199" s="147"/>
+      <c r="B199" s="110"/>
+      <c r="C199" s="123"/>
+      <c r="D199" s="110"/>
       <c r="F199" s="20" t="s">
         <v>239</v>
       </c>
@@ -6540,10 +6543,10 @@
       <c r="K199" s="19"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A200" s="84"/>
-      <c r="B200" s="81"/>
-      <c r="C200" s="109"/>
-      <c r="D200" s="81"/>
+      <c r="A200" s="147"/>
+      <c r="B200" s="110"/>
+      <c r="C200" s="123"/>
+      <c r="D200" s="110"/>
       <c r="F200" s="20" t="s">
         <v>240</v>
       </c>
@@ -6553,10 +6556,10 @@
       <c r="K200" s="19"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A201" s="84"/>
-      <c r="B201" s="81"/>
-      <c r="C201" s="109"/>
-      <c r="D201" s="81"/>
+      <c r="A201" s="147"/>
+      <c r="B201" s="110"/>
+      <c r="C201" s="123"/>
+      <c r="D201" s="110"/>
       <c r="F201" s="20" t="s">
         <v>241</v>
       </c>
@@ -6566,10 +6569,10 @@
       <c r="K201" s="19"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A202" s="84"/>
-      <c r="B202" s="81"/>
-      <c r="C202" s="109"/>
-      <c r="D202" s="81"/>
+      <c r="A202" s="147"/>
+      <c r="B202" s="110"/>
+      <c r="C202" s="123"/>
+      <c r="D202" s="110"/>
       <c r="F202" s="20" t="s">
         <v>242</v>
       </c>
@@ -6579,10 +6582,10 @@
       <c r="K202" s="19"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A203" s="84"/>
-      <c r="B203" s="81"/>
-      <c r="C203" s="109"/>
-      <c r="D203" s="81"/>
+      <c r="A203" s="147"/>
+      <c r="B203" s="110"/>
+      <c r="C203" s="123"/>
+      <c r="D203" s="110"/>
       <c r="F203" s="20" t="s">
         <v>233</v>
       </c>
@@ -6592,10 +6595,10 @@
       <c r="K203" s="19"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A204" s="84"/>
-      <c r="B204" s="81"/>
-      <c r="C204" s="109"/>
-      <c r="D204" s="81"/>
+      <c r="A204" s="147"/>
+      <c r="B204" s="110"/>
+      <c r="C204" s="123"/>
+      <c r="D204" s="110"/>
       <c r="F204" s="20" t="s">
         <v>234</v>
       </c>
@@ -6605,10 +6608,10 @@
       <c r="K204" s="19"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A205" s="84"/>
-      <c r="B205" s="81"/>
-      <c r="C205" s="109"/>
-      <c r="D205" s="81"/>
+      <c r="A205" s="147"/>
+      <c r="B205" s="110"/>
+      <c r="C205" s="123"/>
+      <c r="D205" s="110"/>
       <c r="F205" s="20" t="s">
         <v>235</v>
       </c>
@@ -6618,10 +6621,10 @@
       <c r="K205" s="19"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A206" s="84"/>
-      <c r="B206" s="81"/>
-      <c r="C206" s="109"/>
-      <c r="D206" s="81"/>
+      <c r="A206" s="147"/>
+      <c r="B206" s="110"/>
+      <c r="C206" s="123"/>
+      <c r="D206" s="110"/>
       <c r="F206" s="20" t="s">
         <v>236</v>
       </c>
@@ -6631,10 +6634,10 @@
       <c r="K206" s="19"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A207" s="84"/>
-      <c r="B207" s="81"/>
-      <c r="C207" s="109"/>
-      <c r="D207" s="81"/>
+      <c r="A207" s="147"/>
+      <c r="B207" s="110"/>
+      <c r="C207" s="123"/>
+      <c r="D207" s="110"/>
       <c r="F207" s="20" t="s">
         <v>243</v>
       </c>
@@ -6644,10 +6647,10 @@
       <c r="K207" s="19"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" s="84"/>
-      <c r="B208" s="81"/>
-      <c r="C208" s="110"/>
-      <c r="D208" s="82"/>
+      <c r="A208" s="147"/>
+      <c r="B208" s="110"/>
+      <c r="C208" s="124"/>
+      <c r="D208" s="111"/>
       <c r="F208" s="20" t="s">
         <v>228</v>
       </c>
@@ -6657,12 +6660,12 @@
       <c r="K208" s="19"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A209" s="84"/>
-      <c r="B209" s="81"/>
-      <c r="C209" s="97" t="s">
+      <c r="A209" s="147"/>
+      <c r="B209" s="110"/>
+      <c r="C209" s="118" t="s">
         <v>244</v>
       </c>
-      <c r="D209" s="80" t="s">
+      <c r="D209" s="109" t="s">
         <v>244</v>
       </c>
       <c r="F209" s="20" t="s">
@@ -6674,10 +6677,10 @@
       <c r="K209" s="19"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A210" s="84"/>
-      <c r="B210" s="81"/>
-      <c r="C210" s="98"/>
-      <c r="D210" s="81"/>
+      <c r="A210" s="147"/>
+      <c r="B210" s="110"/>
+      <c r="C210" s="119"/>
+      <c r="D210" s="110"/>
       <c r="F210" s="20" t="s">
         <v>245</v>
       </c>
@@ -6687,10 +6690,10 @@
       <c r="K210" s="19"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A211" s="84"/>
-      <c r="B211" s="81"/>
-      <c r="C211" s="98"/>
-      <c r="D211" s="81"/>
+      <c r="A211" s="147"/>
+      <c r="B211" s="110"/>
+      <c r="C211" s="119"/>
+      <c r="D211" s="110"/>
       <c r="F211" s="20" t="s">
         <v>124</v>
       </c>
@@ -6700,10 +6703,10 @@
       <c r="K211" s="19"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" s="84"/>
-      <c r="B212" s="81"/>
-      <c r="C212" s="98"/>
-      <c r="D212" s="81"/>
+      <c r="A212" s="147"/>
+      <c r="B212" s="110"/>
+      <c r="C212" s="119"/>
+      <c r="D212" s="110"/>
       <c r="F212" s="20" t="s">
         <v>207</v>
       </c>
@@ -6713,10 +6716,10 @@
       <c r="K212" s="19"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A213" s="84"/>
-      <c r="B213" s="81"/>
-      <c r="C213" s="98"/>
-      <c r="D213" s="81"/>
+      <c r="A213" s="147"/>
+      <c r="B213" s="110"/>
+      <c r="C213" s="119"/>
+      <c r="D213" s="110"/>
       <c r="F213" s="20" t="s">
         <v>210</v>
       </c>
@@ -6726,10 +6729,10 @@
       <c r="K213" s="19"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A214" s="84"/>
-      <c r="B214" s="81"/>
-      <c r="C214" s="98"/>
-      <c r="D214" s="81"/>
+      <c r="A214" s="147"/>
+      <c r="B214" s="110"/>
+      <c r="C214" s="119"/>
+      <c r="D214" s="110"/>
       <c r="F214" s="20" t="s">
         <v>246</v>
       </c>
@@ -6739,10 +6742,10 @@
       <c r="K214" s="19"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A215" s="84"/>
-      <c r="B215" s="81"/>
-      <c r="C215" s="98"/>
-      <c r="D215" s="81"/>
+      <c r="A215" s="147"/>
+      <c r="B215" s="110"/>
+      <c r="C215" s="119"/>
+      <c r="D215" s="110"/>
       <c r="F215" s="20" t="s">
         <v>228</v>
       </c>
@@ -6752,10 +6755,10 @@
       <c r="K215" s="19"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A216" s="84"/>
-      <c r="B216" s="81"/>
-      <c r="C216" s="98"/>
-      <c r="D216" s="81"/>
+      <c r="A216" s="147"/>
+      <c r="B216" s="110"/>
+      <c r="C216" s="119"/>
+      <c r="D216" s="110"/>
       <c r="F216" s="20" t="s">
         <v>247</v>
       </c>
@@ -6765,10 +6768,10 @@
       <c r="K216" s="19"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A217" s="84"/>
-      <c r="B217" s="81"/>
-      <c r="C217" s="98"/>
-      <c r="D217" s="81"/>
+      <c r="A217" s="147"/>
+      <c r="B217" s="110"/>
+      <c r="C217" s="119"/>
+      <c r="D217" s="110"/>
       <c r="F217" s="20" t="s">
         <v>248</v>
       </c>
@@ -6778,10 +6781,10 @@
       <c r="K217" s="19"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A218" s="84"/>
-      <c r="B218" s="81"/>
-      <c r="C218" s="98"/>
-      <c r="D218" s="81"/>
+      <c r="A218" s="147"/>
+      <c r="B218" s="110"/>
+      <c r="C218" s="119"/>
+      <c r="D218" s="110"/>
       <c r="F218" s="20" t="s">
         <v>249</v>
       </c>
@@ -6791,10 +6794,10 @@
       <c r="K218" s="19"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A219" s="84"/>
-      <c r="B219" s="81"/>
-      <c r="C219" s="98"/>
-      <c r="D219" s="81"/>
+      <c r="A219" s="147"/>
+      <c r="B219" s="110"/>
+      <c r="C219" s="119"/>
+      <c r="D219" s="110"/>
       <c r="F219" s="20" t="s">
         <v>51</v>
       </c>
@@ -6804,10 +6807,10 @@
       <c r="K219" s="19"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A220" s="84"/>
-      <c r="B220" s="81"/>
-      <c r="C220" s="98"/>
-      <c r="D220" s="81"/>
+      <c r="A220" s="147"/>
+      <c r="B220" s="110"/>
+      <c r="C220" s="119"/>
+      <c r="D220" s="110"/>
       <c r="F220" s="20" t="s">
         <v>250</v>
       </c>
@@ -6817,10 +6820,10 @@
       <c r="K220" s="19"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A221" s="84"/>
-      <c r="B221" s="81"/>
-      <c r="C221" s="98"/>
-      <c r="D221" s="81"/>
+      <c r="A221" s="147"/>
+      <c r="B221" s="110"/>
+      <c r="C221" s="119"/>
+      <c r="D221" s="110"/>
       <c r="F221" s="20" t="s">
         <v>251</v>
       </c>
@@ -6830,10 +6833,10 @@
       <c r="K221" s="19"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" s="84"/>
-      <c r="B222" s="81"/>
-      <c r="C222" s="98"/>
-      <c r="D222" s="81"/>
+      <c r="A222" s="147"/>
+      <c r="B222" s="110"/>
+      <c r="C222" s="119"/>
+      <c r="D222" s="110"/>
       <c r="F222" s="20" t="s">
         <v>129</v>
       </c>
@@ -6843,10 +6846,10 @@
       <c r="K222" s="19"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A223" s="84"/>
-      <c r="B223" s="81"/>
-      <c r="C223" s="98"/>
-      <c r="D223" s="81"/>
+      <c r="A223" s="147"/>
+      <c r="B223" s="110"/>
+      <c r="C223" s="119"/>
+      <c r="D223" s="110"/>
       <c r="F223" s="20" t="s">
         <v>252</v>
       </c>
@@ -6856,10 +6859,10 @@
       <c r="K223" s="19"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" s="84"/>
-      <c r="B224" s="81"/>
-      <c r="C224" s="98"/>
-      <c r="D224" s="81"/>
+      <c r="A224" s="147"/>
+      <c r="B224" s="110"/>
+      <c r="C224" s="119"/>
+      <c r="D224" s="110"/>
       <c r="F224" s="20" t="s">
         <v>253</v>
       </c>
@@ -6869,10 +6872,10 @@
       <c r="K224" s="19"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A225" s="84"/>
-      <c r="B225" s="81"/>
-      <c r="C225" s="98"/>
-      <c r="D225" s="81"/>
+      <c r="A225" s="147"/>
+      <c r="B225" s="110"/>
+      <c r="C225" s="119"/>
+      <c r="D225" s="110"/>
       <c r="F225" s="20" t="s">
         <v>254</v>
       </c>
@@ -6882,10 +6885,10 @@
       <c r="K225" s="19"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="84"/>
-      <c r="B226" s="81"/>
-      <c r="C226" s="98"/>
-      <c r="D226" s="81"/>
+      <c r="A226" s="147"/>
+      <c r="B226" s="110"/>
+      <c r="C226" s="119"/>
+      <c r="D226" s="110"/>
       <c r="F226" s="20" t="s">
         <v>255</v>
       </c>
@@ -6895,10 +6898,10 @@
       <c r="K226" s="19"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="84"/>
-      <c r="B227" s="81"/>
-      <c r="C227" s="98"/>
-      <c r="D227" s="81"/>
+      <c r="A227" s="147"/>
+      <c r="B227" s="110"/>
+      <c r="C227" s="119"/>
+      <c r="D227" s="110"/>
       <c r="F227" s="20" t="s">
         <v>256</v>
       </c>
@@ -6908,10 +6911,10 @@
       <c r="K227" s="19"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="84"/>
-      <c r="B228" s="81"/>
-      <c r="C228" s="98"/>
-      <c r="D228" s="81"/>
+      <c r="A228" s="147"/>
+      <c r="B228" s="110"/>
+      <c r="C228" s="119"/>
+      <c r="D228" s="110"/>
       <c r="F228" s="20" t="s">
         <v>257</v>
       </c>
@@ -6921,10 +6924,10 @@
       <c r="K228" s="19"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="84"/>
-      <c r="B229" s="81"/>
-      <c r="C229" s="99"/>
-      <c r="D229" s="82"/>
+      <c r="A229" s="147"/>
+      <c r="B229" s="110"/>
+      <c r="C229" s="125"/>
+      <c r="D229" s="111"/>
       <c r="F229" s="20" t="s">
         <v>258</v>
       </c>
@@ -6934,12 +6937,12 @@
       <c r="K229" s="19"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="84"/>
-      <c r="B230" s="81"/>
-      <c r="C230" s="97" t="s">
+      <c r="A230" s="147"/>
+      <c r="B230" s="110"/>
+      <c r="C230" s="118" t="s">
         <v>259</v>
       </c>
-      <c r="D230" s="80" t="s">
+      <c r="D230" s="109" t="s">
         <v>259</v>
       </c>
       <c r="F230" s="20" t="s">
@@ -6951,10 +6954,10 @@
       <c r="K230" s="19"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A231" s="84"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="98"/>
-      <c r="D231" s="81"/>
+      <c r="A231" s="147"/>
+      <c r="B231" s="110"/>
+      <c r="C231" s="119"/>
+      <c r="D231" s="110"/>
       <c r="F231" s="20" t="s">
         <v>261</v>
       </c>
@@ -6964,10 +6967,10 @@
       <c r="K231" s="19"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="84"/>
-      <c r="B232" s="81"/>
-      <c r="C232" s="98"/>
-      <c r="D232" s="81"/>
+      <c r="A232" s="147"/>
+      <c r="B232" s="110"/>
+      <c r="C232" s="119"/>
+      <c r="D232" s="110"/>
       <c r="F232" s="20" t="s">
         <v>66</v>
       </c>
@@ -6977,10 +6980,10 @@
       <c r="K232" s="19"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="84"/>
-      <c r="B233" s="81"/>
-      <c r="C233" s="98"/>
-      <c r="D233" s="81"/>
+      <c r="A233" s="147"/>
+      <c r="B233" s="110"/>
+      <c r="C233" s="119"/>
+      <c r="D233" s="110"/>
       <c r="F233" s="20" t="s">
         <v>262</v>
       </c>
@@ -6990,10 +6993,10 @@
       <c r="K233" s="19"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="84"/>
-      <c r="B234" s="81"/>
-      <c r="C234" s="98"/>
-      <c r="D234" s="81"/>
+      <c r="A234" s="147"/>
+      <c r="B234" s="110"/>
+      <c r="C234" s="119"/>
+      <c r="D234" s="110"/>
       <c r="F234" s="20" t="s">
         <v>263</v>
       </c>
@@ -7003,10 +7006,10 @@
       <c r="K234" s="19"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="84"/>
-      <c r="B235" s="81"/>
-      <c r="C235" s="98"/>
-      <c r="D235" s="81"/>
+      <c r="A235" s="147"/>
+      <c r="B235" s="110"/>
+      <c r="C235" s="119"/>
+      <c r="D235" s="110"/>
       <c r="F235" s="20" t="s">
         <v>264</v>
       </c>
@@ -7016,10 +7019,10 @@
       <c r="K235" s="19"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="84"/>
-      <c r="B236" s="81"/>
-      <c r="C236" s="98"/>
-      <c r="D236" s="81"/>
+      <c r="A236" s="147"/>
+      <c r="B236" s="110"/>
+      <c r="C236" s="119"/>
+      <c r="D236" s="110"/>
       <c r="F236" s="20" t="s">
         <v>208</v>
       </c>
@@ -7029,10 +7032,10 @@
       <c r="K236" s="19"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A237" s="84"/>
-      <c r="B237" s="81"/>
-      <c r="C237" s="98"/>
-      <c r="D237" s="81"/>
+      <c r="A237" s="147"/>
+      <c r="B237" s="110"/>
+      <c r="C237" s="119"/>
+      <c r="D237" s="110"/>
       <c r="F237" s="20" t="s">
         <v>209</v>
       </c>
@@ -7042,10 +7045,10 @@
       <c r="K237" s="19"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A238" s="84"/>
-      <c r="B238" s="81"/>
-      <c r="C238" s="98"/>
-      <c r="D238" s="81"/>
+      <c r="A238" s="147"/>
+      <c r="B238" s="110"/>
+      <c r="C238" s="119"/>
+      <c r="D238" s="110"/>
       <c r="F238" s="20" t="s">
         <v>210</v>
       </c>
@@ -7055,10 +7058,10 @@
       <c r="K238" s="19"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A239" s="84"/>
-      <c r="B239" s="81"/>
-      <c r="C239" s="98"/>
-      <c r="D239" s="81"/>
+      <c r="A239" s="147"/>
+      <c r="B239" s="110"/>
+      <c r="C239" s="119"/>
+      <c r="D239" s="110"/>
       <c r="F239" s="20" t="s">
         <v>265</v>
       </c>
@@ -7068,10 +7071,10 @@
       <c r="K239" s="19"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A240" s="84"/>
-      <c r="B240" s="81"/>
-      <c r="C240" s="98"/>
-      <c r="D240" s="81"/>
+      <c r="A240" s="147"/>
+      <c r="B240" s="110"/>
+      <c r="C240" s="119"/>
+      <c r="D240" s="110"/>
       <c r="F240" s="20" t="s">
         <v>266</v>
       </c>
@@ -7081,10 +7084,10 @@
       <c r="K240" s="19"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A241" s="84"/>
-      <c r="B241" s="81"/>
-      <c r="C241" s="98"/>
-      <c r="D241" s="81"/>
+      <c r="A241" s="147"/>
+      <c r="B241" s="110"/>
+      <c r="C241" s="119"/>
+      <c r="D241" s="110"/>
       <c r="F241" s="20" t="s">
         <v>252</v>
       </c>
@@ -7094,10 +7097,10 @@
       <c r="K241" s="19"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A242" s="84"/>
-      <c r="B242" s="81"/>
-      <c r="C242" s="98"/>
-      <c r="D242" s="81"/>
+      <c r="A242" s="147"/>
+      <c r="B242" s="110"/>
+      <c r="C242" s="119"/>
+      <c r="D242" s="110"/>
       <c r="F242" s="20" t="s">
         <v>267</v>
       </c>
@@ -7107,10 +7110,10 @@
       <c r="K242" s="19"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A243" s="84"/>
-      <c r="B243" s="81"/>
-      <c r="C243" s="98"/>
-      <c r="D243" s="81"/>
+      <c r="A243" s="147"/>
+      <c r="B243" s="110"/>
+      <c r="C243" s="119"/>
+      <c r="D243" s="110"/>
       <c r="F243" s="20" t="s">
         <v>268</v>
       </c>
@@ -7120,10 +7123,10 @@
       <c r="K243" s="19"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A244" s="84"/>
-      <c r="B244" s="81"/>
-      <c r="C244" s="98"/>
-      <c r="D244" s="81"/>
+      <c r="A244" s="147"/>
+      <c r="B244" s="110"/>
+      <c r="C244" s="119"/>
+      <c r="D244" s="110"/>
       <c r="F244" s="20" t="s">
         <v>269</v>
       </c>
@@ -7133,10 +7136,10 @@
       <c r="K244" s="19"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A245" s="84"/>
-      <c r="B245" s="81"/>
-      <c r="C245" s="98"/>
-      <c r="D245" s="81"/>
+      <c r="A245" s="147"/>
+      <c r="B245" s="110"/>
+      <c r="C245" s="119"/>
+      <c r="D245" s="110"/>
       <c r="F245" s="20" t="s">
         <v>270</v>
       </c>
@@ -7146,10 +7149,10 @@
       <c r="K245" s="19"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A246" s="84"/>
-      <c r="B246" s="81"/>
-      <c r="C246" s="98"/>
-      <c r="D246" s="81"/>
+      <c r="A246" s="147"/>
+      <c r="B246" s="110"/>
+      <c r="C246" s="119"/>
+      <c r="D246" s="110"/>
       <c r="F246" s="20" t="s">
         <v>271</v>
       </c>
@@ -7159,10 +7162,10 @@
       <c r="K246" s="19"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A247" s="84"/>
-      <c r="B247" s="81"/>
-      <c r="C247" s="98"/>
-      <c r="D247" s="81"/>
+      <c r="A247" s="147"/>
+      <c r="B247" s="110"/>
+      <c r="C247" s="119"/>
+      <c r="D247" s="110"/>
       <c r="F247" s="20" t="s">
         <v>272</v>
       </c>
@@ -7172,10 +7175,10 @@
       <c r="K247" s="19"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A248" s="85"/>
-      <c r="B248" s="81"/>
-      <c r="C248" s="98"/>
-      <c r="D248" s="81"/>
+      <c r="A248" s="148"/>
+      <c r="B248" s="110"/>
+      <c r="C248" s="119"/>
+      <c r="D248" s="110"/>
       <c r="F248" s="20" t="s">
         <v>273</v>
       </c>
@@ -7185,7 +7188,7 @@
       <c r="K248" s="19"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="80" t="s">
+      <c r="A249" s="109" t="s">
         <v>564</v>
       </c>
       <c r="B249" s="42" t="s">
@@ -7200,14 +7203,14 @@
       <c r="K249" s="19"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A250" s="81"/>
-      <c r="B250" s="80" t="s">
+      <c r="A250" s="110"/>
+      <c r="B250" s="109" t="s">
         <v>275</v>
       </c>
-      <c r="C250" s="80" t="s">
+      <c r="C250" s="109" t="s">
         <v>276</v>
       </c>
-      <c r="D250" s="80"/>
+      <c r="D250" s="109"/>
       <c r="F250" s="20" t="s">
         <v>277</v>
       </c>
@@ -7217,10 +7220,10 @@
       <c r="K250" s="19"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A251" s="81"/>
-      <c r="B251" s="81"/>
-      <c r="C251" s="81"/>
-      <c r="D251" s="81"/>
+      <c r="A251" s="110"/>
+      <c r="B251" s="110"/>
+      <c r="C251" s="110"/>
+      <c r="D251" s="110"/>
       <c r="F251" s="20" t="s">
         <v>278</v>
       </c>
@@ -7230,10 +7233,10 @@
       <c r="K251" s="19"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A252" s="81"/>
-      <c r="B252" s="81"/>
-      <c r="C252" s="81"/>
-      <c r="D252" s="81"/>
+      <c r="A252" s="110"/>
+      <c r="B252" s="110"/>
+      <c r="C252" s="110"/>
+      <c r="D252" s="110"/>
       <c r="F252" s="20" t="s">
         <v>279</v>
       </c>
@@ -7243,10 +7246,10 @@
       <c r="K252" s="19"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A253" s="81"/>
-      <c r="B253" s="81"/>
-      <c r="C253" s="81"/>
-      <c r="D253" s="81"/>
+      <c r="A253" s="110"/>
+      <c r="B253" s="110"/>
+      <c r="C253" s="110"/>
+      <c r="D253" s="110"/>
       <c r="F253" s="43" t="s">
         <v>553</v>
       </c>
@@ -7256,10 +7259,10 @@
       <c r="K253" s="46"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A254" s="81"/>
-      <c r="B254" s="81"/>
-      <c r="C254" s="81"/>
-      <c r="D254" s="81"/>
+      <c r="A254" s="110"/>
+      <c r="B254" s="110"/>
+      <c r="C254" s="110"/>
+      <c r="D254" s="110"/>
       <c r="F254" s="43" t="s">
         <v>554</v>
       </c>
@@ -7269,10 +7272,10 @@
       <c r="K254" s="46"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A255" s="81"/>
-      <c r="B255" s="81"/>
-      <c r="C255" s="81"/>
-      <c r="D255" s="81"/>
+      <c r="A255" s="110"/>
+      <c r="B255" s="110"/>
+      <c r="C255" s="110"/>
+      <c r="D255" s="110"/>
       <c r="F255" s="43" t="s">
         <v>555</v>
       </c>
@@ -7282,10 +7285,10 @@
       <c r="K255" s="46"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A256" s="81"/>
-      <c r="B256" s="81"/>
-      <c r="C256" s="81"/>
-      <c r="D256" s="81"/>
+      <c r="A256" s="110"/>
+      <c r="B256" s="110"/>
+      <c r="C256" s="110"/>
+      <c r="D256" s="110"/>
       <c r="F256" s="43" t="s">
         <v>556</v>
       </c>
@@ -7295,10 +7298,10 @@
       <c r="K256" s="46"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A257" s="81"/>
-      <c r="B257" s="81"/>
-      <c r="C257" s="81"/>
-      <c r="D257" s="81"/>
+      <c r="A257" s="110"/>
+      <c r="B257" s="110"/>
+      <c r="C257" s="110"/>
+      <c r="D257" s="110"/>
       <c r="F257" s="43" t="s">
         <v>76</v>
       </c>
@@ -7308,10 +7311,10 @@
       <c r="K257" s="46"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A258" s="81"/>
-      <c r="B258" s="81"/>
-      <c r="C258" s="81"/>
-      <c r="D258" s="81"/>
+      <c r="A258" s="110"/>
+      <c r="B258" s="110"/>
+      <c r="C258" s="110"/>
+      <c r="D258" s="110"/>
       <c r="F258" s="43" t="s">
         <v>280</v>
       </c>
@@ -7321,10 +7324,10 @@
       <c r="K258" s="46"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A259" s="81"/>
-      <c r="B259" s="81"/>
-      <c r="C259" s="82"/>
-      <c r="D259" s="82"/>
+      <c r="A259" s="110"/>
+      <c r="B259" s="110"/>
+      <c r="C259" s="111"/>
+      <c r="D259" s="111"/>
       <c r="F259" s="43" t="s">
         <v>281</v>
       </c>
@@ -7334,8 +7337,8 @@
       <c r="K259" s="46"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A260" s="81"/>
-      <c r="B260" s="81"/>
+      <c r="A260" s="110"/>
+      <c r="B260" s="110"/>
       <c r="C260" s="47" t="s">
         <v>282</v>
       </c>
@@ -7347,12 +7350,12 @@
       <c r="K260" s="46"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A261" s="81"/>
-      <c r="B261" s="81"/>
-      <c r="C261" s="102" t="s">
+      <c r="A261" s="110"/>
+      <c r="B261" s="110"/>
+      <c r="C261" s="112" t="s">
         <v>283</v>
       </c>
-      <c r="D261" s="102"/>
+      <c r="D261" s="112"/>
       <c r="F261" s="43" t="s">
         <v>284</v>
       </c>
@@ -7364,10 +7367,10 @@
       <c r="K261" s="46"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A262" s="81"/>
-      <c r="B262" s="81"/>
-      <c r="C262" s="103"/>
-      <c r="D262" s="103"/>
+      <c r="A262" s="110"/>
+      <c r="B262" s="110"/>
+      <c r="C262" s="113"/>
+      <c r="D262" s="113"/>
       <c r="F262" s="43" t="s">
         <v>285</v>
       </c>
@@ -7377,10 +7380,10 @@
       <c r="K262" s="46"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A263" s="81"/>
-      <c r="B263" s="81"/>
-      <c r="C263" s="103"/>
-      <c r="D263" s="103"/>
+      <c r="A263" s="110"/>
+      <c r="B263" s="110"/>
+      <c r="C263" s="113"/>
+      <c r="D263" s="113"/>
       <c r="F263" s="43" t="s">
         <v>553</v>
       </c>
@@ -7392,10 +7395,10 @@
       <c r="K263" s="46"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A264" s="81"/>
-      <c r="B264" s="81"/>
-      <c r="C264" s="103"/>
-      <c r="D264" s="103"/>
+      <c r="A264" s="110"/>
+      <c r="B264" s="110"/>
+      <c r="C264" s="113"/>
+      <c r="D264" s="113"/>
       <c r="F264" s="43" t="s">
         <v>558</v>
       </c>
@@ -7405,10 +7408,10 @@
       <c r="K264" s="46"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A265" s="81"/>
-      <c r="B265" s="81"/>
-      <c r="C265" s="103"/>
-      <c r="D265" s="103"/>
+      <c r="A265" s="110"/>
+      <c r="B265" s="110"/>
+      <c r="C265" s="113"/>
+      <c r="D265" s="113"/>
       <c r="F265" s="43" t="s">
         <v>559</v>
       </c>
@@ -7420,10 +7423,10 @@
       <c r="K265" s="46"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A266" s="81"/>
-      <c r="B266" s="81"/>
-      <c r="C266" s="103"/>
-      <c r="D266" s="103"/>
+      <c r="A266" s="110"/>
+      <c r="B266" s="110"/>
+      <c r="C266" s="113"/>
+      <c r="D266" s="113"/>
       <c r="F266" s="43" t="s">
         <v>560</v>
       </c>
@@ -7433,10 +7436,10 @@
       <c r="K266" s="46"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A267" s="81"/>
-      <c r="B267" s="81"/>
-      <c r="C267" s="103"/>
-      <c r="D267" s="103"/>
+      <c r="A267" s="110"/>
+      <c r="B267" s="110"/>
+      <c r="C267" s="113"/>
+      <c r="D267" s="113"/>
       <c r="F267" s="49" t="s">
         <v>287</v>
       </c>
@@ -7448,10 +7451,10 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A268" s="81"/>
-      <c r="B268" s="81"/>
-      <c r="C268" s="103"/>
-      <c r="D268" s="103"/>
+      <c r="A268" s="110"/>
+      <c r="B268" s="110"/>
+      <c r="C268" s="113"/>
+      <c r="D268" s="113"/>
       <c r="F268" s="49" t="s">
         <v>288</v>
       </c>
@@ -7461,10 +7464,10 @@
       <c r="K268" s="46"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A269" s="81"/>
-      <c r="B269" s="81"/>
-      <c r="C269" s="103"/>
-      <c r="D269" s="103"/>
+      <c r="A269" s="110"/>
+      <c r="B269" s="110"/>
+      <c r="C269" s="113"/>
+      <c r="D269" s="113"/>
       <c r="F269" s="43" t="s">
         <v>289</v>
       </c>
@@ -7476,10 +7479,10 @@
       <c r="K269" s="46"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A270" s="81"/>
-      <c r="B270" s="81"/>
-      <c r="C270" s="103"/>
-      <c r="D270" s="103"/>
+      <c r="A270" s="110"/>
+      <c r="B270" s="110"/>
+      <c r="C270" s="113"/>
+      <c r="D270" s="113"/>
       <c r="F270" s="50" t="s">
         <v>286</v>
       </c>
@@ -7493,10 +7496,10 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A271" s="81"/>
-      <c r="B271" s="81"/>
-      <c r="C271" s="104"/>
-      <c r="D271" s="104"/>
+      <c r="A271" s="110"/>
+      <c r="B271" s="110"/>
+      <c r="C271" s="114"/>
+      <c r="D271" s="114"/>
       <c r="F271" s="50" t="s">
         <v>287</v>
       </c>
@@ -7508,12 +7511,12 @@
       <c r="K271" s="46"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A272" s="81"/>
-      <c r="B272" s="81"/>
-      <c r="C272" s="105" t="s">
+      <c r="A272" s="110"/>
+      <c r="B272" s="110"/>
+      <c r="C272" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="D272" s="105"/>
+      <c r="D272" s="115"/>
       <c r="F272" s="43" t="s">
         <v>60</v>
       </c>
@@ -7523,10 +7526,10 @@
       <c r="K272" s="46"/>
     </row>
     <row r="273" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="81"/>
-      <c r="B273" s="81"/>
-      <c r="C273" s="106"/>
-      <c r="D273" s="106"/>
+      <c r="A273" s="110"/>
+      <c r="B273" s="110"/>
+      <c r="C273" s="116"/>
+      <c r="D273" s="116"/>
       <c r="F273" s="43" t="s">
         <v>294</v>
       </c>
@@ -7538,10 +7541,10 @@
       <c r="K273" s="46"/>
     </row>
     <row r="274" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="81"/>
-      <c r="B274" s="81"/>
-      <c r="C274" s="106"/>
-      <c r="D274" s="106"/>
+      <c r="A274" s="110"/>
+      <c r="B274" s="110"/>
+      <c r="C274" s="116"/>
+      <c r="D274" s="116"/>
       <c r="F274" s="43" t="s">
         <v>296</v>
       </c>
@@ -7553,10 +7556,10 @@
       <c r="K274" s="46"/>
     </row>
     <row r="275" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="81"/>
-      <c r="B275" s="81"/>
-      <c r="C275" s="107"/>
-      <c r="D275" s="107"/>
+      <c r="A275" s="110"/>
+      <c r="B275" s="110"/>
+      <c r="C275" s="117"/>
+      <c r="D275" s="117"/>
       <c r="F275" s="43" t="s">
         <v>298</v>
       </c>
@@ -7568,12 +7571,12 @@
       <c r="K275" s="46"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A276" s="81"/>
-      <c r="B276" s="81"/>
-      <c r="C276" s="105" t="s">
+      <c r="A276" s="110"/>
+      <c r="B276" s="110"/>
+      <c r="C276" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="D276" s="105"/>
+      <c r="D276" s="115"/>
       <c r="F276" s="43" t="s">
         <v>190</v>
       </c>
@@ -7585,10 +7588,10 @@
       <c r="K276" s="46"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A277" s="81"/>
-      <c r="B277" s="81"/>
-      <c r="C277" s="106"/>
-      <c r="D277" s="106"/>
+      <c r="A277" s="110"/>
+      <c r="B277" s="110"/>
+      <c r="C277" s="116"/>
+      <c r="D277" s="116"/>
       <c r="F277" s="43" t="s">
         <v>301</v>
       </c>
@@ -7600,10 +7603,10 @@
       <c r="K277" s="46"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A278" s="81"/>
-      <c r="B278" s="81"/>
-      <c r="C278" s="106"/>
-      <c r="D278" s="106"/>
+      <c r="A278" s="110"/>
+      <c r="B278" s="110"/>
+      <c r="C278" s="116"/>
+      <c r="D278" s="116"/>
       <c r="F278" s="43" t="s">
         <v>302</v>
       </c>
@@ -7615,10 +7618,10 @@
       <c r="K278" s="46"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A279" s="81"/>
-      <c r="B279" s="81"/>
-      <c r="C279" s="107"/>
-      <c r="D279" s="107"/>
+      <c r="A279" s="110"/>
+      <c r="B279" s="110"/>
+      <c r="C279" s="117"/>
+      <c r="D279" s="117"/>
       <c r="F279" s="43" t="s">
         <v>303</v>
       </c>
@@ -7630,12 +7633,12 @@
       <c r="K279" s="46"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A280" s="81"/>
-      <c r="B280" s="81"/>
-      <c r="C280" s="100" t="s">
+      <c r="A280" s="110"/>
+      <c r="B280" s="110"/>
+      <c r="C280" s="120" t="s">
         <v>304</v>
       </c>
-      <c r="D280" s="102"/>
+      <c r="D280" s="112"/>
       <c r="F280" s="49" t="s">
         <v>305</v>
       </c>
@@ -7645,10 +7648,10 @@
       <c r="K280" s="46"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A281" s="81"/>
-      <c r="B281" s="81"/>
-      <c r="C281" s="101"/>
-      <c r="D281" s="104"/>
+      <c r="A281" s="110"/>
+      <c r="B281" s="110"/>
+      <c r="C281" s="121"/>
+      <c r="D281" s="114"/>
       <c r="F281" s="43" t="s">
         <v>306</v>
       </c>
@@ -7660,8 +7663,8 @@
       <c r="K281" s="46"/>
     </row>
     <row r="282" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A282" s="81"/>
-      <c r="B282" s="81"/>
+      <c r="A282" s="110"/>
+      <c r="B282" s="110"/>
       <c r="C282" s="51" t="s">
         <v>308</v>
       </c>
@@ -7675,8 +7678,8 @@
       <c r="K282" s="46"/>
     </row>
     <row r="283" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A283" s="81"/>
-      <c r="B283" s="81"/>
+      <c r="A283" s="110"/>
+      <c r="B283" s="110"/>
       <c r="C283" s="53" t="s">
         <v>310</v>
       </c>
@@ -7694,8 +7697,8 @@
       </c>
     </row>
     <row r="284" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A284" s="81"/>
-      <c r="B284" s="81"/>
+      <c r="A284" s="110"/>
+      <c r="B284" s="110"/>
       <c r="C284" s="55" t="s">
         <v>314</v>
       </c>
@@ -7709,8 +7712,8 @@
       <c r="K284" s="46"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A285" s="81"/>
-      <c r="B285" s="81"/>
+      <c r="A285" s="110"/>
+      <c r="B285" s="110"/>
       <c r="C285" s="47" t="s">
         <v>315</v>
       </c>
@@ -7724,8 +7727,8 @@
       <c r="K285" s="46"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A286" s="81"/>
-      <c r="B286" s="81"/>
+      <c r="A286" s="110"/>
+      <c r="B286" s="110"/>
       <c r="C286" s="47"/>
       <c r="D286" s="47"/>
       <c r="F286" s="43" t="s">
@@ -7739,8 +7742,8 @@
       <c r="K286" s="46"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A287" s="81"/>
-      <c r="B287" s="81"/>
+      <c r="A287" s="110"/>
+      <c r="B287" s="110"/>
       <c r="C287" s="47"/>
       <c r="D287" s="47"/>
       <c r="F287" s="43" t="s">
@@ -7752,8 +7755,8 @@
       <c r="K287" s="46"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A288" s="81"/>
-      <c r="B288" s="81"/>
+      <c r="A288" s="110"/>
+      <c r="B288" s="110"/>
       <c r="C288" s="47" t="s">
         <v>320</v>
       </c>
@@ -7767,8 +7770,8 @@
       <c r="K288" s="46"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A289" s="81"/>
-      <c r="B289" s="81"/>
+      <c r="A289" s="110"/>
+      <c r="B289" s="110"/>
       <c r="C289" s="47"/>
       <c r="D289" s="47"/>
       <c r="F289" s="43" t="s">
@@ -7782,8 +7785,8 @@
       <c r="K289" s="46"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A290" s="81"/>
-      <c r="B290" s="81"/>
+      <c r="A290" s="110"/>
+      <c r="B290" s="110"/>
       <c r="C290" s="47"/>
       <c r="D290" s="47"/>
       <c r="F290" s="43" t="s">
@@ -7795,8 +7798,8 @@
       <c r="K290" s="46"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A291" s="81"/>
-      <c r="B291" s="81"/>
+      <c r="A291" s="110"/>
+      <c r="B291" s="110"/>
       <c r="C291" s="47" t="s">
         <v>325</v>
       </c>
@@ -7808,8 +7811,8 @@
       <c r="K291" s="46"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A292" s="81"/>
-      <c r="B292" s="82"/>
+      <c r="A292" s="110"/>
+      <c r="B292" s="111"/>
       <c r="C292" s="47" t="s">
         <v>326</v>
       </c>
@@ -7821,7 +7824,7 @@
       <c r="K292" s="46"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A293" s="82"/>
+      <c r="A293" s="111"/>
       <c r="B293" s="12" t="s">
         <v>327</v>
       </c>
@@ -7835,13 +7838,59 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="D230:D248"/>
-    <mergeCell ref="D250:D259"/>
-    <mergeCell ref="C261:C271"/>
-    <mergeCell ref="C272:C275"/>
-    <mergeCell ref="C276:C279"/>
-    <mergeCell ref="C230:C248"/>
-    <mergeCell ref="C250:C259"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A249:A293"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="B38:B47"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B83"/>
+    <mergeCell ref="B84:B113"/>
+    <mergeCell ref="B114:B134"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="B145:B248"/>
+    <mergeCell ref="B250:B292"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A28:A56"/>
+    <mergeCell ref="A57:A144"/>
+    <mergeCell ref="A145:A248"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C145:C160"/>
     <mergeCell ref="C280:C281"/>
     <mergeCell ref="D145:D146"/>
     <mergeCell ref="D148:D150"/>
@@ -7858,59 +7907,13 @@
     <mergeCell ref="C161:C191"/>
     <mergeCell ref="C192:C208"/>
     <mergeCell ref="C209:C229"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="C132:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C145:C160"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A249:A293"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B37"/>
-    <mergeCell ref="B38:B47"/>
-    <mergeCell ref="B48:B56"/>
-    <mergeCell ref="B57:B83"/>
-    <mergeCell ref="B84:B113"/>
-    <mergeCell ref="B114:B134"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="B145:B248"/>
-    <mergeCell ref="B250:B292"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="A28:A56"/>
-    <mergeCell ref="A57:A144"/>
-    <mergeCell ref="A145:A248"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C47"/>
+    <mergeCell ref="D230:D248"/>
+    <mergeCell ref="D250:D259"/>
+    <mergeCell ref="C261:C271"/>
+    <mergeCell ref="C272:C275"/>
+    <mergeCell ref="C276:C279"/>
+    <mergeCell ref="C230:C248"/>
+    <mergeCell ref="C250:C259"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7923,1190 +7926,1237 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="G37" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="127"/>
-    <col min="2" max="2" width="11.25" style="127" customWidth="1"/>
-    <col min="3" max="3" width="8.125" style="127" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="127" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="127" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="127" customWidth="1"/>
-    <col min="7" max="7" width="65" style="128" customWidth="1"/>
-    <col min="8" max="8" width="45.5" style="127" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="127" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="127" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="127"/>
+    <col min="1" max="1" width="9" style="71"/>
+    <col min="2" max="2" width="11.25" style="71" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="71" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="71" customWidth="1"/>
+    <col min="6" max="6" width="41.125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="65" style="72" customWidth="1"/>
+    <col min="8" max="8" width="45.5" style="71" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="71" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="71" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="71" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="129" t="s">
+      <c r="D2" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="74" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="129" t="s">
+      <c r="F2" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="131" t="s">
+      <c r="G2" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="73" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="129" t="s">
+      <c r="I2" s="73" t="s">
         <v>334</v>
       </c>
-      <c r="J2" s="129" t="s">
+      <c r="J2" s="73" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="175" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="135" t="s">
+      <c r="E3" s="155" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="175" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="76" t="s">
         <v>572</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="151" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="138" t="s">
+      <c r="I3" s="77" t="s">
         <v>342</v>
       </c>
-      <c r="J3" s="138" t="s">
+      <c r="J3" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="132"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="138" t="s">
+      <c r="B4" s="200"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="77" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="138" t="s">
+      <c r="J4" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="132"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="143" t="s">
+      <c r="B5" s="200"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="144" t="s">
+      <c r="E5" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="F5" s="143" t="s">
+      <c r="F5" s="79" t="s">
         <v>347</v>
       </c>
-      <c r="G5" s="138" t="s">
+      <c r="G5" s="77" t="s">
         <v>573</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="79" t="s">
         <v>345</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="132"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="138" t="s">
+      <c r="B6" s="200"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="145" t="s">
+      <c r="E6" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="77" t="s">
         <v>351</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="132"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="138" t="s">
+      <c r="B7" s="200"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="138" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="77" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138" t="s">
+      <c r="G7" s="77"/>
+      <c r="H7" s="77" t="s">
         <v>356</v>
       </c>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="132"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="146" t="s">
+      <c r="B8" s="200"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="173" t="s">
         <v>357</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="146" t="s">
+      <c r="F8" s="173" t="s">
         <v>359</v>
       </c>
-      <c r="G8" s="138" t="s">
+      <c r="G8" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="147" t="s">
+      <c r="H8" s="153" t="s">
         <v>361</v>
       </c>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="J8" s="143" t="s">
+      <c r="J8" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="132"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="143" t="s">
+      <c r="B9" s="200"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="173"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="J9" s="143" t="s">
+      <c r="J9" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="132"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="146" t="s">
+      <c r="B10" s="200"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="173" t="s">
         <v>364</v>
       </c>
-      <c r="E10" s="133" t="s">
+      <c r="E10" s="177" t="s">
         <v>358</v>
       </c>
-      <c r="F10" s="146" t="s">
+      <c r="F10" s="173" t="s">
         <v>359</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="147" t="s">
+      <c r="G10" s="76"/>
+      <c r="H10" s="153" t="s">
         <v>365</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="132"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="143" t="s">
+      <c r="B11" s="200"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="J11" s="143" t="s">
+      <c r="J11" s="79" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="132"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="134" t="s">
+      <c r="B12" s="200"/>
+      <c r="C12" s="187"/>
+      <c r="D12" s="175" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="155" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="150" t="s">
+      <c r="F12" s="174" t="s">
         <v>367</v>
       </c>
-      <c r="G12" s="151"/>
-      <c r="H12" s="137" t="s">
+      <c r="G12" s="82"/>
+      <c r="H12" s="151" t="s">
         <v>368</v>
       </c>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="81" t="s">
         <v>369</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="132"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="145" t="s">
+      <c r="B13" s="200"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="81" t="s">
         <v>370</v>
       </c>
-      <c r="J13" s="138" t="s">
+      <c r="J13" s="77" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="132"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="134" t="s">
+      <c r="B14" s="200"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="175" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="135" t="s">
+      <c r="E14" s="155" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="175" t="s">
         <v>372</v>
       </c>
-      <c r="G14" s="138" t="s">
+      <c r="G14" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="H14" s="137" t="s">
+      <c r="H14" s="151" t="s">
         <v>374</v>
       </c>
-      <c r="I14" s="138" t="s">
+      <c r="I14" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="132"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="138" t="s">
+      <c r="B15" s="200"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="J15" s="138" t="s">
+      <c r="J15" s="77" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="132"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="150" t="s">
+      <c r="B16" s="200"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="174" t="s">
         <v>376</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="135" t="s">
+      <c r="G16" s="77"/>
+      <c r="H16" s="155" t="s">
         <v>377</v>
       </c>
-      <c r="I16" s="138" t="s">
+      <c r="I16" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="J16" s="138" t="s">
+      <c r="J16" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="132"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="154" t="s">
+      <c r="B17" s="200"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="153"/>
-      <c r="I17" s="138" t="s">
+      <c r="H17" s="156"/>
+      <c r="I17" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="J17" s="138" t="s">
+      <c r="J17" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="132"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="154" t="s">
+      <c r="B18" s="200"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="84" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="138" t="s">
+      <c r="H18" s="156"/>
+      <c r="I18" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="J18" s="138" t="s">
+      <c r="J18" s="77" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="132"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="138" t="s">
+      <c r="B19" s="200"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="77" t="s">
         <v>382</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="77" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="132"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="138" t="s">
+      <c r="B20" s="200"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="77" t="s">
         <v>384</v>
       </c>
-      <c r="J20" s="138" t="s">
+      <c r="J20" s="77" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="201" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="156" t="s">
+      <c r="C21" s="179" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="157" t="s">
+      <c r="D21" s="166" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="157" t="s">
+      <c r="E21" s="166" t="s">
         <v>388</v>
       </c>
-      <c r="F21" s="157" t="s">
+      <c r="F21" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G21" s="157"/>
+      <c r="G21" s="166"/>
       <c r="H21" s="158" t="s">
         <v>390</v>
       </c>
-      <c r="I21" s="159" t="s">
+      <c r="I21" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="J21" s="159" t="s">
+      <c r="J21" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="155"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="159" t="s">
+      <c r="B22" s="201"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="J22" s="159" t="s">
+      <c r="J22" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="155"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="159" t="s">
+      <c r="B23" s="201"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="85" t="s">
         <v>393</v>
       </c>
-      <c r="J23" s="159" t="s">
+      <c r="J23" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="155"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="159" t="s">
+      <c r="B24" s="201"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="J24" s="159" t="s">
+      <c r="J24" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="155"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="157" t="s">
+      <c r="B25" s="201"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="166" t="s">
         <v>395</v>
       </c>
       <c r="E25" s="158" t="s">
         <v>396</v>
       </c>
-      <c r="F25" s="163" t="s">
+      <c r="F25" s="171" t="s">
         <v>397</v>
       </c>
-      <c r="G25" s="164"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="158" t="s">
         <v>398</v>
       </c>
-      <c r="I25" s="159" t="s">
+      <c r="I25" s="85" t="s">
         <v>399</v>
       </c>
-      <c r="J25" s="159" t="s">
+      <c r="J25" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="155"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="159" t="s">
+      <c r="B26" s="201"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="J26" s="159" t="s">
+      <c r="J26" s="85" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="155"/>
-      <c r="C27" s="160"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="159" t="s">
+      <c r="B27" s="201"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="85" t="s">
         <v>400</v>
       </c>
-      <c r="J27" s="159" t="s">
+      <c r="J27" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="155"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="157" t="s">
+      <c r="B28" s="201"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="166" t="s">
         <v>401</v>
       </c>
       <c r="E28" s="158" t="s">
         <v>396</v>
       </c>
-      <c r="F28" s="157" t="s">
+      <c r="F28" s="166" t="s">
         <v>402</v>
       </c>
-      <c r="G28" s="167"/>
-      <c r="H28" s="168" t="s">
+      <c r="G28" s="89"/>
+      <c r="H28" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="I28" s="159" t="s">
+      <c r="I28" s="85" t="s">
         <v>404</v>
       </c>
-      <c r="J28" s="159" t="s">
+      <c r="J28" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="155"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="159" t="s">
+      <c r="B29" s="201"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="85" t="s">
         <v>405</v>
       </c>
-      <c r="J29" s="159" t="s">
+      <c r="J29" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="155"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="157"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="159" t="s">
+      <c r="B30" s="201"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="J30" s="159" t="s">
+      <c r="J30" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="155"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="159" t="s">
+      <c r="B31" s="201"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="85" t="s">
         <v>407</v>
       </c>
-      <c r="J31" s="159" t="s">
+      <c r="J31" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="155"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="159" t="s">
+      <c r="B32" s="201"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="J32" s="159" t="s">
+      <c r="J32" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="155"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="159" t="s">
+      <c r="B33" s="201"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="160"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="J33" s="159" t="s">
+      <c r="J33" s="85" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="155"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="173" t="s">
+      <c r="B34" s="201"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="92" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="174" t="s">
+      <c r="E34" s="93" t="s">
         <v>396</v>
       </c>
-      <c r="F34" s="173" t="s">
+      <c r="F34" s="92" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="173" t="s">
+      <c r="G34" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="H34" s="173" t="s">
+      <c r="H34" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="I34" s="173" t="s">
+      <c r="I34" s="92" t="s">
         <v>414</v>
       </c>
-      <c r="J34" s="173" t="s">
+      <c r="J34" s="92" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="155"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="175" t="s">
+      <c r="B35" s="201"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="172" t="s">
         <v>415</v>
       </c>
-      <c r="E35" s="156" t="s">
+      <c r="E35" s="179" t="s">
         <v>416</v>
       </c>
-      <c r="F35" s="175" t="s">
+      <c r="F35" s="172" t="s">
         <v>417</v>
       </c>
-      <c r="G35" s="167" t="s">
+      <c r="G35" s="89" t="s">
         <v>418</v>
       </c>
-      <c r="H35" s="176" t="s">
+      <c r="H35" s="164" t="s">
         <v>419</v>
       </c>
-      <c r="I35" s="173" t="s">
+      <c r="I35" s="92" t="s">
         <v>420</v>
       </c>
-      <c r="J35" s="173" t="s">
+      <c r="J35" s="92" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="155"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="175"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="171" t="s">
+      <c r="B36" s="201"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="91" t="s">
         <v>421</v>
       </c>
-      <c r="H36" s="178"/>
-      <c r="I36" s="173" t="s">
+      <c r="H36" s="165"/>
+      <c r="I36" s="92" t="s">
         <v>422</v>
       </c>
-      <c r="J36" s="173" t="s">
+      <c r="J36" s="92" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="179"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="160"/>
-      <c r="D37" s="173" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="92" t="s">
         <v>423</v>
       </c>
-      <c r="E37" s="174"/>
-      <c r="F37" s="173" t="s">
+      <c r="E37" s="93"/>
+      <c r="F37" s="92" t="s">
         <v>424</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="H37" s="173" t="s">
+      <c r="H37" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="I37" s="173" t="s">
+      <c r="I37" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="J37" s="173" t="s">
+      <c r="J37" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="179"/>
-      <c r="P37" s="179"/>
-      <c r="Q37" s="179"/>
-      <c r="R37" s="179"/>
-      <c r="S37" s="179"/>
-      <c r="T37" s="179"/>
-      <c r="U37" s="179"/>
-      <c r="V37" s="179"/>
-      <c r="W37" s="179"/>
-      <c r="X37" s="179"/>
-      <c r="Y37" s="179"/>
-    </row>
-    <row r="38" spans="1:25" s="183" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="179"/>
-      <c r="B38" s="181"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="157" t="s">
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="94"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="94"/>
+      <c r="X37" s="94"/>
+      <c r="Y37" s="94"/>
+    </row>
+    <row r="38" spans="1:25" s="96" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="94"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="166" t="s">
         <v>371</v>
       </c>
-      <c r="E38" s="157" t="s">
+      <c r="E38" s="166" t="s">
         <v>396</v>
       </c>
-      <c r="F38" s="157" t="s">
+      <c r="F38" s="166" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="157" t="s">
+      <c r="G38" s="166" t="s">
         <v>568</v>
       </c>
-      <c r="H38" s="157" t="s">
+      <c r="H38" s="166" t="s">
         <v>569</v>
       </c>
-      <c r="I38" s="173" t="s">
+      <c r="I38" s="92" t="s">
         <v>429</v>
       </c>
-      <c r="J38" s="173" t="s">
+      <c r="J38" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="K38" s="179"/>
-      <c r="L38" s="179"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="179"/>
-      <c r="R38" s="179"/>
-      <c r="S38" s="179"/>
-      <c r="T38" s="179"/>
-      <c r="U38" s="179"/>
-      <c r="V38" s="179"/>
-      <c r="W38" s="179"/>
-      <c r="X38" s="179"/>
-      <c r="Y38" s="179"/>
-    </row>
-    <row r="39" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="179"/>
-      <c r="B39" s="181"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="157"/>
-      <c r="H39" s="157"/>
-      <c r="I39" s="173" t="s">
+      <c r="K38" s="94"/>
+      <c r="L38" s="94"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="94"/>
+      <c r="Y38" s="94"/>
+    </row>
+    <row r="39" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="94"/>
+      <c r="B39" s="202"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="166"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="92" t="s">
         <v>430</v>
       </c>
-      <c r="J39" s="173" t="s">
+      <c r="J39" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="K39" s="179"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="179"/>
-      <c r="P39" s="179"/>
-      <c r="Q39" s="179"/>
-      <c r="R39" s="179"/>
-      <c r="S39" s="179"/>
-      <c r="T39" s="179"/>
-      <c r="U39" s="179"/>
-      <c r="V39" s="179"/>
-      <c r="W39" s="179"/>
-      <c r="X39" s="179"/>
-      <c r="Y39" s="179"/>
-    </row>
-    <row r="40" spans="1:25" s="183" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="179"/>
-      <c r="B40" s="181"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="157"/>
-      <c r="H40" s="157"/>
-      <c r="I40" s="173" t="s">
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+    </row>
+    <row r="40" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="94"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="92" t="s">
         <v>431</v>
       </c>
-      <c r="J40" s="173" t="s">
+      <c r="J40" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="K40" s="179"/>
-      <c r="L40" s="179"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="179"/>
-      <c r="O40" s="179"/>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="179"/>
-      <c r="R40" s="179"/>
-      <c r="S40" s="179"/>
-      <c r="T40" s="179"/>
-      <c r="U40" s="179"/>
-      <c r="V40" s="179"/>
-      <c r="W40" s="179"/>
-      <c r="X40" s="179"/>
-      <c r="Y40" s="179"/>
+      <c r="K40" s="94"/>
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="185" t="s">
+      <c r="B41" s="203" t="s">
         <v>432</v>
       </c>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="191" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="187" t="s">
+      <c r="D41" s="204" t="s">
         <v>434</v>
       </c>
-      <c r="E41" s="188" t="s">
+      <c r="E41" s="181" t="s">
         <v>435</v>
       </c>
-      <c r="F41" s="189" t="s">
+      <c r="F41" s="149" t="s">
         <v>436</v>
       </c>
-      <c r="G41" s="190" t="s">
+      <c r="G41" s="167" t="s">
         <v>437</v>
       </c>
-      <c r="H41" s="190" t="s">
+      <c r="H41" s="167" t="s">
         <v>438</v>
       </c>
-      <c r="I41" s="191" t="s">
+      <c r="I41" s="97" t="s">
         <v>439</v>
       </c>
-      <c r="J41" s="191" t="s">
+      <c r="J41" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="K41" s="179"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="179"/>
-      <c r="O41" s="179"/>
-      <c r="P41" s="179"/>
-      <c r="Q41" s="179"/>
-      <c r="R41" s="179"/>
-      <c r="S41" s="179"/>
-      <c r="T41" s="179"/>
-      <c r="U41" s="179"/>
-      <c r="V41" s="179"/>
-      <c r="W41" s="179"/>
-      <c r="X41" s="179"/>
-      <c r="Y41" s="179"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="185"/>
+      <c r="B42" s="203"/>
       <c r="C42" s="192"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="191" t="s">
+      <c r="D42" s="204"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="97" t="s">
         <v>440</v>
       </c>
-      <c r="J42" s="191" t="s">
+      <c r="J42" s="97" t="s">
         <v>343</v>
       </c>
-      <c r="K42" s="179"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="179"/>
-      <c r="O42" s="179"/>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="179"/>
-      <c r="R42" s="179"/>
-      <c r="S42" s="179"/>
-      <c r="T42" s="179"/>
-      <c r="U42" s="179"/>
-      <c r="V42" s="179"/>
-      <c r="W42" s="179"/>
-      <c r="X42" s="179"/>
-      <c r="Y42" s="179"/>
+      <c r="K42" s="94"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="185"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="192"/>
-      <c r="D43" s="195" t="s">
+      <c r="D43" s="98" t="s">
         <v>441</v>
       </c>
-      <c r="E43" s="196" t="s">
+      <c r="E43" s="99" t="s">
         <v>442</v>
       </c>
-      <c r="F43" s="195" t="s">
+      <c r="F43" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="G43" s="191" t="s">
+      <c r="G43" s="97" t="s">
         <v>574</v>
       </c>
-      <c r="H43" s="195" t="s">
+      <c r="H43" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="I43" s="195" t="s">
+      <c r="I43" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="J43" s="195" t="s">
+      <c r="J43" s="98" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="185"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="191" t="s">
+      <c r="B44" s="203"/>
+      <c r="C44" s="193"/>
+      <c r="D44" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="E44" s="198" t="s">
+      <c r="E44" s="100" t="s">
         <v>549</v>
       </c>
-      <c r="F44" s="198" t="s">
+      <c r="F44" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="G44" s="198" t="s">
+      <c r="G44" s="100" t="s">
         <v>448</v>
       </c>
-      <c r="H44" s="191" t="s">
+      <c r="H44" s="97" t="s">
         <v>449</v>
       </c>
-      <c r="I44" s="191" t="s">
+      <c r="I44" s="97" t="s">
         <v>450</v>
       </c>
-      <c r="J44" s="195" t="s">
+      <c r="J44" s="98" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="199" t="s">
+      <c r="B45" s="185" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="200" t="s">
+      <c r="C45" s="194" t="s">
         <v>452</v>
       </c>
-      <c r="D45" s="201" t="s">
+      <c r="D45" s="101" t="s">
         <v>453</v>
       </c>
-      <c r="E45" s="202" t="s">
+      <c r="E45" s="102" t="s">
         <v>454</v>
       </c>
-      <c r="F45" s="201" t="s">
+      <c r="F45" s="101" t="s">
         <v>455</v>
       </c>
-      <c r="G45" s="203" t="s">
+      <c r="G45" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="H45" s="201" t="s">
+      <c r="H45" s="101" t="s">
         <v>457</v>
       </c>
-      <c r="I45" s="201" t="s">
+      <c r="I45" s="101" t="s">
         <v>458</v>
       </c>
-      <c r="J45" s="201" t="s">
+      <c r="J45" s="101" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="199"/>
-      <c r="C46" s="204"/>
-      <c r="D46" s="201" t="s">
+      <c r="B46" s="185"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="101" t="s">
         <v>459</v>
       </c>
-      <c r="E46" s="202" t="s">
+      <c r="E46" s="102" t="s">
         <v>460</v>
       </c>
-      <c r="F46" s="201" t="s">
+      <c r="F46" s="101" t="s">
         <v>461</v>
       </c>
-      <c r="G46" s="203"/>
-      <c r="H46" s="201" t="s">
+      <c r="G46" s="103"/>
+      <c r="H46" s="101" t="s">
         <v>462</v>
       </c>
-      <c r="I46" s="201" t="s">
+      <c r="I46" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="J46" s="201" t="s">
+      <c r="J46" s="101" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="199"/>
-      <c r="C47" s="204"/>
-      <c r="D47" s="205" t="s">
+      <c r="B47" s="185"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="176" t="s">
         <v>463</v>
       </c>
-      <c r="E47" s="206" t="s">
+      <c r="E47" s="183" t="s">
         <v>454</v>
       </c>
-      <c r="F47" s="207" t="s">
+      <c r="F47" s="150" t="s">
         <v>464</v>
       </c>
-      <c r="G47" s="208" t="s">
+      <c r="G47" s="104" t="s">
         <v>465</v>
       </c>
-      <c r="H47" s="209" t="s">
+      <c r="H47" s="169" t="s">
         <v>466</v>
       </c>
-      <c r="I47" s="201" t="s">
+      <c r="I47" s="101" t="s">
         <v>467</v>
       </c>
-      <c r="J47" s="201" t="s">
+      <c r="J47" s="101" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="199"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="207"/>
-      <c r="G48" s="212" t="s">
+      <c r="B48" s="185"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="105" t="s">
         <v>468</v>
       </c>
-      <c r="H48" s="213"/>
-      <c r="I48" s="201" t="s">
+      <c r="H48" s="170"/>
+      <c r="I48" s="101" t="s">
         <v>469</v>
       </c>
-      <c r="J48" s="201" t="s">
+      <c r="J48" s="101" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="214" t="s">
+      <c r="B49" s="186" t="s">
         <v>470</v>
       </c>
-      <c r="C49" s="215" t="s">
+      <c r="C49" s="197" t="s">
         <v>471</v>
       </c>
-      <c r="D49" s="216" t="s">
+      <c r="D49" s="106" t="s">
         <v>472</v>
       </c>
-      <c r="E49" s="217" t="s">
+      <c r="E49" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="F49" s="216" t="s">
+      <c r="F49" s="106" t="s">
         <v>473</v>
       </c>
-      <c r="G49" s="218" t="s">
+      <c r="G49" s="108" t="s">
         <v>474</v>
       </c>
-      <c r="H49" s="216" t="s">
+      <c r="H49" s="106" t="s">
         <v>475</v>
       </c>
-      <c r="I49" s="216" t="s">
+      <c r="I49" s="106" t="s">
         <v>476</v>
       </c>
-      <c r="J49" s="216" t="s">
+      <c r="J49" s="106" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="214"/>
-      <c r="C50" s="219"/>
-      <c r="D50" s="216" t="s">
+      <c r="B50" s="186"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="106" t="s">
         <v>477</v>
       </c>
-      <c r="E50" s="217" t="s">
+      <c r="E50" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="F50" s="216" t="s">
+      <c r="F50" s="106" t="s">
         <v>478</v>
       </c>
-      <c r="G50" s="218" t="s">
+      <c r="G50" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="H50" s="216" t="s">
+      <c r="H50" s="106" t="s">
         <v>480</v>
       </c>
-      <c r="I50" s="216" t="s">
+      <c r="I50" s="106" t="s">
         <v>481</v>
       </c>
-      <c r="J50" s="216" t="s">
+      <c r="J50" s="106" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="214"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="216" t="s">
+      <c r="B51" s="186"/>
+      <c r="C51" s="198"/>
+      <c r="D51" s="106" t="s">
         <v>482</v>
       </c>
-      <c r="E51" s="217" t="s">
+      <c r="E51" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="F51" s="216" t="s">
+      <c r="F51" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="G51" s="218"/>
-      <c r="H51" s="216" t="s">
+      <c r="G51" s="108"/>
+      <c r="H51" s="106" t="s">
         <v>484</v>
       </c>
-      <c r="I51" s="216" t="s">
+      <c r="I51" s="106" t="s">
         <v>483</v>
       </c>
-      <c r="J51" s="216" t="s">
+      <c r="J51" s="106" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="214"/>
-      <c r="C52" s="219"/>
-      <c r="D52" s="216" t="s">
+      <c r="B52" s="186"/>
+      <c r="C52" s="198"/>
+      <c r="D52" s="106" t="s">
         <v>485</v>
       </c>
-      <c r="E52" s="217" t="s">
+      <c r="E52" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="F52" s="216" t="s">
+      <c r="F52" s="106" t="s">
         <v>486</v>
       </c>
-      <c r="G52" s="218" t="s">
+      <c r="G52" s="108" t="s">
         <v>479</v>
       </c>
-      <c r="H52" s="216" t="s">
+      <c r="H52" s="106" t="s">
         <v>487</v>
       </c>
-      <c r="I52" s="216" t="s">
+      <c r="I52" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J52" s="216" t="s">
+      <c r="J52" s="106" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="214"/>
-      <c r="C53" s="220"/>
-      <c r="D53" s="216" t="s">
+      <c r="B53" s="186"/>
+      <c r="C53" s="199"/>
+      <c r="D53" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="217" t="s">
+      <c r="E53" s="107" t="s">
         <v>358</v>
       </c>
-      <c r="F53" s="216" t="s">
+      <c r="F53" s="106" t="s">
         <v>489</v>
       </c>
-      <c r="G53" s="218" t="s">
+      <c r="G53" s="108" t="s">
         <v>490</v>
       </c>
-      <c r="H53" s="216" t="s">
+      <c r="H53" s="106" t="s">
         <v>449</v>
       </c>
-      <c r="I53" s="216" t="s">
+      <c r="I53" s="106" t="s">
         <v>488</v>
       </c>
-      <c r="J53" s="216" t="s">
+      <c r="J53" s="106" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="H3:H4"/>
@@ -9123,53 +9173,6 @@
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="F21:F24"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9234,23 +9237,23 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="212" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="208" t="s">
         <v>337</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="214" t="s">
         <v>338</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="215" t="s">
         <v>339</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="214" t="s">
         <v>340</v>
       </c>
       <c r="G3" s="61"/>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="205" t="s">
         <v>341</v>
       </c>
       <c r="I3" s="62" t="s">
@@ -9261,13 +9264,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="111"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="117"/>
+      <c r="B4" s="212"/>
+      <c r="C4" s="213"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="214"/>
       <c r="G4" s="63"/>
-      <c r="H4" s="116"/>
+      <c r="H4" s="206"/>
       <c r="I4" s="62" t="s">
         <v>344</v>
       </c>
@@ -9276,8 +9279,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="111"/>
-      <c r="C5" s="113"/>
+      <c r="B5" s="212"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="64" t="s">
         <v>345</v>
       </c>
@@ -9299,8 +9302,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="213"/>
       <c r="D6" s="62" t="s">
         <v>121</v>
       </c>
@@ -9322,8 +9325,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="111"/>
-      <c r="C7" s="113"/>
+      <c r="B7" s="212"/>
+      <c r="C7" s="213"/>
       <c r="D7" s="62" t="s">
         <v>354</v>
       </c>
@@ -9343,21 +9346,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="111"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="120" t="s">
+      <c r="B8" s="212"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="207" t="s">
         <v>357</v>
       </c>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="208" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="207" t="s">
         <v>359</v>
       </c>
       <c r="G8" s="62" t="s">
         <v>360</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="210" t="s">
         <v>361</v>
       </c>
       <c r="I8" s="64" t="s">
@@ -9368,13 +9371,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="111"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="120"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="207"/>
       <c r="G9" s="62"/>
-      <c r="H9" s="122"/>
+      <c r="H9" s="211"/>
       <c r="I9" s="64" t="s">
         <v>363</v>
       </c>
@@ -9383,19 +9386,19 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="120" t="s">
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="207" t="s">
         <v>364</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="208" t="s">
         <v>358</v>
       </c>
-      <c r="F10" s="120" t="s">
+      <c r="F10" s="207" t="s">
         <v>359</v>
       </c>
       <c r="G10" s="61"/>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="210" t="s">
         <v>365</v>
       </c>
       <c r="I10" s="64" t="s">
@@ -9406,13 +9409,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="111"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="120"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="63"/>
-      <c r="H11" s="122"/>
+      <c r="H11" s="211"/>
       <c r="I11" s="64" t="s">
         <v>363</v>
       </c>
@@ -9421,19 +9424,19 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="111"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="117" t="s">
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214" t="s">
         <v>366</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="215" t="s">
         <v>358</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="217" t="s">
         <v>367</v>
       </c>
       <c r="G12" s="67"/>
-      <c r="H12" s="115" t="s">
+      <c r="H12" s="205" t="s">
         <v>368</v>
       </c>
       <c r="I12" s="66" t="s">
@@ -9444,13 +9447,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="111"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="123"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="217"/>
       <c r="G13" s="68"/>
-      <c r="H13" s="116"/>
+      <c r="H13" s="206"/>
       <c r="I13" s="66" t="s">
         <v>370</v>
       </c>
@@ -9459,21 +9462,21 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="111"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="117" t="s">
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="215" t="s">
         <v>358</v>
       </c>
-      <c r="F14" s="117" t="s">
+      <c r="F14" s="214" t="s">
         <v>372</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="H14" s="115" t="s">
+      <c r="H14" s="205" t="s">
         <v>374</v>
       </c>
       <c r="I14" s="62" t="s">
@@ -9484,13 +9487,13 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="111"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="117"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="218"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="63"/>
-      <c r="H15" s="116"/>
+      <c r="H15" s="206"/>
       <c r="I15" s="62" t="s">
         <v>375</v>
       </c>
@@ -9499,15 +9502,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="111"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="123" t="s">
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="217" t="s">
         <v>376</v>
       </c>
       <c r="G16" s="62"/>
-      <c r="H16" s="118" t="s">
+      <c r="H16" s="215" t="s">
         <v>377</v>
       </c>
       <c r="I16" s="62" t="s">
@@ -9518,15 +9521,15 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="111"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="123"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="217"/>
       <c r="G17" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="124"/>
+      <c r="H17" s="218"/>
       <c r="I17" s="62" t="s">
         <v>353</v>
       </c>
@@ -9535,15 +9538,15 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="111"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="123"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="217"/>
       <c r="G18" s="69" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="124"/>
+      <c r="H18" s="218"/>
       <c r="I18" s="62" t="s">
         <v>381</v>
       </c>
@@ -9552,13 +9555,13 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="111"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="123"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="217"/>
       <c r="G19" s="69"/>
-      <c r="H19" s="124"/>
+      <c r="H19" s="218"/>
       <c r="I19" s="62" t="s">
         <v>382</v>
       </c>
@@ -9567,13 +9570,13 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="111"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="123"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="217"/>
       <c r="G20" s="68"/>
-      <c r="H20" s="119"/>
+      <c r="H20" s="216"/>
       <c r="I20" s="62" t="s">
         <v>384</v>
       </c>
@@ -9582,23 +9585,23 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="220" t="s">
         <v>385</v>
       </c>
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="208" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="117" t="s">
+      <c r="D21" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="117" t="s">
+      <c r="E21" s="214" t="s">
         <v>388</v>
       </c>
-      <c r="F21" s="117" t="s">
+      <c r="F21" s="214" t="s">
         <v>389</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118" t="s">
+      <c r="G21" s="214"/>
+      <c r="H21" s="215" t="s">
         <v>390</v>
       </c>
       <c r="I21" s="62" t="s">
@@ -9609,13 +9612,13 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="126"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="124"/>
+      <c r="B22" s="220"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="218"/>
       <c r="I22" s="62" t="s">
         <v>392</v>
       </c>
@@ -9624,13 +9627,13 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="126"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="124"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="218"/>
       <c r="I23" s="62" t="s">
         <v>393</v>
       </c>
@@ -9639,13 +9642,13 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="126"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="119"/>
+      <c r="B24" s="220"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="216"/>
       <c r="I24" s="62" t="s">
         <v>394</v>
       </c>
@@ -9654,19 +9657,19 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="126"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="117" t="s">
+      <c r="B25" s="220"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214" t="s">
         <v>395</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="215" t="s">
         <v>396</v>
       </c>
-      <c r="F25" s="123" t="s">
+      <c r="F25" s="217" t="s">
         <v>397</v>
       </c>
       <c r="G25" s="67"/>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="215" t="s">
         <v>398</v>
       </c>
       <c r="I25" s="62" t="s">
@@ -9677,13 +9680,13 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="126"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="123"/>
+      <c r="B26" s="220"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="217"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="124"/>
+      <c r="H26" s="218"/>
       <c r="I26" s="62" t="s">
         <v>392</v>
       </c>
@@ -9692,13 +9695,13 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="126"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="123"/>
+      <c r="B27" s="220"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217"/>
       <c r="G27" s="68"/>
-      <c r="H27" s="119"/>
+      <c r="H27" s="216"/>
       <c r="I27" s="62" t="s">
         <v>400</v>
       </c>
@@ -9707,19 +9710,19 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="126"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="117" t="s">
+      <c r="B28" s="220"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214" t="s">
         <v>401</v>
       </c>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="215" t="s">
         <v>396</v>
       </c>
-      <c r="F28" s="117" t="s">
+      <c r="F28" s="214" t="s">
         <v>402</v>
       </c>
       <c r="G28" s="61"/>
-      <c r="H28" s="115" t="s">
+      <c r="H28" s="205" t="s">
         <v>403</v>
       </c>
       <c r="I28" s="62" t="s">
@@ -9730,13 +9733,13 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="126"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="117"/>
+      <c r="B29" s="220"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="218"/>
+      <c r="F29" s="214"/>
       <c r="G29" s="70"/>
-      <c r="H29" s="125"/>
+      <c r="H29" s="219"/>
       <c r="I29" s="62" t="s">
         <v>405</v>
       </c>
@@ -9745,13 +9748,13 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="126"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="117"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="214"/>
       <c r="G30" s="70"/>
-      <c r="H30" s="125"/>
+      <c r="H30" s="219"/>
       <c r="I30" s="62" t="s">
         <v>406</v>
       </c>
@@ -9760,13 +9763,13 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="126"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="117"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="218"/>
+      <c r="F31" s="214"/>
       <c r="G31" s="70"/>
-      <c r="H31" s="125"/>
+      <c r="H31" s="219"/>
       <c r="I31" s="62" t="s">
         <v>407</v>
       </c>
@@ -9775,13 +9778,13 @@
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="126"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="117"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="214"/>
       <c r="G32" s="70"/>
-      <c r="H32" s="125"/>
+      <c r="H32" s="219"/>
       <c r="I32" s="62" t="s">
         <v>408</v>
       </c>
@@ -9790,13 +9793,13 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B33" s="126"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="117"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="214"/>
       <c r="G33" s="63"/>
-      <c r="H33" s="116"/>
+      <c r="H33" s="206"/>
       <c r="I33" s="62" t="s">
         <v>409</v>
       </c>
@@ -9805,8 +9808,8 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B34" s="126"/>
-      <c r="C34" s="113"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="213"/>
       <c r="D34" s="64" t="s">
         <v>410</v>
       </c>
@@ -9830,21 +9833,21 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B35" s="126"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="120" t="s">
+      <c r="B35" s="220"/>
+      <c r="C35" s="213"/>
+      <c r="D35" s="207" t="s">
         <v>415</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="208" t="s">
         <v>416</v>
       </c>
-      <c r="F35" s="120" t="s">
+      <c r="F35" s="207" t="s">
         <v>417</v>
       </c>
       <c r="G35" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H35" s="210" t="s">
         <v>419</v>
       </c>
       <c r="I35" s="64" t="s">
@@ -9855,15 +9858,15 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B36" s="126"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="120"/>
+      <c r="B36" s="220"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="207"/>
       <c r="G36" s="63" t="s">
         <v>421</v>
       </c>
-      <c r="H36" s="122"/>
+      <c r="H36" s="211"/>
       <c r="I36" s="64" t="s">
         <v>422</v>
       </c>
@@ -9873,8 +9876,8 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="113"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="213"/>
       <c r="D37" s="64" t="s">
         <v>423</v>
       </c>
@@ -9912,21 +9915,21 @@
     </row>
     <row r="38" spans="1:25" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="117" t="s">
+      <c r="B38" s="220"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="214" t="s">
         <v>371</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="214" t="s">
         <v>396</v>
       </c>
-      <c r="F38" s="117" t="s">
+      <c r="F38" s="214" t="s">
         <v>428</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="214" t="s">
         <v>568</v>
       </c>
-      <c r="H38" s="117" t="s">
+      <c r="H38" s="214" t="s">
         <v>569</v>
       </c>
       <c r="I38" s="64" t="s">
@@ -9953,13 +9956,13 @@
     </row>
     <row r="39" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="214"/>
+      <c r="E39" s="214"/>
+      <c r="F39" s="214"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="64" t="s">
         <v>430</v>
       </c>
@@ -9984,13 +9987,13 @@
     </row>
     <row r="40" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
+      <c r="B40" s="220"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
       <c r="I40" s="64" t="s">
         <v>431</v>
       </c>
@@ -10014,25 +10017,25 @@
       <c r="Y40" s="60"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="212" t="s">
         <v>432</v>
       </c>
-      <c r="C41" s="112" t="s">
+      <c r="C41" s="208" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="214" t="s">
         <v>434</v>
       </c>
-      <c r="E41" s="118" t="s">
+      <c r="E41" s="215" t="s">
         <v>435</v>
       </c>
-      <c r="F41" s="123" t="s">
+      <c r="F41" s="217" t="s">
         <v>436</v>
       </c>
-      <c r="G41" s="115" t="s">
+      <c r="G41" s="205" t="s">
         <v>437</v>
       </c>
-      <c r="H41" s="115" t="s">
+      <c r="H41" s="205" t="s">
         <v>438</v>
       </c>
       <c r="I41" s="62" t="s">
@@ -10058,13 +10061,13 @@
       <c r="Y41" s="60"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B42" s="111"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="216"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
       <c r="I42" s="62" t="s">
         <v>440</v>
       </c>
@@ -10088,8 +10091,8 @@
       <c r="Y42" s="60"/>
     </row>
     <row r="43" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="111"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="213"/>
       <c r="D43" s="64" t="s">
         <v>441</v>
       </c>
@@ -10111,8 +10114,8 @@
       </c>
     </row>
     <row r="44" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="111"/>
-      <c r="C44" s="114"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="209"/>
       <c r="D44" s="62" t="s">
         <v>446</v>
       </c>
@@ -10136,10 +10139,10 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B45" s="111" t="s">
+      <c r="B45" s="212" t="s">
         <v>451</v>
       </c>
-      <c r="C45" s="112" t="s">
+      <c r="C45" s="208" t="s">
         <v>452</v>
       </c>
       <c r="D45" s="64" t="s">
@@ -10165,8 +10168,8 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B46" s="111"/>
-      <c r="C46" s="113"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="213"/>
       <c r="D46" s="64" t="s">
         <v>459</v>
       </c>
@@ -10188,21 +10191,21 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B47" s="111"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="117" t="s">
+      <c r="B47" s="212"/>
+      <c r="C47" s="213"/>
+      <c r="D47" s="214" t="s">
         <v>463</v>
       </c>
-      <c r="E47" s="118" t="s">
+      <c r="E47" s="215" t="s">
         <v>454</v>
       </c>
-      <c r="F47" s="120" t="s">
+      <c r="F47" s="207" t="s">
         <v>464</v>
       </c>
       <c r="G47" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="H47" s="121" t="s">
+      <c r="H47" s="210" t="s">
         <v>466</v>
       </c>
       <c r="I47" s="64" t="s">
@@ -10213,15 +10216,15 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B48" s="111"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="209"/>
+      <c r="D48" s="214"/>
+      <c r="E48" s="216"/>
+      <c r="F48" s="207"/>
       <c r="G48" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="H48" s="122"/>
+      <c r="H48" s="211"/>
       <c r="I48" s="64" t="s">
         <v>469</v>
       </c>
@@ -10230,10 +10233,10 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="111" t="s">
+      <c r="B49" s="212" t="s">
         <v>470</v>
       </c>
-      <c r="C49" s="112" t="s">
+      <c r="C49" s="208" t="s">
         <v>471</v>
       </c>
       <c r="D49" s="64" t="s">
@@ -10259,8 +10262,8 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="111"/>
-      <c r="C50" s="113"/>
+      <c r="B50" s="212"/>
+      <c r="C50" s="213"/>
       <c r="D50" s="64" t="s">
         <v>477</v>
       </c>
@@ -10284,8 +10287,8 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="111"/>
-      <c r="C51" s="113"/>
+      <c r="B51" s="212"/>
+      <c r="C51" s="213"/>
       <c r="D51" s="64" t="s">
         <v>482</v>
       </c>
@@ -10307,8 +10310,8 @@
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="111"/>
-      <c r="C52" s="113"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="213"/>
       <c r="D52" s="64" t="s">
         <v>485</v>
       </c>
@@ -10332,8 +10335,8 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="111"/>
-      <c r="C53" s="114"/>
+      <c r="B53" s="212"/>
+      <c r="C53" s="209"/>
       <c r="D53" s="64" t="s">
         <v>180</v>
       </c>
@@ -10358,54 +10361,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B3:B20"/>
-    <mergeCell ref="C3:C20"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D14:D20"/>
-    <mergeCell ref="E14:E20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="F28:F33"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="B21:B40"/>
-    <mergeCell ref="C21:C40"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="H38:H40"/>
     <mergeCell ref="B49:B53"/>
     <mergeCell ref="C49:C53"/>
     <mergeCell ref="H41:H42"/>
@@ -10421,6 +10376,54 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B21:B40"/>
+    <mergeCell ref="C21:C40"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="F28:F33"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="C3:C20"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="E14:E20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
